--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -24,52 +24,85 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Foundations for DM and Algo:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CS &amp; P:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Python:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mentorship:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GitHub:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Online Courses:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Reading:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Main insights this week:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Things that were good this week:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Things I’ll focus more next week:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Study buddy/group:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comments to GH team:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
     <t>week</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>Foundations for Discrete Mathematics and Data Structures &amp; Algorithms:</t>
+  </si>
+  <si>
+    <t>Computer Systems and Industrial Programming:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intro to IT </t>
+  </si>
+  <si>
+    <t>Python:</t>
+  </si>
+  <si>
+    <t>Mentorship and personal growth:</t>
+  </si>
+  <si>
+    <t>GitHub:</t>
+  </si>
+  <si>
+    <t>Online Courses:</t>
+  </si>
+  <si>
+    <t>Reading:</t>
+  </si>
+  <si>
+    <t>Main insights this week:</t>
+  </si>
+  <si>
+    <t>Things that were good this week:</t>
+  </si>
+  <si>
+    <t>Things I’ll focus more next week:</t>
+  </si>
+  <si>
+    <t>Study buddy/group:</t>
+  </si>
+  <si>
+    <t>Comments to GH team:</t>
+  </si>
+  <si>
+    <t>Reviewed 2 lessons</t>
+  </si>
+  <si>
+    <t>2/200</t>
+  </si>
+  <si>
+    <t>attended the last part of lesson</t>
+  </si>
+  <si>
+    <t>everything get worse</t>
+  </si>
+  <si>
+    <t>I tried to organize my day, started reading a book, and installed Python.</t>
+  </si>
+  <si>
+    <t>I knew nothing about academy</t>
+  </si>
+  <si>
+    <t>Thanks for the kick in the 5th point</t>
+  </si>
+  <si>
+    <t>get out of the role of the one playing catch-up</t>
+  </si>
+  <si>
+    <t>Reviewed 1 week lessons</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,18 +113,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -114,22 +167,114 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -416,222 +561,305 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="18" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="39.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="18" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10">
+        <v>6</v>
+      </c>
+      <c r="H1" s="10">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10">
+        <v>8</v>
+      </c>
+      <c r="J1" s="10">
+        <v>9</v>
+      </c>
+      <c r="K1" s="10">
+        <v>10</v>
+      </c>
+      <c r="L1" s="10">
+        <v>11</v>
+      </c>
+      <c r="M1" s="10">
         <v>12</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
+      <c r="N1" s="10">
+        <v>13</v>
+      </c>
+      <c r="O1" s="10">
+        <v>14</v>
+      </c>
+      <c r="P1" s="10">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="10">
+        <v>16</v>
+      </c>
+      <c r="R1" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11"/>
+      <c r="B2" s="7" t="str">
+        <f>CONCATENATE(TEXT(45929+(B$1-1)*7,"МММ.ДД")," - ",TEXT(45929+(B$1-1)*7+6,"МММ.ДД"))</f>
+        <v>сент.29 - окт.05</v>
+      </c>
+      <c r="C2" s="7" t="str">
+        <f>CONCATENATE(TEXT(45929+(C$1-1)*7,"МММ.ДД")," - ",TEXT(45929+(C$1-1)*7+6,"МММ.ДД"))</f>
+        <v>окт.06 - окт.12</v>
+      </c>
+      <c r="D2" s="7" t="str">
+        <f t="shared" ref="D2:R2" si="0">CONCATENATE(TEXT(45929+(D$1-1)*7,"МММ.ДД")," - ",TEXT(45929+(D$1-1)*7+6,"МММ.ДД"))</f>
+        <v>окт.13 - окт.19</v>
+      </c>
+      <c r="E2" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>окт.20 - окт.26</v>
+      </c>
+      <c r="F2" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>окт.27 - нояб.02</v>
+      </c>
+      <c r="G2" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>нояб.03 - нояб.09</v>
+      </c>
+      <c r="H2" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>нояб.10 - нояб.16</v>
+      </c>
+      <c r="I2" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>нояб.17 - нояб.23</v>
+      </c>
+      <c r="J2" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>нояб.24 - нояб.30</v>
+      </c>
+      <c r="K2" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>дек.01 - дек.07</v>
+      </c>
+      <c r="L2" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>дек.08 - дек.14</v>
+      </c>
+      <c r="M2" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>дек.15 - дек.21</v>
+      </c>
+      <c r="N2" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>дек.22 - дек.28</v>
+      </c>
+      <c r="O2" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>дек.29 - янв.04</v>
+      </c>
+      <c r="P2" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>янв.05 - янв.11</v>
+      </c>
+      <c r="Q2" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>янв.12 - янв.18</v>
+      </c>
+      <c r="R2" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>янв.19 - янв.25</v>
+      </c>
+      <c r="S2" s="7"/>
+    </row>
+    <row r="3" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1">
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1">
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1">
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1">
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1">
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1">
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1">
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1">
-        <v>15</v>
-      </c>
-      <c r="Q1">
-        <v>16</v>
-      </c>
-      <c r="R1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>45929</v>
-      </c>
-      <c r="B2" s="1" t="str">
-        <f>CONCATENATE(TEXT($A$2+(B$1-1)*7,"МММ.ДД")," - ",TEXT($A$2+(B$1-1)*7+6,"МММ.ДД"))</f>
-        <v>сент.29 - окт.05</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <f t="shared" ref="C2:S2" si="0">CONCATENATE(TEXT($A$2+(C$1-1)*7,"МММ.ДД")," - ",TEXT($A$2+(C$1-1)*7+6,"МММ.ДД"))</f>
-        <v>окт.06 - окт.12</v>
-      </c>
-      <c r="D2" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>окт.13 - окт.19</v>
-      </c>
-      <c r="E2" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>окт.20 - окт.26</v>
-      </c>
-      <c r="F2" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>окт.27 - нояб.02</v>
-      </c>
-      <c r="G2" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>нояб.03 - нояб.09</v>
-      </c>
-      <c r="H2" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>нояб.10 - нояб.16</v>
-      </c>
-      <c r="I2" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>нояб.17 - нояб.23</v>
-      </c>
-      <c r="J2" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>нояб.24 - нояб.30</v>
-      </c>
-      <c r="K2" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>дек.01 - дек.07</v>
-      </c>
-      <c r="L2" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>дек.08 - дек.14</v>
-      </c>
-      <c r="M2" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>дек.15 - дек.21</v>
-      </c>
-      <c r="N2" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>дек.22 - дек.28</v>
-      </c>
-      <c r="O2" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>дек.29 - янв.04</v>
-      </c>
-      <c r="P2" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>янв.05 - янв.11</v>
-      </c>
-      <c r="Q2" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>янв.12 - янв.18</v>
-      </c>
-      <c r="R2" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>янв.19 - янв.25</v>
-      </c>
-      <c r="S2" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>сент.22 - сент.28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="none">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="none">
       <formula>NOT(ISERROR(SEARCH("none",A1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
   <si>
     <t>week</t>
   </si>
@@ -96,6 +96,117 @@
   </si>
   <si>
     <t>Reviewed 1 week lessons</t>
+  </si>
+  <si>
+    <t>Growht Hungry Academy</t>
+  </si>
+  <si>
+    <t>1. Mind Set, Гибкое сознание прочесть за октябрь, книга, в weekly report писать сколько страниц прочел.</t>
+  </si>
+  <si>
+    <t>2. Weekly report (daily tasks)</t>
+  </si>
+  <si>
+    <t>3. Geethub оставлять цифровой след, минимум 200 дней за год.</t>
+  </si>
+  <si>
+    <t>4. Study Buddy что такое? (Ельдос поможет)</t>
+  </si>
+  <si>
+    <t>5. Office hours, что такое?</t>
+  </si>
+  <si>
+    <t>6. Свой канал? Сравнивать себя со вчерашним днем.</t>
+  </si>
+  <si>
+    <t>7. Получить доступ в Discord.</t>
+  </si>
+  <si>
+    <t>8. EasyFi or EasyFive платформа, можно участвовать в разработке.</t>
+  </si>
+  <si>
+    <t>9. Binor search (или Binory) что такое узнать для себя, нужно делать за пару минут.</t>
+  </si>
+  <si>
+    <t>UniCorn компанию по рекрутингу посмотреть</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ред флаги </t>
+  </si>
+  <si>
+    <t>бардак в резюме</t>
+  </si>
+  <si>
+    <t>соответствие опыта</t>
+  </si>
+  <si>
+    <t>over qualify - ок</t>
+  </si>
+  <si>
+    <t>стратегические вещи</t>
+  </si>
+  <si>
+    <t>ads, ats системы - greenhouse</t>
+  </si>
+  <si>
+    <t>парсинг резюме, важно чтобы под позицию которую апплаишся подогнал</t>
+  </si>
+  <si>
+    <t>делать статистику и хранить информацию о позиции и компании. В резюме указывать роль а не тайтл должности. Самопрезентация это важно, говорить коротко и ясно, перечислить проекты на которых работал и спросить какой из них вам был бы интересней чтобы погрузился.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Приоритеты -&gt; referals -&gt; совпадения по парсингу (индустрия обязательно, особенно финтех)-&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ошибки: не двигать на большой срок интервью, reschedule делать нельзя (типа забыл, а рекрутер ждет), во время скрининга говорить релевантные места работы, знать о позиции о компании, показать заинтересованность о позиции, минуту рассказать о себе, задавать вопросы в конце (какая команда уже есть, имеются ли KPI, с чем я буду работать), когда тебя интервьюют, ты тоже должен тоже их интервьюить. Все свои имеющиеся вопросы задавать в конце. Не показывать негатив вообще. Не ушел из-за того что искал роста, а пришел из-за того что увидел новые возможности, реализовываться. Готов ли ты перейти на другой стэк? </t>
+  </si>
+  <si>
+    <t>Спросить range запрлаты, бюджет зарплаты. Когда торгуешься о зарплате неплохобы по интересоваться о пайплайн.</t>
+  </si>
+  <si>
+    <t>Спрашивать перед техническим этапом, можете поделиться so far insites, какие среды нужно подготовить, може те поделиться какие делают на этом этапе ошибки.</t>
+  </si>
+  <si>
+    <t>агностик - что это?</t>
+  </si>
+  <si>
+    <t>от 7 этапов в технической позиции до 12 этапов.</t>
+  </si>
+  <si>
+    <t>что такое моб интервью.</t>
+  </si>
+  <si>
+    <t>изучить вилки P3, P4, L3, L4</t>
+  </si>
+  <si>
+    <t>levels.fyi посмотреть сайт по вилкам зарплат. Total compensation?</t>
+  </si>
+  <si>
+    <t>10 позиций на которые буду подаваться</t>
+  </si>
+  <si>
+    <t>переделать резюме</t>
+  </si>
+  <si>
+    <t>каждая строка должна быть обоснована и доказуема</t>
+  </si>
+  <si>
+    <t>убрать лишние навыки</t>
+  </si>
+  <si>
+    <t>убрать должности указать роли</t>
+  </si>
+  <si>
+    <t>практика на английском дома и везде</t>
+  </si>
+  <si>
+    <t>на след неделе повторная встреча</t>
+  </si>
+  <si>
+    <t>Сабатикал (от англ. sabbatical) — это длительный отпуск, обычно от нескольких месяцев до года, который человек берёт для восстановления, личного развития, путешествий или работы над личными проектами.</t>
+  </si>
+  <si>
+    <t>make sense</t>
   </si>
 </sst>
 </file>
@@ -194,87 +305,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -561,13 +592,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:S65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="A64" sqref="A64:A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -857,9 +888,194 @@
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
     </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C34" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C35" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D36" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D37" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D38" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D39" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D40" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D41" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D42" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D43" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D44" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D45" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D46" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D47" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D48" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D49" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D50" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D51" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="none">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="none">
       <formula>NOT(ISERROR(SEARCH("none",A1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
   <si>
     <t>week</t>
   </si>
@@ -207,6 +208,9 @@
   </si>
   <si>
     <t>make sense</t>
+  </si>
+  <si>
+    <t>1 week lessons reviewed</t>
   </si>
 </sst>
 </file>
@@ -595,10 +599,10 @@
   <dimension ref="A1:S65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A64" sqref="A64:A65"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -749,7 +753,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
   <si>
     <t>week</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Reviewed 2 lessons</t>
   </si>
   <si>
-    <t>2/200</t>
-  </si>
-  <si>
     <t>attended the last part of lesson</t>
   </si>
   <si>
@@ -99,30 +96,9 @@
     <t>Reviewed 1 week lessons</t>
   </si>
   <si>
-    <t>Growht Hungry Academy</t>
-  </si>
-  <si>
-    <t>1. Mind Set, Гибкое сознание прочесть за октябрь, книга, в weekly report писать сколько страниц прочел.</t>
-  </si>
-  <si>
-    <t>2. Weekly report (daily tasks)</t>
-  </si>
-  <si>
-    <t>3. Geethub оставлять цифровой след, минимум 200 дней за год.</t>
-  </si>
-  <si>
     <t>4. Study Buddy что такое? (Ельдос поможет)</t>
   </si>
   <si>
-    <t>5. Office hours, что такое?</t>
-  </si>
-  <si>
-    <t>6. Свой канал? Сравнивать себя со вчерашним днем.</t>
-  </si>
-  <si>
-    <t>7. Получить доступ в Discord.</t>
-  </si>
-  <si>
     <t>8. EasyFi or EasyFive платформа, можно участвовать в разработке.</t>
   </si>
   <si>
@@ -211,6 +187,9 @@
   </si>
   <si>
     <t>1 week lessons reviewed</t>
+  </si>
+  <si>
+    <t>3/200</t>
   </si>
 </sst>
 </file>
@@ -596,13 +575,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S65"/>
+  <dimension ref="A1:S57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -753,7 +732,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -775,7 +754,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -786,7 +765,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -808,7 +787,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -841,7 +820,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
@@ -852,7 +831,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
@@ -863,7 +842,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
@@ -882,199 +861,164 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C26" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C27" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D28" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D29" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D30" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D31" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D32" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D33" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C34" s="1" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D34" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C35" s="1" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D35" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D36" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D37" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D38" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D39" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D40" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D41" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D42" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D43" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D44" s="1" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D45" s="1" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D46" s="1" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D47" s="1" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D48" s="1" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D49" s="1" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D50" s="1" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D51" s="1" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -575,13 +575,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S57"/>
+  <dimension ref="A1:S56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -871,153 +871,153 @@
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
     </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C25" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C27" s="1" t="s">
-        <v>27</v>
+      <c r="D27" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D28" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D29" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D30" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D31" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D32" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D33" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D34" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D35" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D36" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D37" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D38" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D39" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D40" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D41" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D42" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D43" s="1" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
         <v>52</v>
       </c>
     </row>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="59">
   <si>
     <t>week</t>
   </si>
@@ -186,10 +186,22 @@
     <t>make sense</t>
   </si>
   <si>
-    <t>1 week lessons reviewed</t>
-  </si>
-  <si>
     <t>3/200</t>
+  </si>
+  <si>
+    <t>поведенческое инвестирование, книга на ноябрь</t>
+  </si>
+  <si>
+    <t>Телефонное время</t>
+  </si>
+  <si>
+    <t>вес</t>
+  </si>
+  <si>
+    <t>лекция Едил</t>
+  </si>
+  <si>
+    <t>1 week lessons reviewed, HW w1 finished</t>
   </si>
 </sst>
 </file>
@@ -288,7 +300,47 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -575,19 +627,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S56"/>
+  <dimension ref="A1:S61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A20" sqref="A20:XFD20"/>
+      <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="43.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="39.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.21875" style="1" bestFit="1" customWidth="1"/>
@@ -732,7 +784,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -787,7 +839,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -868,162 +920,221 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C25" s="1" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C30" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C26" s="1" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C31" s="1" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D27" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D28" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D29" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D30" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D31" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D32" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D33" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D34" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D35" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D36" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D37" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D33" s="1" t="s">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D38" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D34" s="1" t="s">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D39" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D35" s="1" t="s">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D40" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D36" s="1" t="s">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D41" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D37" s="1" t="s">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D42" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D38" s="1" t="s">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D43" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D39" s="1" t="s">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D44" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D40" s="1" t="s">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D45" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D41" s="1" t="s">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D46" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D42" s="1" t="s">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D47" s="1" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="none">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="none">
       <formula>NOT(ISERROR(SEARCH("none",A1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -300,7 +300,17 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -633,7 +643,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -795,7 +805,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -861,7 +871,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="4">
-        <v>0.08</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -1134,7 +1144,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="none">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="none">
       <formula>NOT(ISERROR(SEARCH("none",A1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
   <si>
     <t>week</t>
   </si>
   <si>
-    <t>none</t>
-  </si>
-  <si>
     <t>Foundations for Discrete Mathematics and Data Structures &amp; Algorithms:</t>
   </si>
   <si>
@@ -78,12 +75,6 @@
     <t>attended the last part of lesson</t>
   </si>
   <si>
-    <t>everything get worse</t>
-  </si>
-  <si>
-    <t>I tried to organize my day, started reading a book, and installed Python.</t>
-  </si>
-  <si>
     <t>I knew nothing about academy</t>
   </si>
   <si>
@@ -186,9 +177,6 @@
     <t>make sense</t>
   </si>
   <si>
-    <t>3/200</t>
-  </si>
-  <si>
     <t>поведенческое инвестирование, книга на ноябрь</t>
   </si>
   <si>
@@ -202,6 +190,30 @@
   </si>
   <si>
     <t>1 week lessons reviewed, HW w1 finished</t>
+  </si>
+  <si>
+    <t>5/200</t>
+  </si>
+  <si>
+    <t>Mindset 14%</t>
+  </si>
+  <si>
+    <t>work, work, and work again</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2 week lessons reviewed, HW w2 finished</t>
+  </si>
+  <si>
+    <t>I tried to organize my day, started reading a book, and installed Python, VS Code, IntelliJ IDE, Git Bash.</t>
+  </si>
+  <si>
+    <t>3 week lessons reviewed</t>
+  </si>
+  <si>
+    <t>2 week lessons reviewed</t>
   </si>
 </sst>
 </file>
@@ -237,7 +249,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -246,7 +258,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -273,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -288,19 +299,102 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -643,79 +737,80 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="43.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" style="1" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="39.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="18" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10">
+      <c r="B1" s="11">
         <v>1</v>
       </c>
-      <c r="C1" s="10">
+      <c r="C1" s="11">
         <v>2</v>
       </c>
-      <c r="D1" s="10">
+      <c r="D1" s="11">
         <v>3</v>
       </c>
-      <c r="E1" s="10">
+      <c r="E1" s="11">
         <v>4</v>
       </c>
-      <c r="F1" s="10">
+      <c r="F1" s="11">
         <v>5</v>
       </c>
-      <c r="G1" s="10">
+      <c r="G1" s="11">
         <v>6</v>
       </c>
-      <c r="H1" s="10">
+      <c r="H1" s="11">
         <v>7</v>
       </c>
-      <c r="I1" s="10">
+      <c r="I1" s="11">
         <v>8</v>
       </c>
-      <c r="J1" s="10">
+      <c r="J1" s="11">
         <v>9</v>
       </c>
-      <c r="K1" s="10">
+      <c r="K1" s="11">
         <v>10</v>
       </c>
-      <c r="L1" s="10">
+      <c r="L1" s="11">
         <v>11</v>
       </c>
-      <c r="M1" s="10">
+      <c r="M1" s="11">
         <v>12</v>
       </c>
-      <c r="N1" s="10">
+      <c r="N1" s="11">
         <v>13</v>
       </c>
-      <c r="O1" s="10">
+      <c r="O1" s="11">
         <v>14</v>
       </c>
-      <c r="P1" s="10">
+      <c r="P1" s="11">
         <v>15</v>
       </c>
-      <c r="Q1" s="10">
+      <c r="Q1" s="11">
         <v>16</v>
       </c>
-      <c r="R1" s="10">
+      <c r="R1" s="11">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
+    <row r="2" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10"/>
       <c r="B2" s="7" t="str">
         <f>CONCATENATE(TEXT(45929+(B$1-1)*7,"МММ.ДД")," - ",TEXT(45929+(B$1-1)*7+6,"МММ.ДД"))</f>
         <v>сент.29 - окт.05</v>
@@ -788,194 +883,200 @@
     </row>
     <row r="3" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>4</v>
+      <c r="A7" s="12" t="s">
+        <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0.14000000000000001</v>
+        <v>58</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="B12" s="1" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="1" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="1" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="1" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -984,168 +1085,168 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D32" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D33" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D34" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D35" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D36" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D37" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D38" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D39" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D40" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D41" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D42" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D43" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D44" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D45" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D46" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D47" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="none">
-      <formula>NOT(ISERROR(SEARCH("none",A1)))</formula>
+  <conditionalFormatting sqref="A3:XFD20">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="70">
   <si>
     <t>week</t>
   </si>
@@ -213,7 +213,37 @@
     <t>3 week lessons reviewed</t>
   </si>
   <si>
-    <t>2 week lessons reviewed</t>
+    <t>Aliya R
+10:10 AM
+https://www.oreilly.com/library/view/learning-python-5th/9781449355722/
+Aliya R
+10:13 AM
+https://www.krishnagudi.com/wp-content/uploads/2023/05/Python-Programming-An-Introduction-to-Computer-Science-John-M.-Zelle.pdf</t>
+  </si>
+  <si>
+    <t>Aliya R
+10:18 AM
+https://www.youtube.com/watch?v=xAcTmDO6NTI</t>
+  </si>
+  <si>
+    <t>Aliya R
+11:46 AM
+https://www.hackerrank.com/domains/shell</t>
+  </si>
+  <si>
+    <t>7/200</t>
+  </si>
+  <si>
+    <t>3 week lessons reviewed, w3 hw finished</t>
+  </si>
+  <si>
+    <t>reviewed 2 week lesson</t>
+  </si>
+  <si>
+    <t>duolinguo (at least 1 hour per day)</t>
+  </si>
+  <si>
+    <t>a lot</t>
   </si>
 </sst>
 </file>
@@ -264,12 +294,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -284,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -310,11 +346,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -731,13 +782,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S61"/>
+  <dimension ref="A1:S63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6:D8"/>
+      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -745,7 +796,7 @@
     <col min="1" max="1" width="43.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="39.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
@@ -891,6 +942,9 @@
       <c r="C3" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
@@ -902,7 +956,7 @@
       <c r="C4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="14" t="s">
         <v>61</v>
       </c>
     </row>
@@ -916,8 +970,8 @@
       <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>62</v>
+      <c r="D5" s="14" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -930,6 +984,9 @@
       <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="D6" s="14" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
@@ -941,6 +998,9 @@
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D7" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
@@ -952,6 +1012,9 @@
       <c r="C8" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="D8" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
@@ -963,6 +1026,9 @@
       <c r="C9" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="D9" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
@@ -974,6 +1040,9 @@
       <c r="C10" s="4" t="s">
         <v>56</v>
       </c>
+      <c r="D10" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
@@ -985,6 +1054,9 @@
       <c r="C11" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="D11" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
@@ -996,6 +1068,9 @@
       <c r="C12" s="5" t="s">
         <v>60</v>
       </c>
+      <c r="D12" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
@@ -1007,6 +1082,9 @@
       <c r="C13" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="D13" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
@@ -1018,6 +1096,9 @@
       <c r="C14" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="D14" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
@@ -1029,6 +1110,9 @@
       <c r="C15" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="D15" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
@@ -1041,211 +1125,228 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
-      <c r="B17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="1" t="s">
-        <v>58</v>
+      <c r="A18" s="15" t="s">
+        <v>68</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="15" t="s">
         <v>52</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>58</v>
+      <c r="C19" s="1">
+        <v>71</v>
+      </c>
+      <c r="D19" s="1">
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="15" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D23" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>50</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D25" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="D26" s="13"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="D27" s="13"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="D28" s="13"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="13"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="13"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D32" s="1" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D33" s="1" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D34" s="1" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D35" s="1" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D36" s="1" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D37" s="1" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D38" s="1" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D39" s="1" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D40" s="1" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D41" s="1" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D42" s="1" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D43" s="1" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D44" s="1" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D45" s="1" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D46" s="1" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D47" s="1" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:XFD20">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="73">
   <si>
     <t>week</t>
   </si>
@@ -244,6 +244,28 @@
   </si>
   <si>
     <t>a lot</t>
+  </si>
+  <si>
+    <t>мне следует учить английский более интенсивно,
+мне следует уделять больше времени детями,
+Home Work!!!!!!!!!!
+Прими то, что у тебя есть
+(На рисунке:)
+😞 «Я не хочу то, что у меня есть!»
+🙂 «Я в порядке с тем, что у меня есть, я это принимаю.»
+Будь своим другом, будь добр(а) к себе
+Избегай осуждений и обобщений
+Возвращайся к фактам
+Признай свой опыт. Прояви к себе сочувствие
+Обдумай, чему ты научился(ась)
+Закон причины и следствия: люди поступают так, как поступают, из-за своего прошлого опыта и своего состояния в данный момент — иначе быть не могло
+Попробуй взглянуть на ситуацию под другим углом</t>
+  </si>
+  <si>
+    <t>Mindset 18%</t>
+  </si>
+  <si>
+    <t>dsgsdfg</t>
   </si>
 </sst>
 </file>
@@ -355,7 +377,17 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -788,7 +820,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -987,6 +1019,9 @@
       <c r="D6" s="14" t="s">
         <v>67</v>
       </c>
+      <c r="E6" s="13" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
@@ -1040,8 +1075,8 @@
       <c r="C10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>58</v>
+      <c r="D10" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -1071,6 +1106,9 @@
       <c r="D12" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="E12" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
@@ -1119,9 +1157,6 @@
       <c r="B16" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
@@ -1346,7 +1381,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:XFD20">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="72">
   <si>
     <t>week</t>
   </si>
@@ -263,9 +263,6 @@
   </si>
   <si>
     <t>Mindset 18%</t>
-  </si>
-  <si>
-    <t>dsgsdfg</t>
   </si>
 </sst>
 </file>
@@ -377,17 +374,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1106,9 +1093,6 @@
       <c r="D12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="73">
   <si>
     <t>week</t>
   </si>
@@ -208,9 +207,6 @@
   </si>
   <si>
     <t>I tried to organize my day, started reading a book, and installed Python, VS Code, IntelliJ IDE, Git Bash.</t>
-  </si>
-  <si>
-    <t>3 week lessons reviewed</t>
   </si>
   <si>
     <t>Aliya R
@@ -229,15 +225,6 @@
     <t>Aliya R
 11:46 AM
 https://www.hackerrank.com/domains/shell</t>
-  </si>
-  <si>
-    <t>7/200</t>
-  </si>
-  <si>
-    <t>3 week lessons reviewed, w3 hw finished</t>
-  </si>
-  <si>
-    <t>reviewed 2 week lesson</t>
   </si>
   <si>
     <t>duolinguo (at least 1 hour per day)</t>
@@ -262,7 +249,22 @@
 Попробуй взглянуть на ситуацию под другим углом</t>
   </si>
   <si>
-    <t>Mindset 18%</t>
+    <t>week 3 lessons reviewed, w3 hw finished</t>
+  </si>
+  <si>
+    <t>week 3 lesson reviewed</t>
+  </si>
+  <si>
+    <t>Mindset 35%</t>
+  </si>
+  <si>
+    <t>There are some mistakes in Math Solutions</t>
+  </si>
+  <si>
+    <t>almost catch-up</t>
+  </si>
+  <si>
+    <t>12/200</t>
   </si>
 </sst>
 </file>
@@ -313,7 +315,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -323,6 +325,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -370,141 +378,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -807,7 +686,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -815,7 +694,7 @@
     <col min="1" max="1" width="43.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="39.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.88671875" style="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
@@ -961,8 +840,8 @@
       <c r="C3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>58</v>
+      <c r="D3" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -975,8 +854,8 @@
       <c r="C4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>61</v>
+      <c r="D4" s="16" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -990,7 +869,7 @@
         <v>19</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -1004,10 +883,10 @@
         <v>15</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -1034,8 +913,8 @@
       <c r="C8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>65</v>
+      <c r="D8" s="14" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -1063,7 +942,7 @@
         <v>56</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -1090,8 +969,8 @@
       <c r="C12" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>58</v>
+      <c r="D12" s="16" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
@@ -1133,7 +1012,7 @@
         <v>17</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
@@ -1147,7 +1026,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>58</v>
@@ -1175,19 +1054,19 @@
         <v>58</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
     </row>
-    <row r="23" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
@@ -1195,12 +1074,12 @@
         <v>50</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="D25" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="74">
   <si>
     <t>week</t>
   </si>
@@ -265,6 +265,9 @@
   </si>
   <si>
     <t>12/200</t>
+  </si>
+  <si>
+    <t>Mindset</t>
   </si>
 </sst>
 </file>
@@ -686,7 +689,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -984,7 +987,7 @@
         <v>18</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="75">
   <si>
     <t>week</t>
   </si>
@@ -268,6 +268,9 @@
   </si>
   <si>
     <t>Mindset</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -686,10 +689,10 @@
   <dimension ref="A1:S63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1068,6 +1071,9 @@
       <c r="A23" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="C23" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="D23" s="5" t="s">
         <v>61</v>
       </c>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="75">
   <si>
     <t>week</t>
   </si>
@@ -389,7 +389,17 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -689,10 +699,10 @@
   <dimension ref="A1:S63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1037,6 +1047,9 @@
       <c r="C18" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="D18" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
@@ -1253,7 +1266,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:XFD20">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="76">
   <si>
     <t>week</t>
   </si>
@@ -271,6 +271,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -702,7 +705,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1080,6 +1083,11 @@
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
     </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D22" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
     <row r="23" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>53</v>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="75">
   <si>
     <t>week</t>
   </si>
@@ -268,9 +268,6 @@
   </si>
   <si>
     <t>Mindset</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
@@ -702,10 +699,10 @@
   <dimension ref="A1:S63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1085,15 +1082,12 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D22" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>61</v>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -252,9 +252,6 @@
     <t>week 3 lessons reviewed, w3 hw finished</t>
   </si>
   <si>
-    <t>week 3 lesson reviewed</t>
-  </si>
-  <si>
     <t>Mindset 35%</t>
   </si>
   <si>
@@ -271,13 +268,16 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>week 3 lesson attended, previsous videos reviewed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,25 +320,20 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -358,12 +353,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -376,20 +367,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -699,17 +706,17 @@
   <dimension ref="A1:S63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="43.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="39.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.109375" style="1" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="35.88671875" style="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.21875" style="1" bestFit="1" customWidth="1"/>
@@ -718,142 +725,142 @@
     <col min="19" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11">
+      <c r="B1" s="9">
         <v>1</v>
       </c>
-      <c r="C1" s="11">
+      <c r="C1" s="9">
         <v>2</v>
       </c>
-      <c r="D1" s="11">
+      <c r="D1" s="9">
         <v>3</v>
       </c>
-      <c r="E1" s="11">
+      <c r="E1" s="9">
         <v>4</v>
       </c>
-      <c r="F1" s="11">
+      <c r="F1" s="9">
         <v>5</v>
       </c>
-      <c r="G1" s="11">
+      <c r="G1" s="9">
         <v>6</v>
       </c>
-      <c r="H1" s="11">
+      <c r="H1" s="9">
         <v>7</v>
       </c>
-      <c r="I1" s="11">
+      <c r="I1" s="9">
         <v>8</v>
       </c>
-      <c r="J1" s="11">
+      <c r="J1" s="9">
         <v>9</v>
       </c>
-      <c r="K1" s="11">
+      <c r="K1" s="9">
         <v>10</v>
       </c>
-      <c r="L1" s="11">
+      <c r="L1" s="9">
         <v>11</v>
       </c>
-      <c r="M1" s="11">
+      <c r="M1" s="9">
         <v>12</v>
       </c>
-      <c r="N1" s="11">
+      <c r="N1" s="9">
         <v>13</v>
       </c>
-      <c r="O1" s="11">
+      <c r="O1" s="9">
         <v>14</v>
       </c>
-      <c r="P1" s="11">
+      <c r="P1" s="9">
         <v>15</v>
       </c>
-      <c r="Q1" s="11">
+      <c r="Q1" s="9">
         <v>16</v>
       </c>
-      <c r="R1" s="11">
+      <c r="R1" s="9">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="7" t="str">
+    <row r="2" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8"/>
+      <c r="B2" s="5" t="str">
         <f>CONCATENATE(TEXT(45929+(B$1-1)*7,"МММ.ДД")," - ",TEXT(45929+(B$1-1)*7+6,"МММ.ДД"))</f>
         <v>сент.29 - окт.05</v>
       </c>
-      <c r="C2" s="7" t="str">
+      <c r="C2" s="5" t="str">
         <f>CONCATENATE(TEXT(45929+(C$1-1)*7,"МММ.ДД")," - ",TEXT(45929+(C$1-1)*7+6,"МММ.ДД"))</f>
         <v>окт.06 - окт.12</v>
       </c>
-      <c r="D2" s="7" t="str">
+      <c r="D2" s="5" t="str">
         <f t="shared" ref="D2:R2" si="0">CONCATENATE(TEXT(45929+(D$1-1)*7,"МММ.ДД")," - ",TEXT(45929+(D$1-1)*7+6,"МММ.ДД"))</f>
         <v>окт.13 - окт.19</v>
       </c>
-      <c r="E2" s="7" t="str">
+      <c r="E2" s="5" t="str">
         <f t="shared" si="0"/>
         <v>окт.20 - окт.26</v>
       </c>
-      <c r="F2" s="7" t="str">
+      <c r="F2" s="5" t="str">
         <f t="shared" si="0"/>
         <v>окт.27 - нояб.02</v>
       </c>
-      <c r="G2" s="7" t="str">
+      <c r="G2" s="5" t="str">
         <f t="shared" si="0"/>
         <v>нояб.03 - нояб.09</v>
       </c>
-      <c r="H2" s="7" t="str">
+      <c r="H2" s="5" t="str">
         <f t="shared" si="0"/>
         <v>нояб.10 - нояб.16</v>
       </c>
-      <c r="I2" s="7" t="str">
+      <c r="I2" s="5" t="str">
         <f t="shared" si="0"/>
         <v>нояб.17 - нояб.23</v>
       </c>
-      <c r="J2" s="7" t="str">
+      <c r="J2" s="5" t="str">
         <f t="shared" si="0"/>
         <v>нояб.24 - нояб.30</v>
       </c>
-      <c r="K2" s="7" t="str">
+      <c r="K2" s="5" t="str">
         <f t="shared" si="0"/>
         <v>дек.01 - дек.07</v>
       </c>
-      <c r="L2" s="7" t="str">
+      <c r="L2" s="5" t="str">
         <f t="shared" si="0"/>
         <v>дек.08 - дек.14</v>
       </c>
-      <c r="M2" s="7" t="str">
+      <c r="M2" s="5" t="str">
         <f t="shared" si="0"/>
         <v>дек.15 - дек.21</v>
       </c>
-      <c r="N2" s="7" t="str">
+      <c r="N2" s="5" t="str">
         <f t="shared" si="0"/>
         <v>дек.22 - дек.28</v>
       </c>
-      <c r="O2" s="7" t="str">
+      <c r="O2" s="5" t="str">
         <f t="shared" si="0"/>
         <v>дек.29 - янв.04</v>
       </c>
-      <c r="P2" s="7" t="str">
+      <c r="P2" s="5" t="str">
         <f t="shared" si="0"/>
         <v>янв.05 - янв.11</v>
       </c>
-      <c r="Q2" s="7" t="str">
+      <c r="Q2" s="5" t="str">
         <f t="shared" si="0"/>
         <v>янв.12 - янв.18</v>
       </c>
-      <c r="R2" s="7" t="str">
+      <c r="R2" s="5" t="str">
         <f t="shared" si="0"/>
         <v>янв.19 - янв.25</v>
       </c>
-      <c r="S2" s="7"/>
+      <c r="S2" s="5"/>
     </row>
     <row r="3" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>54</v>
       </c>
       <c r="D3" s="14" t="s">
@@ -861,27 +868,27 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="14" t="s">
@@ -889,19 +896,19 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>66</v>
       </c>
     </row>
@@ -909,139 +916,139 @@
       <c r="A7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>58</v>
+      <c r="D7" s="14" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>55</v>
       </c>
       <c r="D8" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="4" t="s">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
+      <c r="A16" s="5"/>
       <c r="B16" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
+      <c r="A17" s="5"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="11" t="s">
         <v>64</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1052,7 +1059,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="11" t="s">
         <v>52</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1066,13 +1073,13 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="11" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1082,14 +1089,14 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D22" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1097,12 +1104,12 @@
       <c r="A24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1110,31 +1117,31 @@
       <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="13"/>
+      <c r="D26" s="10"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="13"/>
+      <c r="D27" s="10"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="13"/>
+      <c r="D28" s="10"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D29" s="13"/>
+      <c r="D29" s="10"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D30" s="13"/>
+      <c r="D30" s="10"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="13"/>
+      <c r="D31" s="10"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
@@ -1267,8 +1274,8 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A3:XFD20">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="A20:B20 D20:XFD20 A3:XFD19">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="76">
   <si>
     <t>week</t>
   </si>
@@ -271,6 +271,9 @@
   </si>
   <si>
     <t>week 3 lesson attended, previsous videos reviewed</t>
+  </si>
+  <si>
+    <t>не расслабляться</t>
   </si>
 </sst>
 </file>
@@ -709,7 +712,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -718,7 +721,7 @@
     <col min="2" max="2" width="26.33203125" style="1" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="39.109375" style="1" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="35.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.44140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="18" width="15" style="1" bestFit="1" customWidth="1"/>
@@ -980,6 +983,9 @@
       </c>
       <c r="D11" s="14" t="s">
         <v>58</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="76">
   <si>
     <t>week</t>
   </si>
@@ -712,7 +712,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1001,6 +1001,9 @@
       <c r="D12" s="14" t="s">
         <v>70</v>
       </c>
+      <c r="E12" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="77">
   <si>
     <t>week</t>
   </si>
@@ -274,6 +274,9 @@
   </si>
   <si>
     <t>не расслабляться</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
   </si>
 </sst>
 </file>
@@ -712,7 +715,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1053,10 +1056,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>64</v>
       </c>
@@ -1067,7 +1070,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>52</v>
       </c>
@@ -1081,7 +1084,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>51</v>
       </c>
@@ -1092,16 +1095,19 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D22" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>53</v>
       </c>
@@ -1109,7 +1115,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>50</v>
       </c>
@@ -1117,42 +1123,42 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="D25" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="10"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="10"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D28" s="10"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D29" s="10"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D30" s="10"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D31" s="10"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>24</v>
       </c>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18324" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18324" windowHeight="9384" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="100">
   <si>
     <t>week</t>
   </si>
@@ -278,12 +279,81 @@
   <si>
     <t xml:space="preserve">     </t>
   </si>
+  <si>
+    <t>FOCUS BLOCKS</t>
+  </si>
+  <si>
+    <t>Breakfast + Prayer + Morning SUN walk</t>
+  </si>
+  <si>
+    <t>FB1: 6:00am</t>
+  </si>
+  <si>
+    <t>6:05am</t>
+  </si>
+  <si>
+    <t>FB1:</t>
+  </si>
+  <si>
+    <t>Weekly Plan</t>
+  </si>
+  <si>
+    <t>Daily Plan</t>
+  </si>
+  <si>
+    <t>Hire Assistant Decision</t>
+  </si>
+  <si>
+    <t>Prepare Dirk email</t>
+  </si>
+  <si>
+    <t>PRODUCTIVE FOCUS-BLOCKS RULES:</t>
+  </si>
+  <si>
+    <t>F – First things first: We work on our most important tasks.</t>
+  </si>
+  <si>
+    <t>O – Outcome based thinking: We need to be very clear on the outcome.</t>
+  </si>
+  <si>
+    <t>C – Community: hold ourselves accountable and bring out our best.</t>
+  </si>
+  <si>
+    <t>U – Uninterrupted Time: We leave out all distractions.</t>
+  </si>
+  <si>
+    <t>S – Single Tasking: We only work on a single task for this entire focus block.</t>
+  </si>
+  <si>
+    <t>Be ready at the beginning of each hour, have clear concrete hourly goals,</t>
+  </si>
+  <si>
+    <t>Focus on result, Optimal Strategy – Follow easiest path to achieve result and drop complex routes.</t>
+  </si>
+  <si>
+    <t>FB1: 7–8</t>
+  </si>
+  <si>
+    <t>FB2: 8–9</t>
+  </si>
+  <si>
+    <t>FB3: 9–10</t>
+  </si>
+  <si>
+    <t>FB4: 10–11</t>
+  </si>
+  <si>
+    <t>FB5: 11–12</t>
+  </si>
+  <si>
+    <t>9 HOURS free time</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,6 +397,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -354,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -383,11 +462,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -711,7 +791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -1290,11 +1370,117 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A20:B20 D20:XFD20 A3:XFD19">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B1" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F4" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="H4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F7" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18324" windowHeight="9384" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18324" windowHeight="9384"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="99">
   <si>
     <t>week</t>
   </si>
@@ -87,9 +87,6 @@
     <t>Reviewed 1 week lessons</t>
   </si>
   <si>
-    <t>4. Study Buddy что такое? (Ельдос поможет)</t>
-  </si>
-  <si>
     <t>8. EasyFi or EasyFive платформа, можно участвовать в разработке.</t>
   </si>
   <si>
@@ -181,12 +178,6 @@
   </si>
   <si>
     <t>Телефонное время</t>
-  </si>
-  <si>
-    <t>вес</t>
-  </si>
-  <si>
-    <t>лекция Едил</t>
   </si>
   <si>
     <t>1 week lessons reviewed, HW w1 finished</t>
@@ -347,6 +338,12 @@
   </si>
   <si>
     <t>9 HOURS free time</t>
+  </si>
+  <si>
+    <t>Видео презентация Эдиля Ажибаева</t>
+  </si>
+  <si>
+    <t>упражнения</t>
   </si>
 </sst>
 </file>
@@ -472,7 +469,17 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -524,6 +531,163 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>201840</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>147548</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2743200"/>
+          <a:ext cx="13003440" cy="6182588"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>277199</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>67067</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11582400" y="182880"/>
+          <a:ext cx="6982799" cy="2810267"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>96710</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>122984</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9326880"/>
+          <a:ext cx="10459910" cy="7621064"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>592334</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>117217</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Рисунок 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="17190720"/>
+          <a:ext cx="12784334" cy="7249537"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -791,11 +955,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -803,8 +967,8 @@
     <col min="1" max="1" width="43.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="39.109375" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="35.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.88671875" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="34.21875" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="18" width="15" style="1" bestFit="1" customWidth="1"/>
@@ -944,13 +1108,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -958,13 +1122,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -972,13 +1136,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -986,16 +1150,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -1003,7 +1167,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>14</v>
@@ -1017,13 +1181,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -1031,13 +1195,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>58</v>
+        <v>55</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
@@ -1045,13 +1212,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -1059,16 +1226,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
@@ -1076,16 +1243,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D12" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
@@ -1093,13 +1260,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
@@ -1107,13 +1274,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
@@ -1127,13 +1294,13 @@
         <v>17</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1141,21 +1308,21 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C19" s="1">
         <v>71</v>
@@ -1166,63 +1333,55 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
       <c r="E21" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D22" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="144" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>61</v>
+      <c r="A23" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="D25" s="4" t="s">
-        <v>63</v>
+      <c r="A24" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="D26" s="10"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D27" s="10"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D28" s="10"/>
     </row>
@@ -1234,143 +1393,143 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D31" s="10"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A20:B20 D20:XFD20 A3:XFD19">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="A20:B20 A3:XFD19 D20:XFD20">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1383,104 +1542,105 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="17" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F4" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F7" s="17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18324" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18324" windowHeight="9384" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -543,8 +543,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>201840</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>285660</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>147548</xdr:rowOff>
     </xdr:to>
@@ -619,8 +619,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>96710</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>180530</xdr:colOff>
       <xdr:row>92</xdr:row>
       <xdr:rowOff>122984</xdr:rowOff>
     </xdr:to>
@@ -658,7 +658,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>592334</xdr:colOff>
+      <xdr:colOff>66554</xdr:colOff>
       <xdr:row>133</xdr:row>
       <xdr:rowOff>117217</xdr:rowOff>
     </xdr:to>
@@ -955,11 +955,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1529,7 +1529,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A20:B20 A3:XFD19 D20:XFD20">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1540,102 +1540,105 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" t="s">
         <v>75</v>
       </c>
       <c r="H3" s="17" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F4" s="17" t="s">
-        <v>91</v>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="H4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" t="s">
         <v>76</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>92</v>
       </c>
       <c r="H5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" t="s">
         <v>77</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>93</v>
       </c>
       <c r="H6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F7" s="17" t="s">
-        <v>94</v>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>95</v>
       </c>
       <c r="H7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="17" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E8" s="17" t="s">
         <v>78</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>95</v>
       </c>
       <c r="H8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
         <v>80</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>96</v>
       </c>
       <c r="H10" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
         <v>81</v>
       </c>
       <c r="H11" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
         <v>82</v>
       </c>
     </row>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18324" windowHeight="9384" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18324" windowHeight="9384"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="93">
   <si>
     <t>week</t>
   </si>
@@ -199,14 +199,6 @@
   </si>
   <si>
     <t>I tried to organize my day, started reading a book, and installed Python, VS Code, IntelliJ IDE, Git Bash.</t>
-  </si>
-  <si>
-    <t>Aliya R
-10:10 AM
-https://www.oreilly.com/library/view/learning-python-5th/9781449355722/
-Aliya R
-10:13 AM
-https://www.krishnagudi.com/wp-content/uploads/2023/05/Python-Programming-An-Introduction-to-Computer-Science-John-M.-Zelle.pdf</t>
   </si>
   <si>
     <t>Aliya R
@@ -274,30 +266,12 @@
     <t>FOCUS BLOCKS</t>
   </si>
   <si>
-    <t>Breakfast + Prayer + Morning SUN walk</t>
-  </si>
-  <si>
-    <t>FB1: 6:00am</t>
-  </si>
-  <si>
-    <t>6:05am</t>
-  </si>
-  <si>
-    <t>FB1:</t>
-  </si>
-  <si>
     <t>Weekly Plan</t>
   </si>
   <si>
     <t>Daily Plan</t>
   </si>
   <si>
-    <t>Hire Assistant Decision</t>
-  </si>
-  <si>
-    <t>Prepare Dirk email</t>
-  </si>
-  <si>
     <t>PRODUCTIVE FOCUS-BLOCKS RULES:</t>
   </si>
   <si>
@@ -344,6 +318,9 @@
   </si>
   <si>
     <t>упражнения</t>
+  </si>
+  <si>
+    <t>rest</t>
   </si>
 </sst>
 </file>
@@ -537,20 +514,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>285660</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>147548</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>559139</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>37221</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="3" name="Рисунок 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -563,8 +540,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="2743200"/>
-          <a:ext cx="13003440" cy="6182588"/>
+          <a:off x="13373100" y="0"/>
+          <a:ext cx="5999819" cy="2414661"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -575,20 +552,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>277199</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>67067</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>180530</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>122984</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="6" name="Рисунок 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -601,45 +578,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11582400" y="182880"/>
-          <a:ext cx="6982799" cy="2810267"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>180530</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>122984</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Рисунок 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="9326880"/>
+          <a:off x="0" y="2377440"/>
           <a:ext cx="10459910" cy="7621064"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -653,31 +592,31 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>66554</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>117217</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Рисунок 4"/>
+        <xdr:cNvPr id="7" name="Рисунок 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="17190720"/>
+          <a:off x="0" y="10058400"/>
           <a:ext cx="12784334" cy="7249537"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -955,11 +894,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomRight" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1114,7 +1053,7 @@
         <v>51</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -1128,7 +1067,7 @@
         <v>56</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -1142,7 +1081,7 @@
         <v>19</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -1156,10 +1095,10 @@
         <v>15</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -1187,7 +1126,7 @@
         <v>52</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -1204,7 +1143,7 @@
         <v>55</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
@@ -1218,7 +1157,7 @@
         <v>53</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -1235,7 +1174,7 @@
         <v>55</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
@@ -1249,10 +1188,10 @@
         <v>57</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
@@ -1266,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
@@ -1294,7 +1233,7 @@
         <v>17</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
@@ -1308,7 +1247,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>55</v>
@@ -1319,7 +1258,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>55</v>
@@ -1339,32 +1278,30 @@
         <v>55</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
       <c r="E21" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="144" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>58</v>
-      </c>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
     </row>
     <row r="24" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1540,10 +1477,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1551,95 +1488,81 @@
     <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B1" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H3" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E8" s="17"/>
+      <c r="H8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="H4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="E5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="E6" t="s">
-        <v>77</v>
-      </c>
-      <c r="H6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="H7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E8" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="H8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E10" t="s">
-        <v>80</v>
-      </c>
-      <c r="H10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E11" t="s">
-        <v>81</v>
-      </c>
-      <c r="H11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E12" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="95">
   <si>
     <t>week</t>
   </si>
@@ -321,6 +321,13 @@
   </si>
   <si>
     <t>rest</t>
+  </si>
+  <si>
+    <t>Сабатикал (от англ. sabbatical) — это длительный отпуск, обычно от нескольких месяцев до года, который человек берёт для восстановления, личного развития, путешествий или работы над личными проектами.
+make sense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
   </si>
 </sst>
 </file>
@@ -895,10 +902,10 @@
   <dimension ref="A1:S63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1235,6 +1242,9 @@
       <c r="D15" s="14" t="s">
         <v>65</v>
       </c>
+      <c r="E15" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -1291,8 +1301,10 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
+    <row r="23" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="95">
   <si>
     <t>week</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Computer Systems and Industrial Programming:</t>
   </si>
   <si>
-    <t xml:space="preserve">Intro to IT </t>
-  </si>
-  <si>
     <t>Python:</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
   </si>
   <si>
     <t>Comments to GH team:</t>
-  </si>
-  <si>
-    <t>Reviewed 2 lessons</t>
   </si>
   <si>
     <t>attended the last part of lesson</t>
@@ -328,6 +322,12 @@
   </si>
   <si>
     <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>Reviewed 2 lessons (Intro to IT )</t>
   </si>
 </sst>
 </file>
@@ -453,7 +453,17 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -899,13 +909,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S63"/>
+  <dimension ref="A1:S62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -913,7 +923,7 @@
     <col min="1" max="1" width="43.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="39.109375" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="35.88671875" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="35.88671875" style="1" customWidth="1"/>
     <col min="5" max="5" width="34.21875" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
@@ -1054,13 +1064,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -1068,58 +1078,58 @@
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -1127,13 +1137,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>67</v>
+        <v>94</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -1141,16 +1154,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>90</v>
+        <v>53</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
@@ -1158,47 +1168,47 @@
         <v>8</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>54</v>
-      </c>
       <c r="D11" s="14" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>57</v>
+        <v>53</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>66</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
@@ -1206,13 +1216,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>68</v>
+        <v>53</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
@@ -1220,264 +1233,253 @@
         <v>12</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>55</v>
+        <v>63</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>65</v>
+      <c r="A15" s="5"/>
+      <c r="B15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
-      <c r="B16" s="1" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
+      <c r="A17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>55</v>
+        <v>89</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="1">
+        <v>71</v>
+      </c>
+      <c r="D18" s="1">
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="E20" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="1">
-        <v>71</v>
-      </c>
-      <c r="D19" s="1">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
-      <c r="E21" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>59</v>
-      </c>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="D26" s="10"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D27" s="10"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D28" s="10"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D29" s="10"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D30" s="10"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="10"/>
+        <v>21</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A20:B20 A3:XFD19 D20:XFD20">
+  <conditionalFormatting sqref="A19:B19 D19:XFD19 A3:XFD18">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
@@ -1502,79 +1504,79 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B1" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" t="s">
         <v>73</v>
       </c>
-      <c r="E1" t="s">
-        <v>75</v>
-      </c>
       <c r="F1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="T2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E8" s="17"/>
       <c r="H8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="H10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="H11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="95">
   <si>
     <t>week</t>
   </si>
@@ -915,7 +915,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A43" sqref="A43"/>
+      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1257,7 +1257,7 @@
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>58</v>
       </c>
@@ -1267,8 +1267,11 @@
       <c r="D17" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>89</v>
       </c>
@@ -1282,7 +1285,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>48</v>
       </c>
@@ -1296,64 +1299,67 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
       <c r="E20" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="F20" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D25" s="10"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D26" s="10"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D27" s="10"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D28" s="10"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D29" s="10"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D30" s="10"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>22</v>
       </c>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="95">
   <si>
     <t>week</t>
   </si>
@@ -912,10 +912,10 @@
   <dimension ref="A1:S62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1071,6 +1071,9 @@
       </c>
       <c r="D3" s="14" t="s">
         <v>61</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="96">
   <si>
     <t>week</t>
   </si>
@@ -243,6 +243,9 @@
   </si>
   <si>
     <t>Mindset</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
@@ -915,7 +918,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1073,7 +1076,7 @@
         <v>61</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -1089,6 +1092,9 @@
       <c r="D4" s="14" t="s">
         <v>61</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
@@ -1103,6 +1109,9 @@
       <c r="D5" s="14" t="s">
         <v>61</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
@@ -1115,7 +1124,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>60</v>
@@ -1146,10 +1155,10 @@
         <v>53</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -1180,7 +1189,7 @@
         <v>53</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
@@ -1197,7 +1206,7 @@
         <v>64</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
@@ -1228,7 +1237,7 @@
         <v>53</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
@@ -1245,7 +1254,7 @@
         <v>63</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
@@ -1254,7 +1263,7 @@
         <v>53</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
@@ -1271,12 +1280,12 @@
         <v>53</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>53</v>
@@ -1306,15 +1315,15 @@
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
       <c r="E20" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -1513,79 +1522,79 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B1" s="17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" t="s">
         <v>73</v>
-      </c>
-      <c r="F1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="T2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E8" s="17"/>
       <c r="H8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="H10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="H11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -918,7 +918,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="96">
   <si>
     <t>week</t>
   </si>
@@ -918,7 +918,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1222,6 +1222,9 @@
       <c r="D12" s="14" t="s">
         <v>66</v>
       </c>
+      <c r="E12" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
@@ -1254,7 +1257,7 @@
         <v>63</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="96">
   <si>
     <t>week</t>
   </si>
@@ -456,57 +456,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -918,7 +868,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1126,7 +1076,7 @@
       <c r="D6" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="F6" s="10" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1208,6 +1158,9 @@
       <c r="E11" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="F11" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
@@ -1225,6 +1178,9 @@
       <c r="E12" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="F12" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
@@ -1258,6 +1214,9 @@
       </c>
       <c r="E14" s="1" t="s">
         <v>71</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
@@ -1500,7 +1459,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A19:B19 D19:XFD19 A3:XFD18">
+  <conditionalFormatting sqref="A19:B19 D19:XFD19 A3:XFD5 A7:XFD18 A6:D6 F6:XFD6">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="97">
   <si>
     <t>week</t>
   </si>
@@ -331,6 +331,9 @@
   </si>
   <si>
     <t>Reviewed 2 lessons (Intro to IT )</t>
+  </si>
+  <si>
+    <t>сократил экранное время почти в 0, серый экран работает)))</t>
   </si>
 </sst>
 </file>
@@ -456,7 +459,17 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -868,7 +881,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1124,6 +1137,7 @@
       <c r="D9" s="15" t="s">
         <v>62</v>
       </c>
+      <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
@@ -1155,8 +1169,8 @@
       <c r="D11" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>68</v>
+      <c r="E11" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>68</v>
@@ -1459,8 +1473,8 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A19:B19 D19:XFD19 A3:XFD5 A7:XFD18 A6:D6 F6:XFD6">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="A19:B19 D19:XFD19 A3:XFD5 A6:D6 F6:XFD6 A7:XFD18">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -25,45 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="109">
   <si>
     <t>week</t>
-  </si>
-  <si>
-    <t>Foundations for Discrete Mathematics and Data Structures &amp; Algorithms:</t>
-  </si>
-  <si>
-    <t>Computer Systems and Industrial Programming:</t>
-  </si>
-  <si>
-    <t>Python:</t>
-  </si>
-  <si>
-    <t>Mentorship and personal growth:</t>
-  </si>
-  <si>
-    <t>GitHub:</t>
-  </si>
-  <si>
-    <t>Online Courses:</t>
-  </si>
-  <si>
-    <t>Reading:</t>
-  </si>
-  <si>
-    <t>Main insights this week:</t>
-  </si>
-  <si>
-    <t>Things that were good this week:</t>
-  </si>
-  <si>
-    <t>Things I’ll focus more next week:</t>
-  </si>
-  <si>
-    <t>Study buddy/group:</t>
-  </si>
-  <si>
-    <t>Comments to GH team:</t>
   </si>
   <si>
     <t>attended the last part of lesson</t>
@@ -334,6 +298,80 @@
   </si>
   <si>
     <t>сократил экранное время почти в 0, серый экран работает)))</t>
+  </si>
+  <si>
+    <t>Mindset 40%</t>
+  </si>
+  <si>
+    <t>Python intensive</t>
+  </si>
+  <si>
+    <t>Mon 10 am</t>
+  </si>
+  <si>
+    <t>Mon 11 am</t>
+  </si>
+  <si>
+    <t>Tue 7 pm</t>
+  </si>
+  <si>
+    <t>Sat 9 am</t>
+  </si>
+  <si>
+    <t>Office hours</t>
+  </si>
+  <si>
+    <t>Tue 9 pm,
+Wed 8 am,
+Thu 9 pm</t>
+  </si>
+  <si>
+    <t>Computer Systems and Industrial Programming</t>
+  </si>
+  <si>
+    <t>Mentorship and personal growth</t>
+  </si>
+  <si>
+    <t>Foundations for Discrete Mathematics and Data Structures &amp; Algorithms</t>
+  </si>
+  <si>
+    <t>GitHub</t>
+  </si>
+  <si>
+    <t>Online Courses</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>Main insights this week</t>
+  </si>
+  <si>
+    <t>Things that were good this week</t>
+  </si>
+  <si>
+    <t>Things I’ll focus more next week</t>
+  </si>
+  <si>
+    <t>Study buddy/group</t>
+  </si>
+  <si>
+    <t>Comments to GH team</t>
+  </si>
+  <si>
+    <t>week 5 lessons reviewed, w5 hw finished</t>
+  </si>
+  <si>
+    <t>week 4 lesson attended</t>
+  </si>
+  <si>
+    <t>Attended all meetings</t>
+  </si>
+  <si>
+    <t>19/200</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
 </sst>
 </file>
@@ -408,7 +446,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -416,11 +454,235 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -431,35 +693,129 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -875,606 +1231,665 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S62"/>
+  <dimension ref="A1:T63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" style="1" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="39.109375" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="35.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="18" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="39.109375" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="35.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="19" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17"/>
+      <c r="B1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9">
+      <c r="C1" s="22">
         <v>1</v>
       </c>
-      <c r="C1" s="9">
+      <c r="D1" s="18">
         <v>2</v>
       </c>
-      <c r="D1" s="9">
+      <c r="E1" s="18">
         <v>3</v>
       </c>
-      <c r="E1" s="9">
+      <c r="F1" s="18">
         <v>4</v>
       </c>
-      <c r="F1" s="9">
+      <c r="G1" s="18">
         <v>5</v>
       </c>
-      <c r="G1" s="9">
+      <c r="H1" s="18">
         <v>6</v>
       </c>
-      <c r="H1" s="9">
+      <c r="I1" s="18">
         <v>7</v>
       </c>
-      <c r="I1" s="9">
+      <c r="J1" s="18">
         <v>8</v>
       </c>
-      <c r="J1" s="9">
+      <c r="K1" s="18">
         <v>9</v>
       </c>
-      <c r="K1" s="9">
+      <c r="L1" s="18">
         <v>10</v>
       </c>
-      <c r="L1" s="9">
+      <c r="M1" s="18">
         <v>11</v>
       </c>
-      <c r="M1" s="9">
+      <c r="N1" s="18">
         <v>12</v>
       </c>
-      <c r="N1" s="9">
+      <c r="O1" s="18">
         <v>13</v>
       </c>
-      <c r="O1" s="9">
+      <c r="P1" s="18">
         <v>14</v>
       </c>
-      <c r="P1" s="9">
+      <c r="Q1" s="18">
         <v>15</v>
       </c>
-      <c r="Q1" s="9">
+      <c r="R1" s="18">
         <v>16</v>
       </c>
-      <c r="R1" s="9">
+      <c r="S1" s="18">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="5" t="str">
-        <f>CONCATENATE(TEXT(45929+(B$1-1)*7,"МММ.ДД")," - ",TEXT(45929+(B$1-1)*7+6,"МММ.ДД"))</f>
+    <row r="2" spans="1:20" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="19"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="23" t="str">
+        <f>CONCATENATE(TEXT(45929+(C$1-1)*7,"МММ.ДД")," - ",TEXT(45929+(C$1-1)*7+6,"МММ.ДД"))</f>
         <v>сент.29 - окт.05</v>
       </c>
-      <c r="C2" s="5" t="str">
-        <f>CONCATENATE(TEXT(45929+(C$1-1)*7,"МММ.ДД")," - ",TEXT(45929+(C$1-1)*7+6,"МММ.ДД"))</f>
+      <c r="D2" s="20" t="str">
+        <f>CONCATENATE(TEXT(45929+(D$1-1)*7,"МММ.ДД")," - ",TEXT(45929+(D$1-1)*7+6,"МММ.ДД"))</f>
         <v>окт.06 - окт.12</v>
       </c>
-      <c r="D2" s="5" t="str">
-        <f t="shared" ref="D2:R2" si="0">CONCATENATE(TEXT(45929+(D$1-1)*7,"МММ.ДД")," - ",TEXT(45929+(D$1-1)*7+6,"МММ.ДД"))</f>
+      <c r="E2" s="20" t="str">
+        <f t="shared" ref="E2:S2" si="0">CONCATENATE(TEXT(45929+(E$1-1)*7,"МММ.ДД")," - ",TEXT(45929+(E$1-1)*7+6,"МММ.ДД"))</f>
         <v>окт.13 - окт.19</v>
       </c>
-      <c r="E2" s="5" t="str">
+      <c r="F2" s="20" t="str">
         <f t="shared" si="0"/>
         <v>окт.20 - окт.26</v>
       </c>
-      <c r="F2" s="5" t="str">
+      <c r="G2" s="20" t="str">
         <f t="shared" si="0"/>
         <v>окт.27 - нояб.02</v>
       </c>
-      <c r="G2" s="5" t="str">
+      <c r="H2" s="20" t="str">
         <f t="shared" si="0"/>
         <v>нояб.03 - нояб.09</v>
       </c>
-      <c r="H2" s="5" t="str">
+      <c r="I2" s="20" t="str">
         <f t="shared" si="0"/>
         <v>нояб.10 - нояб.16</v>
       </c>
-      <c r="I2" s="5" t="str">
+      <c r="J2" s="20" t="str">
         <f t="shared" si="0"/>
         <v>нояб.17 - нояб.23</v>
       </c>
-      <c r="J2" s="5" t="str">
+      <c r="K2" s="20" t="str">
         <f t="shared" si="0"/>
         <v>нояб.24 - нояб.30</v>
       </c>
-      <c r="K2" s="5" t="str">
+      <c r="L2" s="20" t="str">
         <f t="shared" si="0"/>
         <v>дек.01 - дек.07</v>
       </c>
-      <c r="L2" s="5" t="str">
+      <c r="M2" s="20" t="str">
         <f t="shared" si="0"/>
         <v>дек.08 - дек.14</v>
       </c>
-      <c r="M2" s="5" t="str">
+      <c r="N2" s="20" t="str">
         <f t="shared" si="0"/>
         <v>дек.15 - дек.21</v>
       </c>
-      <c r="N2" s="5" t="str">
+      <c r="O2" s="20" t="str">
         <f t="shared" si="0"/>
         <v>дек.22 - дек.28</v>
       </c>
-      <c r="O2" s="5" t="str">
+      <c r="P2" s="20" t="str">
         <f t="shared" si="0"/>
         <v>дек.29 - янв.04</v>
       </c>
-      <c r="P2" s="5" t="str">
+      <c r="Q2" s="20" t="str">
         <f t="shared" si="0"/>
         <v>янв.05 - янв.11</v>
       </c>
-      <c r="Q2" s="5" t="str">
+      <c r="R2" s="20" t="str">
         <f t="shared" si="0"/>
         <v>янв.12 - янв.18</v>
       </c>
-      <c r="R2" s="5" t="str">
+      <c r="S2" s="20" t="str">
         <f t="shared" si="0"/>
         <v>янв.19 - янв.25</v>
       </c>
-      <c r="S2" s="5"/>
-    </row>
-    <row r="3" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="T2" s="20"/>
+    </row>
+    <row r="3" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="E5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:20" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="30"/>
+      <c r="B8" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="F8" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="30"/>
+      <c r="B9" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="30"/>
+      <c r="B10" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="30"/>
+      <c r="B11" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="30"/>
+      <c r="B12" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="30"/>
+      <c r="B13" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="30"/>
+      <c r="B14" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="34"/>
+      <c r="B15" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="D15" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="14" t="s">
+      <c r="E15" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B16" s="5"/>
+      <c r="C16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="1">
+        <v>71</v>
+      </c>
+      <c r="E19" s="1">
+        <v>72</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C21" s="2"/>
+      <c r="D21" s="3"/>
+      <c r="F21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B23" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B24" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B25" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="15"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="1">
-        <v>71</v>
-      </c>
-      <c r="D18" s="1">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
-      <c r="E20" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="10"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="10"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="10"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D28" s="10"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D29" s="10"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="10"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B57" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B60" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B62" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B63" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A19:B19 D19:XFD19 A3:XFD5 A6:D6 F6:XFD6 A7:XFD18">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="B20:C20 E20:XFD20 B5:E6 G5:XFD6 B3:XFD4 A7:XFD19">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1497,80 +1912,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B1" s="17" t="s">
-        <v>72</v>
+      <c r="B1" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="E1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="T2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="H3" s="17" t="s">
+      <c r="A3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="H7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E8" s="8"/>
+      <c r="H8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="H5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="H6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="H7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E8" s="17"/>
-      <c r="H8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="H10" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="H11" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -300,9 +300,6 @@
     <t>сократил экранное время почти в 0, серый экран работает)))</t>
   </si>
   <si>
-    <t>Mindset 40%</t>
-  </si>
-  <si>
     <t>Python intensive</t>
   </si>
   <si>
@@ -372,6 +369,9 @@
   </si>
   <si>
     <t>good</t>
+  </si>
+  <si>
+    <t>Mindset 50%</t>
   </si>
 </sst>
 </file>
@@ -755,67 +755,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1237,7 +1177,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1386,10 +1326,10 @@
     </row>
     <row r="3" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" s="24" t="s">
         <v>41</v>
@@ -1401,7 +1341,7 @@
         <v>49</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>55</v>
@@ -1409,10 +1349,10 @@
     </row>
     <row r="4" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>41</v>
@@ -1429,10 +1369,10 @@
     </row>
     <row r="5" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>41</v>
@@ -1444,7 +1384,7 @@
         <v>57</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>48</v>
@@ -1452,27 +1392,27 @@
     </row>
     <row r="6" spans="1:20" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:20" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>41</v>
@@ -1490,7 +1430,7 @@
     <row r="8" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30"/>
       <c r="B8" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>41</v>
@@ -1502,13 +1442,13 @@
         <v>53</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="30"/>
       <c r="B9" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>41</v>
@@ -1526,7 +1466,7 @@
     <row r="10" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30"/>
       <c r="B10" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>41</v>
@@ -1538,13 +1478,13 @@
         <v>50</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="30"/>
       <c r="B11" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>41</v>
@@ -1562,7 +1502,7 @@
     <row r="12" spans="1:20" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="30"/>
       <c r="B12" s="31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>41</v>
@@ -1583,7 +1523,7 @@
     <row r="13" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="30"/>
       <c r="B13" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>41</v>
@@ -1604,7 +1544,7 @@
     <row r="14" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="30"/>
       <c r="B14" s="31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C14" s="25" t="s">
         <v>41</v>
@@ -1616,13 +1556,13 @@
         <v>41</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:20" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="34"/>
       <c r="B15" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C15" s="25" t="s">
         <v>2</v>
@@ -1694,7 +1634,7 @@
         <v>47</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
@@ -1884,12 +1824,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B20:C20 E20:XFD20 B5:E6 G5:XFD6 B3:XFD4 A7:XFD19">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1903,7 +1843,7 @@
   <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+      <selection activeCell="A3" sqref="A3:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="109">
   <si>
     <t>week</t>
   </si>
@@ -1177,7 +1177,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1422,6 +1422,9 @@
       </c>
       <c r="E7" s="10" t="s">
         <v>49</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>82</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>81</v>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -1424,7 +1424,7 @@
         <v>49</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>81</v>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="110">
   <si>
     <t>week</t>
   </si>
@@ -372,6 +372,9 @@
   </si>
   <si>
     <t>Mindset 50%</t>
+  </si>
+  <si>
+    <t>week 4 lessons reviewed, w3 hw almost finished</t>
   </si>
 </sst>
 </file>
@@ -755,7 +758,17 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1177,7 +1190,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1423,8 +1436,8 @@
       <c r="E7" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>55</v>
+      <c r="F7" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>81</v>
@@ -1827,12 +1840,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B20:C20 E20:XFD20 B5:E6 G5:XFD6 B3:XFD4 A7:XFD19">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="113">
   <si>
     <t>week</t>
   </si>
@@ -376,12 +376,21 @@
   <si>
     <t>week 4 lessons reviewed, w3 hw almost finished</t>
   </si>
+  <si>
+    <t>чингиз джуманазаров посмотреть видео в GrowthHungry</t>
+  </si>
+  <si>
+    <t>Законы победителя найти книгу</t>
+  </si>
+  <si>
+    <t>https://youtu.be/wlsvwXOKg_I?si=BzJlgPyMB_EcSiIm</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,6 +449,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -682,10 +700,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -754,8 +773,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -1190,7 +1211,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1478,6 +1499,12 @@
       <c r="F9" s="9" t="s">
         <v>77</v>
       </c>
+      <c r="G9" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="10" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30"/>
@@ -1495,6 +1522,9 @@
       </c>
       <c r="F10" s="13" t="s">
         <v>108</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -1849,8 +1879,11 @@
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="H9" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18324" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18324" windowHeight="9384" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="114">
   <si>
     <t>week</t>
   </si>
@@ -218,9 +218,6 @@
     <t>week 3 lesson attended, previsous videos reviewed</t>
   </si>
   <si>
-    <t>не расслабляться</t>
-  </si>
-  <si>
     <t xml:space="preserve">     </t>
   </si>
   <si>
@@ -273,9 +270,6 @@
   </si>
   <si>
     <t>9 HOURS free time</t>
-  </si>
-  <si>
-    <t>Видео презентация Эдиля Ажибаева</t>
   </si>
   <si>
     <t>упражнения</t>
@@ -295,9 +289,6 @@
   </si>
   <si>
     <t>Reviewed 2 lessons (Intro to IT )</t>
-  </si>
-  <si>
-    <t>сократил экранное время почти в 0, серый экран работает)))</t>
   </si>
   <si>
     <t>Python intensive</t>
@@ -374,9 +365,6 @@
     <t>Mindset 50%</t>
   </si>
   <si>
-    <t>week 4 lessons reviewed, w3 hw almost finished</t>
-  </si>
-  <si>
     <t>чингиз джуманазаров посмотреть видео в GrowthHungry</t>
   </si>
   <si>
@@ -384,6 +372,21 @@
   </si>
   <si>
     <t>https://youtu.be/wlsvwXOKg_I?si=BzJlgPyMB_EcSiIm</t>
+  </si>
+  <si>
+    <t>week 4 lessons reviewed, w4 hw finished</t>
+  </si>
+  <si>
+    <t>keep up temp</t>
+  </si>
+  <si>
+    <t>Significantly reduced screen time, the gray screen works)))</t>
+  </si>
+  <si>
+    <t>don't relax</t>
+  </si>
+  <si>
+    <t>Video presentation by Edil Azhibaev</t>
   </si>
 </sst>
 </file>
@@ -1207,11 +1210,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1360,10 +1363,10 @@
     </row>
     <row r="3" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C3" s="24" t="s">
         <v>41</v>
@@ -1375,7 +1378,7 @@
         <v>49</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>55</v>
@@ -1383,10 +1386,10 @@
     </row>
     <row r="4" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>41</v>
@@ -1398,15 +1401,15 @@
         <v>49</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>41</v>
@@ -1418,7 +1421,7 @@
         <v>57</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>48</v>
@@ -1426,27 +1429,27 @@
     </row>
     <row r="6" spans="1:20" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:20" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>41</v>
@@ -1461,13 +1464,13 @@
         <v>109</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30"/>
       <c r="B8" s="31" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>41</v>
@@ -1479,13 +1482,13 @@
         <v>53</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="30"/>
       <c r="B9" s="31" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>41</v>
@@ -1494,22 +1497,22 @@
         <v>41</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30"/>
       <c r="B10" s="31" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>41</v>
@@ -1521,16 +1524,16 @@
         <v>50</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="30"/>
       <c r="B11" s="31" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>41</v>
@@ -1542,13 +1545,13 @@
         <v>41</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:20" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="30"/>
       <c r="B12" s="31" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>41</v>
@@ -1560,7 +1563,7 @@
         <v>52</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>56</v>
@@ -1569,7 +1572,7 @@
     <row r="13" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="30"/>
       <c r="B13" s="31" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>41</v>
@@ -1581,16 +1584,16 @@
         <v>54</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="30"/>
       <c r="B14" s="31" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C14" s="25" t="s">
         <v>41</v>
@@ -1608,7 +1611,7 @@
     <row r="15" spans="1:20" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="34"/>
       <c r="B15" s="35" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C15" s="25" t="s">
         <v>2</v>
@@ -1623,7 +1626,7 @@
         <v>41</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
@@ -1632,7 +1635,7 @@
         <v>41</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
@@ -1654,7 +1657,7 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>41</v>
@@ -1680,22 +1683,22 @@
         <v>47</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C21" s="2"/>
       <c r="D21" s="3"/>
       <c r="F21" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
@@ -1891,7 +1894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:A7"/>
     </sheetView>
   </sheetViews>
@@ -1902,79 +1905,79 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
         <v>60</v>
-      </c>
-      <c r="E1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="T2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E8" s="8"/>
       <c r="H8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="H10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="H11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18324" windowHeight="9384" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18324" windowHeight="9384"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1210,7 +1210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -1894,7 +1894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:A7"/>
     </sheetView>
   </sheetViews>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="114">
   <si>
     <t>week</t>
   </si>
@@ -212,9 +212,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
     <t>week 3 lesson attended, previsous videos reviewed</t>
   </si>
   <si>
@@ -362,9 +359,6 @@
     <t>good</t>
   </si>
   <si>
-    <t>Mindset 50%</t>
-  </si>
-  <si>
     <t>чингиз джуманазаров посмотреть видео в GrowthHungry</t>
   </si>
   <si>
@@ -387,6 +381,12 @@
   </si>
   <si>
     <t>Video presentation by Edil Azhibaev</t>
+  </si>
+  <si>
+    <t>week 4,5  lessons reviewed, w4 hw finished</t>
+  </si>
+  <si>
+    <t>Mindset 57%</t>
   </si>
 </sst>
 </file>
@@ -782,7 +782,17 @@
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1214,7 +1224,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="B1:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1223,7 +1233,7 @@
     <col min="2" max="2" width="43.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.33203125" style="1" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="39.109375" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="35.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="35.88671875" style="1" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="34.21875" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="11" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
@@ -1363,10 +1373,10 @@
     </row>
     <row r="3" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="24" t="s">
         <v>41</v>
@@ -1378,7 +1388,7 @@
         <v>49</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>55</v>
@@ -1386,10 +1396,10 @@
     </row>
     <row r="4" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>41</v>
@@ -1400,16 +1410,19 @@
       <c r="E4" s="10" t="s">
         <v>49</v>
       </c>
+      <c r="F4" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="G4" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>41</v>
@@ -1418,10 +1431,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>48</v>
@@ -1429,27 +1442,27 @@
     </row>
     <row r="6" spans="1:20" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:20" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>41</v>
@@ -1461,16 +1474,16 @@
         <v>49</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30"/>
       <c r="B8" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>41</v>
@@ -1482,13 +1495,13 @@
         <v>53</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="30"/>
       <c r="B9" s="31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>41</v>
@@ -1497,22 +1510,22 @@
         <v>41</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G9" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" s="36" t="s">
         <v>106</v>
-      </c>
-      <c r="H9" s="36" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30"/>
       <c r="B10" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>41</v>
@@ -1524,16 +1537,16 @@
         <v>50</v>
       </c>
       <c r="F10" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>105</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="30"/>
       <c r="B11" s="31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>41</v>
@@ -1545,13 +1558,13 @@
         <v>41</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:20" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="30"/>
       <c r="B12" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>41</v>
@@ -1563,16 +1576,16 @@
         <v>52</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="30"/>
       <c r="B13" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>41</v>
@@ -1584,16 +1597,16 @@
         <v>54</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="30"/>
       <c r="B14" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C14" s="25" t="s">
         <v>41</v>
@@ -1611,7 +1624,7 @@
     <row r="15" spans="1:20" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="34"/>
       <c r="B15" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C15" s="25" t="s">
         <v>2</v>
@@ -1626,7 +1639,7 @@
         <v>41</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
@@ -1635,7 +1648,7 @@
         <v>41</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
@@ -1657,7 +1670,7 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>41</v>
@@ -1683,22 +1696,22 @@
         <v>47</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C21" s="2"/>
       <c r="D21" s="3"/>
       <c r="F21" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
@@ -1872,13 +1885,13 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B20:C20 E20:XFD20 B5:E6 G5:XFD6 B3:XFD4 A7:XFD19">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+  <conditionalFormatting sqref="B20:C20 E20:XFD20 B5:E6 G5:XFD6 A7:XFD19 B3:XFD4">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1905,79 +1918,79 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" t="s">
         <v>59</v>
-      </c>
-      <c r="E1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="T2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E8" s="8"/>
       <c r="H8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="H10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="H11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -1224,7 +1224,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="B1:F15"/>
+      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1436,7 +1436,7 @@
       <c r="F5" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="H5" s="11" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1539,7 +1539,7 @@
       <c r="F10" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="H10" s="9" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1885,13 +1885,13 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B20:C20 E20:XFD20 B5:E6 G5:XFD6 A7:XFD19 B3:XFD4">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+  <conditionalFormatting sqref="B20:C20 E20:XFD20 B5:E6 G6:XFD6 A7:XFD9 B3:XFD4 H5:XFD5 A11:XFD19 A10:F10 H10:XFD10">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -1224,7 +1224,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="117">
   <si>
     <t>week</t>
   </si>
@@ -387,6 +387,18 @@
   </si>
   <si>
     <t>Mindset 57%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/two-sum/
+https://leetcode.com/problems/valid-anagram/description/ 
+https://leetcode.com/problems/squares-of-a-sorted-array/ </t>
+  </si>
+  <si>
+    <t>I use https://github.com/codespaces as my IDEa lol</t>
+  </si>
+  <si>
+    <t>для покрытия тестов
+https://www.browserstack.com/guide/coverage-py</t>
   </si>
 </sst>
 </file>
@@ -707,7 +719,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -777,6 +789,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1224,7 +1239,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1371,7 +1386,7 @@
       </c>
       <c r="T2" s="20"/>
     </row>
-    <row r="3" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" s="15" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>82</v>
       </c>
@@ -1393,8 +1408,17 @@
       <c r="G3" s="15" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H3" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>83</v>
       </c>
@@ -1415,6 +1439,9 @@
       </c>
       <c r="G4" s="9" t="s">
         <v>79</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -1897,9 +1924,10 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="H9" r:id="rId1"/>
+    <hyperlink ref="H3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="117">
   <si>
     <t>week</t>
   </si>
@@ -797,27 +797,7 @@
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1239,7 +1219,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
+      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1465,6 +1445,9 @@
       </c>
       <c r="H5" s="11" t="s">
         <v>48</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="119">
   <si>
     <t>week</t>
   </si>
@@ -209,9 +209,6 @@
     <t>Mindset</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>week 3 lesson attended, previsous videos reviewed</t>
   </si>
   <si>
@@ -280,9 +277,6 @@
   </si>
   <si>
     <t xml:space="preserve">   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    </t>
   </si>
   <si>
     <t>Reviewed 2 lessons (Intro to IT )</t>
@@ -383,9 +377,6 @@
     <t>Video presentation by Edil Azhibaev</t>
   </si>
   <si>
-    <t>week 4,5  lessons reviewed, w4 hw finished</t>
-  </si>
-  <si>
     <t>Mindset 57%</t>
   </si>
   <si>
@@ -399,6 +390,21 @@
   <si>
     <t>для покрытия тестов
 https://www.browserstack.com/guide/coverage-py</t>
+  </si>
+  <si>
+    <t>22/200</t>
+  </si>
+  <si>
+    <t>week 4, 5  lessons reviewed, w4 hw finished</t>
+  </si>
+  <si>
+    <t>no progress</t>
+  </si>
+  <si>
+    <t>time management</t>
+  </si>
+  <si>
+    <t>The world does not stand still</t>
   </si>
 </sst>
 </file>
@@ -797,7 +803,97 @@
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1216,10 +1312,10 @@
   <dimension ref="A1:T63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1228,7 +1324,7 @@
     <col min="2" max="2" width="43.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.33203125" style="1" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="39.109375" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="35.88671875" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="35.88671875" style="1" customWidth="1"/>
     <col min="6" max="6" width="34.21875" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="11" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
@@ -1368,10 +1464,10 @@
     </row>
     <row r="3" spans="1:20" s="15" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C3" s="24" t="s">
         <v>41</v>
@@ -1383,27 +1479,27 @@
         <v>49</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="H3" s="37" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>41</v>
@@ -1415,21 +1511,18 @@
         <v>49</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>41</v>
@@ -1438,41 +1531,46 @@
         <v>1</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>116</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>48</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="G6" s="11"/>
+        <v>99</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="7" spans="1:20" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>41</v>
@@ -1484,16 +1582,16 @@
         <v>49</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>78</v>
+        <v>105</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30"/>
       <c r="B8" s="31" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>41</v>
@@ -1505,13 +1603,16 @@
         <v>53</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="30"/>
       <c r="B9" s="31" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>41</v>
@@ -1520,22 +1621,25 @@
         <v>41</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="G9" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="H9" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="H9" s="36" t="s">
-        <v>106</v>
+      <c r="J9" s="9" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30"/>
       <c r="B10" s="31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>41</v>
@@ -1547,16 +1651,19 @@
         <v>50</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>116</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="30"/>
       <c r="B11" s="31" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>41</v>
@@ -1568,13 +1675,16 @@
         <v>41</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:20" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="30"/>
       <c r="B12" s="31" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>41</v>
@@ -1586,16 +1696,16 @@
         <v>52</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="30"/>
       <c r="B13" s="31" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>41</v>
@@ -1607,16 +1717,16 @@
         <v>54</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="30"/>
       <c r="B14" s="31" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C14" s="25" t="s">
         <v>41</v>
@@ -1628,13 +1738,16 @@
         <v>41</v>
       </c>
       <c r="F14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:20" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="34"/>
       <c r="B15" s="35" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C15" s="25" t="s">
         <v>2</v>
@@ -1648,8 +1761,9 @@
       <c r="F15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>78</v>
+      <c r="G15" s="9" t="e">
+        <f>-F:F</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
@@ -1658,7 +1772,7 @@
         <v>41</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
@@ -1680,7 +1794,7 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>41</v>
@@ -1706,22 +1820,22 @@
         <v>47</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C21" s="2"/>
       <c r="D21" s="3"/>
       <c r="F21" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
@@ -1895,13 +2009,28 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B20:C20 E20:XFD20 B5:E6 G6:XFD6 A7:XFD9 B3:XFD4 H5:XFD5 A11:XFD19 A10:F10 H10:XFD10">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="B20:C20 E20:XFD20 B5:E6 B3:XFD4 H5:XFD5 A11:XFD19 G6:XFD6 A7:XFD8 A9:F10 H9:XFD10">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1929,79 +2058,79 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" t="s">
         <v>58</v>
-      </c>
-      <c r="E1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="T2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E8" s="8"/>
       <c r="H8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="H10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="H11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="125">
   <si>
     <t>week</t>
   </si>
@@ -209,6 +209,9 @@
     <t>Mindset</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>week 3 lesson attended, previsous videos reviewed</t>
   </si>
   <si>
@@ -405,6 +408,21 @@
   </si>
   <si>
     <t>The world does not stand still</t>
+  </si>
+  <si>
+    <t>week 6 lessons reviewed, w6 hw finished</t>
+  </si>
+  <si>
+    <t>pixar прочитать книгу</t>
+  </si>
+  <si>
+    <t>стив и я, от стива возника тоже книга</t>
+  </si>
+  <si>
+    <t>week 7 lesson reviewed, hw finished</t>
+  </si>
+  <si>
+    <t>25/200</t>
   </si>
 </sst>
 </file>
@@ -725,7 +743,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -798,12 +816,75 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1311,11 +1392,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1324,8 +1405,8 @@
     <col min="2" max="2" width="43.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.33203125" style="1" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="39.109375" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="35.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="34.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="35.88671875" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="34.21875" style="1" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="16.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="11" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="19" width="15" style="1" bestFit="1" customWidth="1"/>
@@ -1462,12 +1543,12 @@
       </c>
       <c r="T2" s="20"/>
     </row>
-    <row r="3" spans="1:20" s="15" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" s="15" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="29" t="s">
         <v>80</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>79</v>
       </c>
       <c r="C3" s="24" t="s">
         <v>41</v>
@@ -1479,27 +1560,30 @@
         <v>49</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="I3" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="M3" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="L3" s="15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="N3" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="9" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>41</v>
@@ -1511,18 +1595,24 @@
         <v>49</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>113</v>
+        <v>116</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>41</v>
@@ -1531,46 +1621,46 @@
         <v>1</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="H5" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="M5" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="9" t="s">
-        <v>77</v>
+      <c r="Q5" s="9" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="31" t="s">
         <v>85</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>84</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>41</v>
@@ -1582,16 +1672,16 @@
         <v>49</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30"/>
       <c r="B8" s="31" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>41</v>
@@ -1603,16 +1693,19 @@
         <v>53</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="30"/>
       <c r="B9" s="31" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>41</v>
@@ -1621,25 +1714,25 @@
         <v>41</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="H9" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>102</v>
+        <v>117</v>
+      </c>
+      <c r="M9" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30"/>
       <c r="B10" s="31" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>41</v>
@@ -1651,19 +1744,19 @@
         <v>50</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>103</v>
+        <v>117</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="30"/>
       <c r="B11" s="31" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>41</v>
@@ -1675,16 +1768,16 @@
         <v>41</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:20" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="30"/>
       <c r="B12" s="31" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>41</v>
@@ -1696,7 +1789,7 @@
         <v>52</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>41</v>
@@ -1705,7 +1798,7 @@
     <row r="13" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="30"/>
       <c r="B13" s="31" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>41</v>
@@ -1717,16 +1810,16 @@
         <v>54</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="30"/>
       <c r="B14" s="31" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C14" s="25" t="s">
         <v>41</v>
@@ -1747,7 +1840,7 @@
     <row r="15" spans="1:20" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="34"/>
       <c r="B15" s="35" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C15" s="25" t="s">
         <v>2</v>
@@ -1761,9 +1854,8 @@
       <c r="F15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="9" t="e">
-        <f>-F:F</f>
-        <v>#VALUE!</v>
+      <c r="G15" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
@@ -1772,13 +1864,13 @@
         <v>41</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B17" s="5"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
         <v>46</v>
       </c>
@@ -1792,9 +1884,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>41</v>
@@ -1809,7 +1901,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
         <v>36</v>
       </c>
@@ -1820,65 +1912,71 @@
         <v>47</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C21" s="2"/>
       <c r="D21" s="3"/>
       <c r="F21" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B23" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="B24" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>9</v>
       </c>
@@ -2009,34 +2107,44 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B20:C20 E20:XFD20 B5:E6 B3:XFD4 H5:XFD5 A11:XFD19 G6:XFD6 A7:XFD8 A9:F10 H9:XFD10">
+  <conditionalFormatting sqref="B20:C20 E20:XFD20 B5:E6 A12:XFD19 A9:F10 G6 M3:XFD11 A7:G8 B3:G4 A11:G11">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
     <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
+  <conditionalFormatting sqref="G9">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
+  <conditionalFormatting sqref="G10">
     <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
+  <conditionalFormatting sqref="H3">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
+  <conditionalFormatting sqref="H8">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="H9" r:id="rId1"/>
-    <hyperlink ref="H3" r:id="rId2"/>
+    <hyperlink ref="M9" r:id="rId1"/>
+    <hyperlink ref="M3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId3"/>
@@ -2058,79 +2166,79 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B1" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" t="s">
         <v>59</v>
-      </c>
-      <c r="F1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="T2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E8" s="8"/>
       <c r="H8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="H10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="H11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="130">
   <si>
     <t>week</t>
   </si>
@@ -401,9 +401,6 @@
     <t>week 4, 5  lessons reviewed, w4 hw finished</t>
   </si>
   <si>
-    <t>no progress</t>
-  </si>
-  <si>
     <t>time management</t>
   </si>
   <si>
@@ -423,6 +420,24 @@
   </si>
   <si>
     <t>25/200</t>
+  </si>
+  <si>
+    <t>week 5,6 lessons reviewed, hw5 finished</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 podcasts from growthHungry youtube channel </t>
+  </si>
+  <si>
+    <t>Don't stop doing</t>
+  </si>
+  <si>
+    <t>Almost catch-up again</t>
+  </si>
+  <si>
+    <t>don't slow down</t>
+  </si>
+  <si>
+    <t>Пока вывозим на мотивирующих словах Таалая)))</t>
   </si>
 </sst>
 </file>
@@ -498,12 +513,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="17">
@@ -743,7 +770,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -819,12 +846,57 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1393,20 +1465,20 @@
   <dimension ref="A1:T63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="35.88671875" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="34.21875" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="35.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34.21875" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="11" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="19" width="15" style="1" bestFit="1" customWidth="1"/>
@@ -1563,10 +1635,10 @@
         <v>98</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="H3" s="38" t="s">
-        <v>123</v>
+        <v>119</v>
+      </c>
+      <c r="H3" s="39" t="s">
+        <v>122</v>
       </c>
       <c r="M3" s="37" t="s">
         <v>112</v>
@@ -1598,7 +1670,7 @@
         <v>116</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>55</v>
@@ -1627,7 +1699,7 @@
         <v>99</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="M5" s="11" t="s">
         <v>48</v>
@@ -1652,7 +1724,7 @@
         <v>100</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -1675,7 +1747,10 @@
         <v>106</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>117</v>
+        <v>41</v>
+      </c>
+      <c r="H7" s="40" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -1699,7 +1774,7 @@
         <v>115</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -1720,7 +1795,10 @@
         <v>110</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>117</v>
+        <v>41</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>125</v>
       </c>
       <c r="M9" s="36" t="s">
         <v>105</v>
@@ -1747,7 +1825,10 @@
         <v>111</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>117</v>
+        <v>41</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>41</v>
       </c>
       <c r="M10" s="9" t="s">
         <v>104</v>
@@ -1771,7 +1852,10 @@
         <v>109</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:20" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -1794,6 +1878,9 @@
       <c r="G12" s="9" t="s">
         <v>41</v>
       </c>
+      <c r="H12" s="9" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="13" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="30"/>
@@ -1813,7 +1900,10 @@
         <v>107</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -1836,6 +1926,9 @@
       <c r="G14" s="9" t="s">
         <v>41</v>
       </c>
+      <c r="H14" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="15" spans="1:20" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="34"/>
@@ -1856,6 +1949,9 @@
       </c>
       <c r="G15" s="9" t="s">
         <v>41</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
@@ -1927,7 +2023,7 @@
     </row>
     <row r="23" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>77</v>
@@ -1935,7 +2031,7 @@
     </row>
     <row r="24" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>44</v>
@@ -2108,36 +2204,46 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B20:C20 E20:XFD20 B5:E6 A12:XFD19 A9:F10 G6 M3:XFD11 A7:G8 B3:G4 A11:G11">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
+  <conditionalFormatting sqref="H10">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="130">
   <si>
     <t>week</t>
   </si>
@@ -419,12 +419,6 @@
     <t>week 7 lesson reviewed, hw finished</t>
   </si>
   <si>
-    <t>25/200</t>
-  </si>
-  <si>
-    <t>week 5,6 lessons reviewed, hw5 finished</t>
-  </si>
-  <si>
     <t xml:space="preserve">3 podcasts from growthHungry youtube channel </t>
   </si>
   <si>
@@ -438,6 +432,12 @@
   </si>
   <si>
     <t>Пока вывозим на мотивирующих словах Таалая)))</t>
+  </si>
+  <si>
+    <t>26/200</t>
+  </si>
+  <si>
+    <t>week 5,6 lessons reviewed, hw5 finished, hw6 in progress</t>
   </si>
 </sst>
 </file>
@@ -856,57 +856,7 @@
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1465,10 +1415,10 @@
   <dimension ref="A1:T63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1726,6 +1676,9 @@
       <c r="G6" s="15" t="s">
         <v>41</v>
       </c>
+      <c r="H6" s="15" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="7" spans="1:20" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
@@ -1750,7 +1703,7 @@
         <v>41</v>
       </c>
       <c r="H7" s="40" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -1774,7 +1727,7 @@
         <v>115</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -1798,7 +1751,7 @@
         <v>41</v>
       </c>
       <c r="H9" s="41" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M9" s="36" t="s">
         <v>105</v>
@@ -1855,7 +1808,7 @@
         <v>118</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:20" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -1879,7 +1832,7 @@
         <v>41</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -1903,7 +1856,7 @@
         <v>117</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -1951,7 +1904,7 @@
         <v>41</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
@@ -2204,46 +2157,51 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B20:C20 E20:XFD20 B5:E6 A12:XFD19 A9:F10 G6 M3:XFD11 A7:G8 B3:G4 A11:G11">
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
     <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
+  <conditionalFormatting sqref="H7">
     <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
+  <conditionalFormatting sqref="H10">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
+  <conditionalFormatting sqref="H6">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -422,22 +422,22 @@
     <t xml:space="preserve">3 podcasts from growthHungry youtube channel </t>
   </si>
   <si>
-    <t>Don't stop doing</t>
-  </si>
-  <si>
     <t>Almost catch-up again</t>
   </si>
   <si>
     <t>don't slow down</t>
   </si>
   <si>
-    <t>Пока вывозим на мотивирующих словах Таалая)))</t>
-  </si>
-  <si>
     <t>26/200</t>
   </si>
   <si>
-    <t>week 5,6 lessons reviewed, hw5 finished, hw6 in progress</t>
+    <t>keep going</t>
+  </si>
+  <si>
+    <t>Пока вывожу только на мотивирующих подкастах Таалая</t>
+  </si>
+  <si>
+    <t>week 5,6 lessons reviewed, hw5 finished, hw6 finished</t>
   </si>
 </sst>
 </file>
@@ -513,7 +513,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -523,12 +523,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,54 +843,14 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1418,7 +1372,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1702,7 +1656,7 @@
       <c r="G7" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="40" t="s">
+      <c r="H7" s="41" t="s">
         <v>129</v>
       </c>
     </row>
@@ -1727,7 +1681,7 @@
         <v>115</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -1750,7 +1704,7 @@
       <c r="G9" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="41" t="s">
+      <c r="H9" s="40" t="s">
         <v>123</v>
       </c>
       <c r="M9" s="36" t="s">
@@ -1808,7 +1762,7 @@
         <v>118</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:20" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -1832,7 +1786,7 @@
         <v>41</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -1856,7 +1810,7 @@
         <v>117</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -1883,7 +1837,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" s="9" customFormat="1" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="34"/>
       <c r="B15" s="35" t="s">
         <v>97</v>
@@ -1903,8 +1857,8 @@
       <c r="G15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="9" t="s">
-        <v>127</v>
+      <c r="H15" s="12" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
@@ -2157,42 +2111,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B20:C20 E20:XFD20 B5:E6 A12:XFD19 A9:F10 G6 M3:XFD11 A7:G8 B3:G4 A11:G11">
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="131">
   <si>
     <t>week</t>
   </si>
@@ -422,9 +422,6 @@
     <t xml:space="preserve">3 podcasts from growthHungry youtube channel </t>
   </si>
   <si>
-    <t>Almost catch-up again</t>
-  </si>
-  <si>
     <t>don't slow down</t>
   </si>
   <si>
@@ -438,6 +435,12 @@
   </si>
   <si>
     <t>week 5,6 lessons reviewed, hw5 finished, hw6 finished</t>
+  </si>
+  <si>
+    <t>catch-up in progress</t>
+  </si>
+  <si>
+    <t>Mindset 73%</t>
   </si>
 </sst>
 </file>
@@ -764,7 +767,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -845,12 +848,49 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1369,10 +1409,10 @@
   <dimension ref="A1:T63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1634,7 +1674,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" s="9" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>84</v>
       </c>
@@ -1656,8 +1696,8 @@
       <c r="G7" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="41" t="s">
-        <v>129</v>
+      <c r="H7" s="43" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -1680,11 +1720,11 @@
       <c r="G8" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="H8" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H8" s="41" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="30"/>
       <c r="B9" s="31" t="s">
         <v>91</v>
@@ -1704,7 +1744,7 @@
       <c r="G9" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="H9" s="42" t="s">
         <v>123</v>
       </c>
       <c r="M9" s="36" t="s">
@@ -1734,8 +1774,8 @@
       <c r="G10" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="15" t="s">
-        <v>41</v>
+      <c r="H10" s="44" t="s">
+        <v>130</v>
       </c>
       <c r="M10" s="9" t="s">
         <v>104</v>
@@ -1761,8 +1801,8 @@
       <c r="G11" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>127</v>
+      <c r="H11" s="40" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:20" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -1785,8 +1825,8 @@
       <c r="G12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>124</v>
+      <c r="H12" s="40" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -1809,8 +1849,8 @@
       <c r="G13" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="H13" s="9" t="s">
-        <v>125</v>
+      <c r="H13" s="40" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -1857,8 +1897,8 @@
       <c r="G15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="12" t="s">
-        <v>128</v>
+      <c r="H15" s="42" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
@@ -2111,51 +2151,51 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B20:C20 E20:XFD20 B5:E6 A12:XFD19 A9:F10 G6 M3:XFD11 A7:G8 B3:G4 A11:G11">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
-      <formula>"-"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="132">
   <si>
     <t>week</t>
   </si>
@@ -280,6 +280,9 @@
   </si>
   <si>
     <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
   </si>
   <si>
     <t>Reviewed 2 lessons (Intro to IT )</t>
@@ -1409,10 +1412,10 @@
   <dimension ref="A1:T63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9:H10"/>
+      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1561,10 +1564,10 @@
     </row>
     <row r="3" spans="1:20" s="15" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="29" t="s">
         <v>81</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>80</v>
       </c>
       <c r="C3" s="24" t="s">
         <v>41</v>
@@ -1576,19 +1579,19 @@
         <v>49</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H3" s="39" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M3" s="37" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q3" s="15" t="s">
         <v>57</v>
@@ -1596,10 +1599,10 @@
     </row>
     <row r="4" spans="1:20" s="9" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>41</v>
@@ -1611,7 +1614,7 @@
         <v>49</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>41</v>
@@ -1619,16 +1622,19 @@
       <c r="H4" s="9" t="s">
         <v>55</v>
       </c>
+      <c r="I4" s="9" t="s">
+        <v>79</v>
+      </c>
       <c r="M4" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>41</v>
@@ -1640,7 +1646,7 @@
         <v>56</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>41</v>
@@ -1654,18 +1660,18 @@
     </row>
     <row r="6" spans="1:20" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="31" t="s">
         <v>86</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>85</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>41</v>
@@ -1676,10 +1682,10 @@
     </row>
     <row r="7" spans="1:20" s="9" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>41</v>
@@ -1691,19 +1697,19 @@
         <v>49</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>41</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30"/>
       <c r="B8" s="31" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>41</v>
@@ -1715,19 +1721,19 @@
         <v>53</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H8" s="41" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="30"/>
       <c r="B9" s="31" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>41</v>
@@ -1736,28 +1742,28 @@
         <v>41</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>41</v>
       </c>
       <c r="H9" s="42" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M9" s="36" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30"/>
       <c r="B10" s="31" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>41</v>
@@ -1769,22 +1775,22 @@
         <v>50</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G10" s="15" t="s">
         <v>41</v>
       </c>
       <c r="H10" s="44" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="30"/>
       <c r="B11" s="31" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>41</v>
@@ -1796,19 +1802,19 @@
         <v>41</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H11" s="40" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:20" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="30"/>
       <c r="B12" s="31" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>41</v>
@@ -1820,19 +1826,19 @@
         <v>52</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>41</v>
       </c>
       <c r="H12" s="40" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="30"/>
       <c r="B13" s="31" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>41</v>
@@ -1844,19 +1850,19 @@
         <v>54</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H13" s="40" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="30"/>
       <c r="B14" s="31" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C14" s="25" t="s">
         <v>41</v>
@@ -1880,7 +1886,7 @@
     <row r="15" spans="1:20" s="9" customFormat="1" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="34"/>
       <c r="B15" s="35" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C15" s="25" t="s">
         <v>2</v>
@@ -1898,7 +1904,7 @@
         <v>41</v>
       </c>
       <c r="H15" s="42" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
@@ -1955,7 +1961,7 @@
         <v>47</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1970,7 +1976,7 @@
     </row>
     <row r="23" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>77</v>
@@ -1978,7 +1984,7 @@
     </row>
     <row r="24" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>44</v>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -209,9 +209,6 @@
     <t>Mindset</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>week 3 lesson attended, previsous videos reviewed</t>
   </si>
   <si>
@@ -444,6 +441,9 @@
   </si>
   <si>
     <t>Mindset 73%</t>
+  </si>
+  <si>
+    <t>week 6 lesson reviewed</t>
   </si>
 </sst>
 </file>
@@ -1415,7 +1415,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1564,10 +1564,10 @@
     </row>
     <row r="3" spans="1:20" s="15" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="24" t="s">
         <v>41</v>
@@ -1579,30 +1579,30 @@
         <v>49</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H3" s="39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M3" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="N3" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="N3" s="15" t="s">
-        <v>114</v>
-      </c>
       <c r="Q3" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="9" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>41</v>
@@ -1614,27 +1614,27 @@
         <v>49</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>41</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>41</v>
@@ -1643,10 +1643,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>41</v>
@@ -1655,23 +1655,23 @@
         <v>48</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>41</v>
@@ -1682,10 +1682,10 @@
     </row>
     <row r="7" spans="1:20" s="9" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>41</v>
@@ -1697,19 +1697,19 @@
         <v>49</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>41</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30"/>
       <c r="B8" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>41</v>
@@ -1721,19 +1721,19 @@
         <v>53</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H8" s="41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="30"/>
       <c r="B9" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>41</v>
@@ -1742,28 +1742,28 @@
         <v>41</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>41</v>
       </c>
       <c r="H9" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M9" s="36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30"/>
       <c r="B10" s="31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>41</v>
@@ -1775,22 +1775,22 @@
         <v>50</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G10" s="15" t="s">
         <v>41</v>
       </c>
       <c r="H10" s="44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="30"/>
       <c r="B11" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>41</v>
@@ -1802,19 +1802,19 @@
         <v>41</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H11" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:20" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="30"/>
       <c r="B12" s="31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>41</v>
@@ -1826,19 +1826,19 @@
         <v>52</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>41</v>
       </c>
       <c r="H12" s="40" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="30"/>
       <c r="B13" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>41</v>
@@ -1850,19 +1850,19 @@
         <v>54</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H13" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="30"/>
       <c r="B14" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C14" s="25" t="s">
         <v>41</v>
@@ -1886,7 +1886,7 @@
     <row r="15" spans="1:20" s="9" customFormat="1" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="34"/>
       <c r="B15" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C15" s="25" t="s">
         <v>2</v>
@@ -1904,7 +1904,7 @@
         <v>41</v>
       </c>
       <c r="H15" s="42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
@@ -1913,7 +1913,7 @@
         <v>41</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1935,7 +1935,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>41</v>
@@ -1961,30 +1961,30 @@
         <v>47</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C21" s="2"/>
       <c r="D21" s="3"/>
       <c r="F21" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>44</v>
@@ -2230,79 +2230,79 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" t="s">
         <v>58</v>
-      </c>
-      <c r="E1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="T2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E8" s="8"/>
       <c r="H8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="H10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="H11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -1415,7 +1415,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="133">
   <si>
     <t>week</t>
   </si>
@@ -209,6 +209,9 @@
     <t>Mindset</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>week 3 lesson attended, previsous videos reviewed</t>
   </si>
   <si>
@@ -450,7 +453,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,17 +512,8 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -529,6 +523,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,11 +766,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -788,7 +787,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -839,10 +837,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -858,12 +852,54 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1415,196 +1451,199 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="35.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="34.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="39.109375" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="35.88671875" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="34.21875" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" style="1" hidden="1" customWidth="1"/>
     <col min="8" max="11" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="19" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17"/>
-      <c r="B1" s="26" t="s">
+    <row r="1" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16"/>
+      <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22">
+      <c r="C1" s="21">
         <v>1</v>
       </c>
-      <c r="D1" s="18">
+      <c r="D1" s="17">
         <v>2</v>
       </c>
-      <c r="E1" s="18">
+      <c r="E1" s="17">
         <v>3</v>
       </c>
-      <c r="F1" s="18">
+      <c r="F1" s="17">
         <v>4</v>
       </c>
-      <c r="G1" s="18">
+      <c r="G1" s="17">
         <v>5</v>
       </c>
-      <c r="H1" s="18">
+      <c r="H1" s="17">
         <v>6</v>
       </c>
-      <c r="I1" s="18">
+      <c r="I1" s="17">
         <v>7</v>
       </c>
-      <c r="J1" s="18">
+      <c r="J1" s="17">
         <v>8</v>
       </c>
-      <c r="K1" s="18">
+      <c r="K1" s="17">
         <v>9</v>
       </c>
-      <c r="L1" s="18">
+      <c r="L1" s="17">
         <v>10</v>
       </c>
-      <c r="M1" s="18">
+      <c r="M1" s="17">
         <v>11</v>
       </c>
-      <c r="N1" s="18">
+      <c r="N1" s="17">
         <v>12</v>
       </c>
-      <c r="O1" s="18">
+      <c r="O1" s="17">
         <v>13</v>
       </c>
-      <c r="P1" s="18">
+      <c r="P1" s="17">
         <v>14</v>
       </c>
-      <c r="Q1" s="18">
+      <c r="Q1" s="17">
         <v>15</v>
       </c>
-      <c r="R1" s="18">
+      <c r="R1" s="17">
         <v>16</v>
       </c>
-      <c r="S1" s="18">
+      <c r="S1" s="17">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="23" t="str">
+    <row r="2" spans="1:20" s="20" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="18"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="22" t="str">
         <f>CONCATENATE(TEXT(45929+(C$1-1)*7,"МММ.ДД")," - ",TEXT(45929+(C$1-1)*7+6,"МММ.ДД"))</f>
         <v>сент.29 - окт.05</v>
       </c>
-      <c r="D2" s="20" t="str">
+      <c r="D2" s="19" t="str">
         <f>CONCATENATE(TEXT(45929+(D$1-1)*7,"МММ.ДД")," - ",TEXT(45929+(D$1-1)*7+6,"МММ.ДД"))</f>
         <v>окт.06 - окт.12</v>
       </c>
-      <c r="E2" s="20" t="str">
+      <c r="E2" s="19" t="str">
         <f t="shared" ref="E2:S2" si="0">CONCATENATE(TEXT(45929+(E$1-1)*7,"МММ.ДД")," - ",TEXT(45929+(E$1-1)*7+6,"МММ.ДД"))</f>
         <v>окт.13 - окт.19</v>
       </c>
-      <c r="F2" s="20" t="str">
+      <c r="F2" s="19" t="str">
         <f t="shared" si="0"/>
         <v>окт.20 - окт.26</v>
       </c>
-      <c r="G2" s="20" t="str">
+      <c r="G2" s="19" t="str">
         <f t="shared" si="0"/>
         <v>окт.27 - нояб.02</v>
       </c>
-      <c r="H2" s="20" t="str">
+      <c r="H2" s="19" t="str">
         <f t="shared" si="0"/>
         <v>нояб.03 - нояб.09</v>
       </c>
-      <c r="I2" s="20" t="str">
+      <c r="I2" s="19" t="str">
         <f t="shared" si="0"/>
         <v>нояб.10 - нояб.16</v>
       </c>
-      <c r="J2" s="20" t="str">
+      <c r="J2" s="19" t="str">
         <f t="shared" si="0"/>
         <v>нояб.17 - нояб.23</v>
       </c>
-      <c r="K2" s="20" t="str">
+      <c r="K2" s="19" t="str">
         <f t="shared" si="0"/>
         <v>нояб.24 - нояб.30</v>
       </c>
-      <c r="L2" s="20" t="str">
+      <c r="L2" s="19" t="str">
         <f t="shared" si="0"/>
         <v>дек.01 - дек.07</v>
       </c>
-      <c r="M2" s="20" t="str">
+      <c r="M2" s="19" t="str">
         <f t="shared" si="0"/>
         <v>дек.08 - дек.14</v>
       </c>
-      <c r="N2" s="20" t="str">
+      <c r="N2" s="19" t="str">
         <f t="shared" si="0"/>
         <v>дек.15 - дек.21</v>
       </c>
-      <c r="O2" s="20" t="str">
+      <c r="O2" s="19" t="str">
         <f t="shared" si="0"/>
         <v>дек.22 - дек.28</v>
       </c>
-      <c r="P2" s="20" t="str">
+      <c r="P2" s="19" t="str">
         <f t="shared" si="0"/>
         <v>дек.29 - янв.04</v>
       </c>
-      <c r="Q2" s="20" t="str">
+      <c r="Q2" s="19" t="str">
         <f t="shared" si="0"/>
         <v>янв.05 - янв.11</v>
       </c>
-      <c r="R2" s="20" t="str">
+      <c r="R2" s="19" t="str">
         <f t="shared" si="0"/>
         <v>янв.12 - янв.18</v>
       </c>
-      <c r="S2" s="20" t="str">
+      <c r="S2" s="19" t="str">
         <f t="shared" si="0"/>
         <v>янв.19 - янв.25</v>
       </c>
-      <c r="T2" s="20"/>
-    </row>
-    <row r="3" spans="1:20" s="15" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="T2" s="19"/>
+    </row>
+    <row r="3" spans="1:20" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="16" t="s">
+      <c r="C3" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="H3" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="M3" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="N3" s="15" t="s">
+      <c r="F3" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="Q3" s="15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" s="9" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="25" t="s">
+      <c r="N3" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q3" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="10" t="s">
@@ -1614,80 +1653,109 @@
         <v>49</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>114</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
     </row>
     <row r="5" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="25" t="s">
+      <c r="A5" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="M5" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="Q5" s="9" t="s">
-        <v>77</v>
-      </c>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="R5" s="14"/>
     </row>
     <row r="6" spans="1:20" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="25"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>41</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
     </row>
     <row r="7" spans="1:20" s="9" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="25" t="s">
+      <c r="A7" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="10" t="s">
@@ -1697,21 +1765,31 @@
         <v>49</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="43" t="s">
-        <v>128</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
     </row>
     <row r="8" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
-      <c r="B8" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="25" t="s">
+      <c r="A8" s="29"/>
+      <c r="B8" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="24" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="10" t="s">
@@ -1721,78 +1799,105 @@
         <v>53</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="H8" s="41" t="s">
-        <v>125</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
     </row>
     <row r="9" spans="1:20" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
-      <c r="B9" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="25" t="s">
+      <c r="A9" s="29"/>
+      <c r="B9" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="24" t="s">
         <v>41</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>41</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="M9" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+    </row>
+    <row r="10" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="29"/>
+      <c r="B10" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="O9" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
-      <c r="B10" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
     </row>
     <row r="11" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
-      <c r="B11" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="25" t="s">
+      <c r="A11" s="29"/>
+      <c r="B11" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="24" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="10" t="s">
@@ -1802,45 +1907,65 @@
         <v>41</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="H11" s="40" t="s">
-        <v>126</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
     </row>
     <row r="12" spans="1:20" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
-      <c r="B12" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="14" t="s">
+      <c r="A12" s="29"/>
+      <c r="B12" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>43</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>108</v>
+      <c r="F12" s="11" t="s">
+        <v>109</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="40" t="s">
-        <v>129</v>
-      </c>
+      <c r="H12" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
     </row>
     <row r="13" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
-      <c r="B13" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="25" t="s">
+      <c r="A13" s="29"/>
+      <c r="B13" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="24" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="10" t="s">
@@ -1850,21 +1975,31 @@
         <v>54</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="H13" s="40" t="s">
-        <v>124</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
     </row>
     <row r="14" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
-      <c r="B14" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="C14" s="25" t="s">
+      <c r="A14" s="29"/>
+      <c r="B14" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="24" t="s">
         <v>41</v>
       </c>
       <c r="D14" s="10" t="s">
@@ -1882,13 +2017,23 @@
       <c r="H14" s="9" t="s">
         <v>41</v>
       </c>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
     </row>
     <row r="15" spans="1:20" s="9" customFormat="1" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="34"/>
-      <c r="B15" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="25" t="s">
+      <c r="A15" s="33"/>
+      <c r="B15" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="24" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="10" t="s">
@@ -1903,9 +2048,19 @@
       <c r="G15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="42" t="s">
-        <v>127</v>
-      </c>
+      <c r="H15" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B16" s="5"/>
@@ -1913,7 +2068,7 @@
         <v>41</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1935,7 +2090,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>41</v>
@@ -1961,30 +2116,30 @@
         <v>47</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C21" s="2"/>
       <c r="D21" s="3"/>
       <c r="F21" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>44</v>
@@ -2156,52 +2311,62 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B20:C20 E20:XFD20 B5:E6 A12:XFD19 A9:F10 G6 M3:XFD11 A7:G8 B3:G4 A11:G11">
-    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
+  <conditionalFormatting sqref="B20:C20 E20:XFD20 B5:E6 A16:XFD19 A9:F10 G6 A7:G8 B3:G4 A11:G11 A12:H15 S3:XFD15">
+    <cfRule type="cellIs" dxfId="18" priority="13" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="12" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="11" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:R15">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
@@ -2230,79 +2395,79 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B1" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" t="s">
         <v>59</v>
-      </c>
-      <c r="F1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="T2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E8" s="8"/>
       <c r="H8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="H10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="H11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -282,9 +282,6 @@
     <t xml:space="preserve">   </t>
   </si>
   <si>
-    <t xml:space="preserve">    </t>
-  </si>
-  <si>
     <t>Reviewed 2 lessons (Intro to IT )</t>
   </si>
   <si>
@@ -447,6 +444,9 @@
   </si>
   <si>
     <t>week 6 lesson reviewed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      </t>
   </si>
 </sst>
 </file>
@@ -1451,7 +1451,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1600,10 +1600,10 @@
     </row>
     <row r="3" spans="1:20" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>41</v>
@@ -1615,22 +1615,22 @@
         <v>49</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>55</v>
       </c>
       <c r="M3" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="N3" s="14" t="s">
         <v>113</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>114</v>
       </c>
       <c r="Q3" s="14" t="s">
         <v>57</v>
@@ -1638,10 +1638,10 @@
     </row>
     <row r="4" spans="1:20" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>41</v>
@@ -1653,22 +1653,22 @@
         <v>49</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>41</v>
       </c>
       <c r="H4" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I4" s="14" t="s">
         <v>132</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>79</v>
       </c>
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
       <c r="M4" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N4" s="14"/>
       <c r="O4" s="14"/>
@@ -1678,10 +1678,10 @@
     </row>
     <row r="5" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" s="24" t="s">
         <v>41</v>
@@ -1693,7 +1693,7 @@
         <v>56</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>41</v>
@@ -1718,18 +1718,18 @@
     </row>
     <row r="6" spans="1:20" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6" s="24"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>41</v>
@@ -1750,10 +1750,10 @@
     </row>
     <row r="7" spans="1:20" s="9" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" s="24" t="s">
         <v>41</v>
@@ -1765,13 +1765,13 @@
         <v>49</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>41</v>
       </c>
       <c r="H7" s="40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
@@ -1787,7 +1787,7 @@
     <row r="8" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="29"/>
       <c r="B8" s="30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="24" t="s">
         <v>41</v>
@@ -1799,13 +1799,13 @@
         <v>53</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
@@ -1821,7 +1821,7 @@
     <row r="9" spans="1:20" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="29"/>
       <c r="B9" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>41</v>
@@ -1830,27 +1830,27 @@
         <v>41</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>41</v>
       </c>
       <c r="H9" s="39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
       <c r="M9" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N9" s="14"/>
       <c r="O9" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P9" s="14"/>
       <c r="Q9" s="14"/>
@@ -1859,7 +1859,7 @@
     <row r="10" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29"/>
       <c r="B10" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>41</v>
@@ -1871,20 +1871,20 @@
         <v>50</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>41</v>
       </c>
       <c r="H10" s="41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
       <c r="M10" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N10" s="14"/>
       <c r="O10" s="14"/>
@@ -1895,7 +1895,7 @@
     <row r="11" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="29"/>
       <c r="B11" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>41</v>
@@ -1907,13 +1907,13 @@
         <v>41</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H11" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
@@ -1929,7 +1929,7 @@
     <row r="12" spans="1:20" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="29"/>
       <c r="B12" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C12" s="24" t="s">
         <v>41</v>
@@ -1941,13 +1941,13 @@
         <v>52</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>41</v>
       </c>
       <c r="H12" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -1963,7 +1963,7 @@
     <row r="13" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29"/>
       <c r="B13" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>41</v>
@@ -1975,13 +1975,13 @@
         <v>54</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H13" s="37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
@@ -1997,7 +1997,7 @@
     <row r="14" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="29"/>
       <c r="B14" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C14" s="24" t="s">
         <v>41</v>
@@ -2031,7 +2031,7 @@
     <row r="15" spans="1:20" s="9" customFormat="1" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="33"/>
       <c r="B15" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C15" s="24" t="s">
         <v>2</v>
@@ -2049,7 +2049,7 @@
         <v>41</v>
       </c>
       <c r="H15" s="39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
@@ -2116,7 +2116,7 @@
         <v>47</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -2131,7 +2131,7 @@
     </row>
     <row r="23" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>77</v>
@@ -2139,7 +2139,7 @@
     </row>
     <row r="24" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>44</v>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="135">
   <si>
     <t>week</t>
   </si>
@@ -282,6 +282,9 @@
     <t xml:space="preserve">   </t>
   </si>
   <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
     <t>Reviewed 2 lessons (Intro to IT )</t>
   </si>
   <si>
@@ -447,6 +450,9 @@
   </si>
   <si>
     <t xml:space="preserve">      </t>
+  </si>
+  <si>
+    <t>\</t>
   </si>
 </sst>
 </file>
@@ -1451,7 +1457,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1600,10 +1606,10 @@
     </row>
     <row r="3" spans="1:20" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>81</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>80</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>41</v>
@@ -1615,22 +1621,22 @@
         <v>49</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>55</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q3" s="14" t="s">
         <v>57</v>
@@ -1638,10 +1644,10 @@
     </row>
     <row r="4" spans="1:20" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>41</v>
@@ -1653,22 +1659,22 @@
         <v>49</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>41</v>
       </c>
       <c r="H4" s="42" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
       <c r="M4" s="14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N4" s="14"/>
       <c r="O4" s="14"/>
@@ -1678,10 +1684,10 @@
     </row>
     <row r="5" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C5" s="24" t="s">
         <v>41</v>
@@ -1693,7 +1699,7 @@
         <v>56</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>41</v>
@@ -1701,7 +1707,9 @@
       <c r="H5" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="14"/>
+      <c r="I5" s="14" t="s">
+        <v>134</v>
+      </c>
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
@@ -1718,18 +1726,18 @@
     </row>
     <row r="6" spans="1:20" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="30" t="s">
         <v>86</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>85</v>
       </c>
       <c r="C6" s="24"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>41</v>
@@ -1737,7 +1745,9 @@
       <c r="H6" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="14"/>
+      <c r="I6" s="14" t="s">
+        <v>79</v>
+      </c>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
@@ -1750,10 +1760,10 @@
     </row>
     <row r="7" spans="1:20" s="9" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C7" s="24" t="s">
         <v>41</v>
@@ -1765,13 +1775,13 @@
         <v>49</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>41</v>
       </c>
       <c r="H7" s="40" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
@@ -1787,7 +1797,7 @@
     <row r="8" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="29"/>
       <c r="B8" s="30" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C8" s="24" t="s">
         <v>41</v>
@@ -1799,13 +1809,13 @@
         <v>53</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
@@ -1821,7 +1831,7 @@
     <row r="9" spans="1:20" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="29"/>
       <c r="B9" s="30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>41</v>
@@ -1830,27 +1840,27 @@
         <v>41</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>41</v>
       </c>
       <c r="H9" s="39" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
       <c r="M9" s="14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N9" s="14"/>
       <c r="O9" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P9" s="14"/>
       <c r="Q9" s="14"/>
@@ -1859,7 +1869,7 @@
     <row r="10" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29"/>
       <c r="B10" s="30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>41</v>
@@ -1871,20 +1881,20 @@
         <v>50</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>41</v>
       </c>
       <c r="H10" s="41" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
       <c r="M10" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N10" s="14"/>
       <c r="O10" s="14"/>
@@ -1895,7 +1905,7 @@
     <row r="11" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="29"/>
       <c r="B11" s="30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>41</v>
@@ -1907,13 +1917,13 @@
         <v>41</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H11" s="37" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
@@ -1929,7 +1939,7 @@
     <row r="12" spans="1:20" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="29"/>
       <c r="B12" s="30" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C12" s="24" t="s">
         <v>41</v>
@@ -1941,13 +1951,13 @@
         <v>52</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>41</v>
       </c>
       <c r="H12" s="37" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -1963,7 +1973,7 @@
     <row r="13" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29"/>
       <c r="B13" s="30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>41</v>
@@ -1975,13 +1985,13 @@
         <v>54</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H13" s="37" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
@@ -1997,7 +2007,7 @@
     <row r="14" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="29"/>
       <c r="B14" s="30" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C14" s="24" t="s">
         <v>41</v>
@@ -2031,7 +2041,7 @@
     <row r="15" spans="1:20" s="9" customFormat="1" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="33"/>
       <c r="B15" s="34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C15" s="24" t="s">
         <v>2</v>
@@ -2049,7 +2059,7 @@
         <v>41</v>
       </c>
       <c r="H15" s="39" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
@@ -2116,7 +2126,7 @@
         <v>47</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -2131,7 +2141,7 @@
     </row>
     <row r="23" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>77</v>
@@ -2139,7 +2149,7 @@
     </row>
     <row r="24" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>44</v>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="133">
   <si>
     <t>week</t>
   </si>
@@ -282,9 +282,6 @@
     <t xml:space="preserve">   </t>
   </si>
   <si>
-    <t xml:space="preserve">    </t>
-  </si>
-  <si>
     <t>Reviewed 2 lessons (Intro to IT )</t>
   </si>
   <si>
@@ -437,9 +434,6 @@
     <t>Пока вывожу только на мотивирующих подкастах Таалая</t>
   </si>
   <si>
-    <t>week 5,6 lessons reviewed, hw5 finished, hw6 finished</t>
-  </si>
-  <si>
     <t>catch-up in progress</t>
   </si>
   <si>
@@ -449,10 +443,10 @@
     <t>week 6 lesson reviewed</t>
   </si>
   <si>
-    <t xml:space="preserve">      </t>
-  </si>
-  <si>
-    <t>\</t>
+    <t>w7 lesson reviewed, w5 hw finished</t>
+  </si>
+  <si>
+    <t>week 5,6 lessons reviewed, w5 and w6 hw finished</t>
   </si>
 </sst>
 </file>
@@ -775,7 +769,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -791,17 +785,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -819,123 +808,66 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1451,205 +1383,194 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T63"/>
+  <dimension ref="A1:T75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="35.88671875" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="34.21875" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="11" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="19" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="38.21875" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="19" width="38.21875" style="1" customWidth="1"/>
     <col min="20" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16"/>
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11"/>
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21">
+      <c r="C1" s="16">
         <v>1</v>
       </c>
-      <c r="D1" s="17">
+      <c r="D1" s="12">
         <v>2</v>
       </c>
-      <c r="E1" s="17">
+      <c r="E1" s="12">
         <v>3</v>
       </c>
-      <c r="F1" s="17">
+      <c r="F1" s="12">
         <v>4</v>
       </c>
-      <c r="G1" s="17">
+      <c r="G1" s="12">
         <v>5</v>
       </c>
-      <c r="H1" s="17">
+      <c r="H1" s="12">
         <v>6</v>
       </c>
-      <c r="I1" s="17">
+      <c r="I1" s="12">
         <v>7</v>
       </c>
-      <c r="J1" s="17">
+      <c r="J1" s="12">
         <v>8</v>
       </c>
-      <c r="K1" s="17">
+      <c r="K1" s="12">
         <v>9</v>
       </c>
-      <c r="L1" s="17">
+      <c r="L1" s="12">
         <v>10</v>
       </c>
-      <c r="M1" s="17">
+      <c r="M1" s="12">
         <v>11</v>
       </c>
-      <c r="N1" s="17">
+      <c r="N1" s="12">
         <v>12</v>
       </c>
-      <c r="O1" s="17">
+      <c r="O1" s="12">
         <v>13</v>
       </c>
-      <c r="P1" s="17">
+      <c r="P1" s="12">
         <v>14</v>
       </c>
-      <c r="Q1" s="17">
+      <c r="Q1" s="12">
         <v>15</v>
       </c>
-      <c r="R1" s="17">
+      <c r="R1" s="12">
         <v>16</v>
       </c>
-      <c r="S1" s="17">
+      <c r="S1" s="12">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="20" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="18"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="22" t="str">
+    <row r="2" spans="1:20" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="13"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="17" t="str">
         <f>CONCATENATE(TEXT(45929+(C$1-1)*7,"МММ.ДД")," - ",TEXT(45929+(C$1-1)*7+6,"МММ.ДД"))</f>
         <v>сент.29 - окт.05</v>
       </c>
-      <c r="D2" s="19" t="str">
+      <c r="D2" s="14" t="str">
         <f>CONCATENATE(TEXT(45929+(D$1-1)*7,"МММ.ДД")," - ",TEXT(45929+(D$1-1)*7+6,"МММ.ДД"))</f>
         <v>окт.06 - окт.12</v>
       </c>
-      <c r="E2" s="19" t="str">
+      <c r="E2" s="14" t="str">
         <f t="shared" ref="E2:S2" si="0">CONCATENATE(TEXT(45929+(E$1-1)*7,"МММ.ДД")," - ",TEXT(45929+(E$1-1)*7+6,"МММ.ДД"))</f>
         <v>окт.13 - окт.19</v>
       </c>
-      <c r="F2" s="19" t="str">
+      <c r="F2" s="14" t="str">
         <f t="shared" si="0"/>
         <v>окт.20 - окт.26</v>
       </c>
-      <c r="G2" s="19" t="str">
+      <c r="G2" s="14" t="str">
         <f t="shared" si="0"/>
         <v>окт.27 - нояб.02</v>
       </c>
-      <c r="H2" s="19" t="str">
+      <c r="H2" s="14" t="str">
         <f t="shared" si="0"/>
         <v>нояб.03 - нояб.09</v>
       </c>
-      <c r="I2" s="19" t="str">
+      <c r="I2" s="14" t="str">
         <f t="shared" si="0"/>
         <v>нояб.10 - нояб.16</v>
       </c>
-      <c r="J2" s="19" t="str">
+      <c r="J2" s="14" t="str">
         <f t="shared" si="0"/>
         <v>нояб.17 - нояб.23</v>
       </c>
-      <c r="K2" s="19" t="str">
+      <c r="K2" s="14" t="str">
         <f t="shared" si="0"/>
         <v>нояб.24 - нояб.30</v>
       </c>
-      <c r="L2" s="19" t="str">
+      <c r="L2" s="14" t="str">
         <f t="shared" si="0"/>
         <v>дек.01 - дек.07</v>
       </c>
-      <c r="M2" s="19" t="str">
+      <c r="M2" s="14" t="str">
         <f t="shared" si="0"/>
         <v>дек.08 - дек.14</v>
       </c>
-      <c r="N2" s="19" t="str">
+      <c r="N2" s="14" t="str">
         <f t="shared" si="0"/>
         <v>дек.15 - дек.21</v>
       </c>
-      <c r="O2" s="19" t="str">
+      <c r="O2" s="14" t="str">
         <f t="shared" si="0"/>
         <v>дек.22 - дек.28</v>
       </c>
-      <c r="P2" s="19" t="str">
+      <c r="P2" s="14" t="str">
         <f t="shared" si="0"/>
         <v>дек.29 - янв.04</v>
       </c>
-      <c r="Q2" s="19" t="str">
+      <c r="Q2" s="14" t="str">
         <f t="shared" si="0"/>
         <v>янв.05 - янв.11</v>
       </c>
-      <c r="R2" s="19" t="str">
+      <c r="R2" s="14" t="str">
         <f t="shared" si="0"/>
         <v>янв.12 - янв.18</v>
       </c>
-      <c r="S2" s="19" t="str">
+      <c r="S2" s="14" t="str">
         <f t="shared" si="0"/>
         <v>янв.19 - янв.25</v>
       </c>
-      <c r="T2" s="19"/>
-    </row>
-    <row r="3" spans="1:20" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="T2" s="14"/>
+    </row>
+    <row r="3" spans="1:20" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q3" s="26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="H3" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q3" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="24" t="s">
+      <c r="B4" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="31" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="10" t="s">
@@ -1659,37 +1580,35 @@
         <v>49</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-    </row>
-    <row r="5" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+    </row>
+    <row r="5" spans="1:20" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="31" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="10" t="s">
@@ -1699,73 +1618,69 @@
         <v>56</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="R5" s="14"/>
+      <c r="R5" s="26"/>
     </row>
     <row r="6" spans="1:20" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" s="30" t="s">
+      <c r="A6" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="24"/>
+      <c r="B6" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="31"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-    </row>
-    <row r="7" spans="1:20" s="9" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+    </row>
+    <row r="7" spans="1:20" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="31" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="10" t="s">
@@ -1775,31 +1690,31 @@
         <v>49</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
+        <v>106</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
     </row>
     <row r="8" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="29"/>
-      <c r="B8" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" s="24" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="31" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="10" t="s">
@@ -1809,105 +1724,99 @@
         <v>53</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-    </row>
-    <row r="9" spans="1:20" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="29"/>
-      <c r="B9" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+    </row>
+    <row r="9" spans="1:20" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="20"/>
+      <c r="B9" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+    </row>
+    <row r="10" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="9" t="s">
+      <c r="C10" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-    </row>
-    <row r="10" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29"/>
-      <c r="B10" s="30" t="s">
+      <c r="G10" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+    </row>
+    <row r="11" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-    </row>
-    <row r="11" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
-      <c r="B11" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="31" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="10" t="s">
@@ -1917,65 +1826,65 @@
         <v>41</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="H11" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
+        <v>118</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
     </row>
     <row r="12" spans="1:20" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
-      <c r="B12" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="13" t="s">
+      <c r="A12" s="20"/>
+      <c r="B12" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>43</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>109</v>
+      <c r="F12" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-    </row>
-    <row r="13" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" s="24" t="s">
+      <c r="H12" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+    </row>
+    <row r="13" spans="1:20" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="20"/>
+      <c r="B13" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="31" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="10" t="s">
@@ -1985,65 +1894,65 @@
         <v>54</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="H13" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
+        <v>117</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
     </row>
     <row r="14" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29"/>
-      <c r="B14" s="30" t="s">
+      <c r="A14" s="20"/>
+      <c r="B14" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+    </row>
+    <row r="15" spans="1:20" s="9" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="35"/>
+      <c r="B15" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-    </row>
-    <row r="15" spans="1:20" s="9" customFormat="1" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="33"/>
-      <c r="B15" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="31" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="10" t="s">
@@ -2058,19 +1967,19 @@
       <c r="G15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
+      <c r="H15" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B16" s="5"/>
@@ -2126,7 +2035,7 @@
         <v>47</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -2141,7 +2050,7 @@
     </row>
     <row r="23" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>77</v>
@@ -2149,7 +2058,7 @@
     </row>
     <row r="24" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>44</v>
@@ -2320,70 +2229,133 @@
         <v>34</v>
       </c>
     </row>
+    <row r="65" spans="2:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B65" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="D65" s="26"/>
+    </row>
+    <row r="66" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B66" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C66" s="26"/>
+      <c r="D66" s="26"/>
+    </row>
+    <row r="67" spans="2:4" ht="403.2" x14ac:dyDescent="0.3">
+      <c r="B67" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C67" s="26"/>
+      <c r="D67" s="26"/>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B68" s="26"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B69" s="26"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B70" s="26"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+    </row>
+    <row r="71" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B71" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C71" s="26"/>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B72" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B73" s="26"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B74" s="26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B75" s="26" t="s">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B20:C20 E20:XFD20 B5:E6 A16:XFD19 A9:F10 G6 A7:G8 B3:G4 A11:G11 A12:H15 S3:XFD15">
-    <cfRule type="cellIs" dxfId="18" priority="13" operator="equal">
+  <conditionalFormatting sqref="B20:C20 E20:XFD20 B5:E6 A16:XFD19 A9:F10 G6 A7:G8 B3:G4 A11:G11 A12:H15 S3:XFD15 B65 D65 B66:D70 B72:D73 B71:C71 B74:B75">
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="17" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="16" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:R15">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
-      <formula>"-"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3:R15">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="M9" r:id="rId1"/>
-    <hyperlink ref="M3" r:id="rId2"/>
+    <hyperlink ref="B71" r:id="rId1"/>
+    <hyperlink ref="B65" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId3"/>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="134">
   <si>
     <t>week</t>
   </si>
@@ -447,6 +447,9 @@
   </si>
   <si>
     <t>week 5,6 lessons reviewed, w5 and w6 hw finished</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -1109,6 +1112,44 @@
         <a:xfrm>
           <a:off x="0" y="10058400"/>
           <a:ext cx="12784334" cy="7249537"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>475846</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>149428</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="17556480"/>
+          <a:ext cx="10755226" cy="6001588"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1389,7 +1430,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1698,7 +1739,9 @@
       <c r="H7" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="I7" s="26"/>
+      <c r="I7" s="26" t="s">
+        <v>133</v>
+      </c>
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
       <c r="L7" s="26"/>
@@ -1732,7 +1775,9 @@
       <c r="H8" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="I8" s="26"/>
+      <c r="I8" s="26" t="s">
+        <v>133</v>
+      </c>
       <c r="J8" s="26"/>
       <c r="K8" s="26"/>
       <c r="L8" s="26"/>
@@ -2366,8 +2411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A7"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="135">
   <si>
     <t>week</t>
   </si>
@@ -209,9 +209,6 @@
     <t>Mindset</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>week 3 lesson attended, previsous videos reviewed</t>
   </si>
   <si>
@@ -449,7 +446,13 @@
     <t>week 5,6 lessons reviewed, w5 and w6 hw finished</t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
+    <t>34/200</t>
+  </si>
+  <si>
+    <t>week 8, 9 lessons reviewed, hw finished</t>
+  </si>
+  <si>
+    <t>week 4 OH attended</t>
   </si>
 </sst>
 </file>
@@ -870,7 +873,107 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1427,10 +1530,10 @@
   <dimension ref="A1:T75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomRight" activeCell="J15" sqref="J3:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1574,10 +1677,10 @@
     </row>
     <row r="3" spans="1:20" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="30" t="s">
         <v>41</v>
@@ -1589,27 +1692,30 @@
         <v>49</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>55</v>
+        <v>41</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>133</v>
       </c>
       <c r="Q3" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C4" s="31" t="s">
         <v>41</v>
@@ -1621,16 +1727,16 @@
         <v>49</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G4" s="26" t="s">
         <v>41</v>
       </c>
       <c r="H4" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="I4" s="32" t="s">
         <v>130</v>
-      </c>
-      <c r="I4" s="32" t="s">
-        <v>131</v>
       </c>
       <c r="J4" s="26"/>
       <c r="K4" s="26"/>
@@ -1644,10 +1750,10 @@
     </row>
     <row r="5" spans="1:20" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" s="31" t="s">
         <v>41</v>
@@ -1656,10 +1762,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G5" s="26" t="s">
         <v>41</v>
@@ -1667,8 +1773,12 @@
       <c r="H5" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
+      <c r="I5" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>98</v>
+      </c>
       <c r="K5" s="26"/>
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
@@ -1676,24 +1786,24 @@
       <c r="O5" s="26"/>
       <c r="P5" s="26"/>
       <c r="Q5" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R5" s="26"/>
     </row>
     <row r="6" spans="1:20" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G6" s="26" t="s">
         <v>41</v>
@@ -1704,7 +1814,9 @@
       <c r="I6" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="26"/>
+      <c r="J6" s="9" t="s">
+        <v>134</v>
+      </c>
       <c r="K6" s="26"/>
       <c r="L6" s="26"/>
       <c r="M6" s="26"/>
@@ -1716,10 +1828,10 @@
     </row>
     <row r="7" spans="1:20" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" s="31" t="s">
         <v>41</v>
@@ -1731,16 +1843,16 @@
         <v>49</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G7" s="26" t="s">
         <v>41</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I7" s="26" t="s">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
@@ -1755,7 +1867,7 @@
     <row r="8" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20"/>
       <c r="B8" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" s="31" t="s">
         <v>41</v>
@@ -1767,16 +1879,16 @@
         <v>53</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="I8" s="26" t="s">
-        <v>133</v>
+        <v>124</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>132</v>
       </c>
       <c r="J8" s="26"/>
       <c r="K8" s="26"/>
@@ -1791,7 +1903,7 @@
     <row r="9" spans="1:20" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="20"/>
       <c r="B9" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" s="31" t="s">
         <v>41</v>
@@ -1800,18 +1912,20 @@
         <v>41</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G9" s="26" t="s">
         <v>41</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="I9" s="26"/>
+        <v>122</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>41</v>
+      </c>
       <c r="J9" s="26"/>
       <c r="K9" s="26"/>
       <c r="L9" s="26"/>
@@ -1825,7 +1939,7 @@
     <row r="10" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20"/>
       <c r="B10" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="31" t="s">
         <v>41</v>
@@ -1837,15 +1951,17 @@
         <v>50</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G10" s="26" t="s">
         <v>41</v>
       </c>
       <c r="H10" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="I10" s="26"/>
+        <v>128</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>41</v>
+      </c>
       <c r="J10" s="26"/>
       <c r="K10" s="26"/>
       <c r="L10" s="26"/>
@@ -1859,7 +1975,7 @@
     <row r="11" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20"/>
       <c r="B11" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11" s="31" t="s">
         <v>41</v>
@@ -1871,15 +1987,17 @@
         <v>41</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="I11" s="26"/>
+        <v>125</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>41</v>
+      </c>
       <c r="J11" s="26"/>
       <c r="K11" s="26"/>
       <c r="L11" s="26"/>
@@ -1893,7 +2011,7 @@
     <row r="12" spans="1:20" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="20"/>
       <c r="B12" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C12" s="31" t="s">
         <v>41</v>
@@ -1905,15 +2023,17 @@
         <v>52</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>41</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="I12" s="26"/>
+        <v>127</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>41</v>
+      </c>
       <c r="J12" s="26"/>
       <c r="K12" s="26"/>
       <c r="L12" s="26"/>
@@ -1927,7 +2047,7 @@
     <row r="13" spans="1:20" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="20"/>
       <c r="B13" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" s="31" t="s">
         <v>41</v>
@@ -1939,15 +2059,17 @@
         <v>54</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="I13" s="26"/>
+        <v>123</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>41</v>
+      </c>
       <c r="J13" s="26"/>
       <c r="K13" s="26"/>
       <c r="L13" s="26"/>
@@ -1961,7 +2083,7 @@
     <row r="14" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20"/>
       <c r="B14" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C14" s="31" t="s">
         <v>41</v>
@@ -1981,7 +2103,9 @@
       <c r="H14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="26"/>
+      <c r="I14" s="26" t="s">
+        <v>41</v>
+      </c>
       <c r="J14" s="26"/>
       <c r="K14" s="26"/>
       <c r="L14" s="26"/>
@@ -1995,7 +2119,7 @@
     <row r="15" spans="1:20" s="9" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="35"/>
       <c r="B15" s="36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C15" s="31" t="s">
         <v>2</v>
@@ -2013,9 +2137,11 @@
         <v>41</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="I15" s="26"/>
+        <v>126</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>41</v>
+      </c>
       <c r="J15" s="26"/>
       <c r="K15" s="26"/>
       <c r="L15" s="26"/>
@@ -2032,7 +2158,7 @@
         <v>41</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -2054,7 +2180,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>41</v>
@@ -2080,30 +2206,30 @@
         <v>47</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C21" s="2"/>
       <c r="D21" s="3"/>
       <c r="F21" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>44</v>
@@ -2276,13 +2402,13 @@
     </row>
     <row r="65" spans="2:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B65" s="26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D65" s="26"/>
     </row>
     <row r="66" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B66" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C66" s="26"/>
       <c r="D66" s="26"/>
@@ -2311,13 +2437,13 @@
     </row>
     <row r="71" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B71" s="26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C71" s="26"/>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B72" s="26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C72" s="26"/>
       <c r="D72" s="26"/>
@@ -2329,72 +2455,87 @@
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B74" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="75" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B75" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B20:C20 E20:XFD20 B5:E6 A16:XFD19 A9:F10 G6 A7:G8 B3:G4 A11:G11 A12:H15 S3:XFD15 B65 D65 B66:D70 B72:D73 B71:C71 B74:B75">
-    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="18" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:R15">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+  <conditionalFormatting sqref="I4:R4 I9:R15 J8:R8 I3 L3:R3 I7:R7 I5:I6 K5:R6">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2422,79 +2563,79 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" t="s">
         <v>58</v>
-      </c>
-      <c r="E1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="T2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E8" s="8"/>
       <c r="H8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="H10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="H11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="144">
   <si>
     <t>week</t>
   </si>
@@ -398,6 +398,9 @@
     <t>week 4, 5  lessons reviewed, w4 hw finished</t>
   </si>
   <si>
+    <t>no progress</t>
+  </si>
+  <si>
     <t>time management</t>
   </si>
   <si>
@@ -446,13 +449,37 @@
     <t>week 5,6 lessons reviewed, w5 and w6 hw finished</t>
   </si>
   <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
     <t>34/200</t>
   </si>
   <si>
     <t>week 8, 9 lessons reviewed, hw finished</t>
   </si>
   <si>
-    <t>week 4 OH attended</t>
+    <t>thinking fast and slow</t>
+  </si>
+  <si>
+    <t>к чтению книга</t>
+  </si>
+  <si>
+    <t>week 6, 7, 8 lessons reviewed, hw finished</t>
+  </si>
+  <si>
+    <t>40/200</t>
+  </si>
+  <si>
+    <t>attended 1 lesson</t>
+  </si>
+  <si>
+    <t>focused on Python and CS</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>week 9 lesson reviewed</t>
   </si>
 </sst>
 </file>
@@ -873,47 +900,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1261,6 +1248,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>36529</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>141270</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="23957280"/>
+          <a:ext cx="2391109" cy="2152950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1530,18 +1555,18 @@
   <dimension ref="A1:T75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J15" sqref="J3:J15"/>
+      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="38.21875" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="19" width="38.21875" style="1" customWidth="1"/>
+    <col min="3" max="9" width="38.21875" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="19" width="38.21875" style="1" customWidth="1"/>
     <col min="20" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -1695,16 +1720,19 @@
         <v>97</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I3" s="26" t="s">
         <v>41</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>133</v>
+        <v>135</v>
+      </c>
+      <c r="K3" s="26" t="s">
+        <v>41</v>
       </c>
       <c r="Q3" s="26" t="s">
         <v>56</v>
@@ -1733,13 +1761,17 @@
         <v>41</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
+        <v>131</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="K4" s="26" t="s">
+        <v>143</v>
+      </c>
       <c r="L4" s="26"/>
       <c r="M4" s="26"/>
       <c r="N4" s="26"/>
@@ -1777,9 +1809,11 @@
         <v>41</v>
       </c>
       <c r="J5" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="K5" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="K5" s="26"/>
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
       <c r="N5" s="26"/>
@@ -1815,9 +1849,8 @@
         <v>41</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="K6" s="26"/>
+        <v>140</v>
+      </c>
       <c r="L6" s="26"/>
       <c r="M6" s="26"/>
       <c r="N6" s="26"/>
@@ -1849,13 +1882,17 @@
         <v>41</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I7" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
+      <c r="J7" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>116</v>
+      </c>
       <c r="L7" s="26"/>
       <c r="M7" s="26"/>
       <c r="N7" s="26"/>
@@ -1885,12 +1922,14 @@
         <v>114</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="J8" s="26"/>
+        <v>134</v>
+      </c>
+      <c r="J8" s="25" t="s">
+        <v>139</v>
+      </c>
       <c r="K8" s="26"/>
       <c r="L8" s="26"/>
       <c r="M8" s="26"/>
@@ -1921,13 +1960,17 @@
         <v>41</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I9" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
+      <c r="J9" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="K9" s="26" t="s">
+        <v>133</v>
+      </c>
       <c r="L9" s="26"/>
       <c r="M9" s="26"/>
       <c r="N9" s="26"/>
@@ -1957,12 +2000,14 @@
         <v>41</v>
       </c>
       <c r="H10" s="34" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I10" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="26"/>
+      <c r="J10" s="26" t="s">
+        <v>116</v>
+      </c>
       <c r="K10" s="26"/>
       <c r="L10" s="26"/>
       <c r="M10" s="26"/>
@@ -1990,15 +2035,17 @@
         <v>108</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I11" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="J11" s="26"/>
+      <c r="J11" s="26" t="s">
+        <v>141</v>
+      </c>
       <c r="K11" s="26"/>
       <c r="L11" s="26"/>
       <c r="M11" s="26"/>
@@ -2029,12 +2076,14 @@
         <v>41</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I12" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="26"/>
+      <c r="J12" s="26" t="s">
+        <v>41</v>
+      </c>
       <c r="K12" s="26"/>
       <c r="L12" s="26"/>
       <c r="M12" s="26"/>
@@ -2062,15 +2111,17 @@
         <v>106</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I13" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="26"/>
+      <c r="J13" s="26" t="s">
+        <v>142</v>
+      </c>
       <c r="K13" s="26"/>
       <c r="L13" s="26"/>
       <c r="M13" s="26"/>
@@ -2106,7 +2157,9 @@
       <c r="I14" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="J14" s="26"/>
+      <c r="J14" s="26" t="s">
+        <v>41</v>
+      </c>
       <c r="K14" s="26"/>
       <c r="L14" s="26"/>
       <c r="M14" s="26"/>
@@ -2137,12 +2190,14 @@
         <v>41</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I15" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="J15" s="26"/>
+      <c r="J15" s="26" t="s">
+        <v>41</v>
+      </c>
       <c r="K15" s="26"/>
       <c r="L15" s="26"/>
       <c r="M15" s="26"/>
@@ -2221,7 +2276,7 @@
     </row>
     <row r="23" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>76</v>
@@ -2229,7 +2284,7 @@
     </row>
     <row r="24" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>44</v>
@@ -2465,77 +2520,82 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B20:C20 E20:XFD20 B5:E6 A16:XFD19 A9:F10 G6 A7:G8 B3:G4 A11:G11 A12:H15 S3:XFD15 B65 D65 B66:D70 B72:D73 B71:C71 B74:B75">
-    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="20" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4:R4 I9:R15 J8:R8 I3 L3:R3 I7:R7 I5:I6 K5:R6">
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+  <conditionalFormatting sqref="I4:R4 K8:R8 I3 L3:R3 I5:I6 L5:R6 I9:R15 I7:R7">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2550,10 +2610,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T133"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97"/>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="E134" sqref="E134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2638,6 +2698,16 @@
         <v>67</v>
       </c>
     </row>
+    <row r="132" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E132" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="133" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E133" t="s">
+        <v>137</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="150">
   <si>
     <t>week</t>
   </si>
@@ -480,6 +480,24 @@
   </si>
   <si>
     <t>week 9 lesson reviewed</t>
+  </si>
+  <si>
+    <t>stopped at 9th week</t>
+  </si>
+  <si>
+    <t>52/200</t>
+  </si>
+  <si>
+    <t>stopped at 7th week</t>
+  </si>
+  <si>
+    <t>Started - The Laws of the Winners</t>
+  </si>
+  <si>
+    <t>stopped at 4th week</t>
+  </si>
+  <si>
+    <t>week 10 hw finished</t>
   </si>
 </sst>
 </file>
@@ -900,7 +918,57 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="23">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1558,15 +1626,15 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="38.21875" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="19" width="38.21875" style="1" customWidth="1"/>
+    <col min="3" max="11" width="38.21875" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="19" width="38.21875" style="1" customWidth="1"/>
     <col min="20" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -1734,6 +1802,9 @@
       <c r="K3" s="26" t="s">
         <v>41</v>
       </c>
+      <c r="L3" s="26" t="s">
+        <v>149</v>
+      </c>
       <c r="Q3" s="26" t="s">
         <v>56</v>
       </c>
@@ -1772,7 +1843,9 @@
       <c r="K4" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="L4" s="26"/>
+      <c r="L4" s="26" t="s">
+        <v>144</v>
+      </c>
       <c r="M4" s="26"/>
       <c r="N4" s="26"/>
       <c r="O4" s="26"/>
@@ -1814,7 +1887,9 @@
       <c r="K5" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="L5" s="26"/>
+      <c r="L5" s="26" t="s">
+        <v>148</v>
+      </c>
       <c r="M5" s="26"/>
       <c r="N5" s="26"/>
       <c r="O5" s="26"/>
@@ -1851,7 +1926,9 @@
       <c r="J6" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="L6" s="26"/>
+      <c r="L6" s="26" t="s">
+        <v>116</v>
+      </c>
       <c r="M6" s="26"/>
       <c r="N6" s="26"/>
       <c r="O6" s="26"/>
@@ -1893,7 +1970,9 @@
       <c r="K7" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="L7" s="26"/>
+      <c r="L7" s="26" t="s">
+        <v>146</v>
+      </c>
       <c r="M7" s="26"/>
       <c r="N7" s="26"/>
       <c r="O7" s="26"/>
@@ -1931,7 +2010,9 @@
         <v>139</v>
       </c>
       <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
+      <c r="L8" s="25" t="s">
+        <v>145</v>
+      </c>
       <c r="M8" s="26"/>
       <c r="N8" s="26"/>
       <c r="O8" s="26"/>
@@ -1971,7 +2052,9 @@
       <c r="K9" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="L9" s="26"/>
+      <c r="L9" s="26" t="s">
+        <v>116</v>
+      </c>
       <c r="M9" s="26"/>
       <c r="N9" s="26"/>
       <c r="O9" s="26"/>
@@ -2009,7 +2092,9 @@
         <v>116</v>
       </c>
       <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
+      <c r="L10" s="26" t="s">
+        <v>147</v>
+      </c>
       <c r="M10" s="26"/>
       <c r="N10" s="26"/>
       <c r="O10" s="26"/>
@@ -2047,7 +2132,9 @@
         <v>141</v>
       </c>
       <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
+      <c r="L11" s="26" t="s">
+        <v>41</v>
+      </c>
       <c r="M11" s="26"/>
       <c r="N11" s="26"/>
       <c r="O11" s="26"/>
@@ -2085,7 +2172,9 @@
         <v>41</v>
       </c>
       <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
+      <c r="L12" s="24" t="s">
+        <v>128</v>
+      </c>
       <c r="M12" s="26"/>
       <c r="N12" s="26"/>
       <c r="O12" s="26"/>
@@ -2123,7 +2212,9 @@
         <v>142</v>
       </c>
       <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
+      <c r="L13" s="26" t="s">
+        <v>41</v>
+      </c>
       <c r="M13" s="26"/>
       <c r="N13" s="26"/>
       <c r="O13" s="26"/>
@@ -2161,7 +2252,9 @@
         <v>41</v>
       </c>
       <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
+      <c r="L14" s="26" t="s">
+        <v>41</v>
+      </c>
       <c r="M14" s="26"/>
       <c r="N14" s="26"/>
       <c r="O14" s="26"/>
@@ -2199,7 +2292,9 @@
         <v>41</v>
       </c>
       <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
+      <c r="L15" s="26" t="s">
+        <v>41</v>
+      </c>
       <c r="M15" s="26"/>
       <c r="N15" s="26"/>
       <c r="O15" s="26"/>
@@ -2520,82 +2615,92 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B20:C20 E20:XFD20 B5:E6 A16:XFD19 A9:F10 G6 A7:G8 B3:G4 A11:G11 A12:H15 S3:XFD15 B65 D65 B66:D70 B72:D73 B71:C71 B74:B75">
-    <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4:R4 K8:R8 I3 L3:R3 I5:I6 L5:R6 I9:R15 I7:R7">
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+  <conditionalFormatting sqref="K8 I3 L3:R3 I5:I6 I9:R11 I7:R7 I4:R4 M8:R8 L5:R6 I13:R15 I12:K12 M12:R12">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L12">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2612,7 +2717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T133"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="E134" sqref="E134"/>
     </sheetView>
   </sheetViews>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="152">
   <si>
     <t>week</t>
   </si>
@@ -498,6 +498,12 @@
   </si>
   <si>
     <t>week 10 hw finished</t>
+  </si>
+  <si>
+    <t>all lessons and hw finished</t>
+  </si>
+  <si>
+    <t>Deleted youtube and instagram, turned on sleep mode</t>
   </si>
 </sst>
 </file>
@@ -820,7 +826,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -914,61 +920,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1623,7 +1582,7 @@
   <dimension ref="A1:T75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
@@ -1633,8 +1592,7 @@
   <cols>
     <col min="1" max="1" width="10.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="38.21875" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="19" width="38.21875" style="1" customWidth="1"/>
+    <col min="3" max="19" width="38.21875" style="1" customWidth="1"/>
     <col min="20" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -1805,6 +1763,9 @@
       <c r="L3" s="26" t="s">
         <v>149</v>
       </c>
+      <c r="M3" s="37" t="s">
+        <v>150</v>
+      </c>
       <c r="Q3" s="26" t="s">
         <v>56</v>
       </c>
@@ -2175,7 +2136,9 @@
       <c r="L12" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="M12" s="26"/>
+      <c r="M12" s="26" t="s">
+        <v>151</v>
+      </c>
       <c r="N12" s="26"/>
       <c r="O12" s="26"/>
       <c r="P12" s="26"/>
@@ -2615,92 +2578,92 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B20:C20 E20:XFD20 B5:E6 A16:XFD19 A9:F10 G6 A7:G8 B3:G4 A11:G11 A12:H15 S3:XFD15 B65 D65 B66:D70 B72:D73 B71:C71 B74:B75">
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="22" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="21" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="20" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="19" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="18" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="17" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="16" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="15" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8 I3 L3:R3 I5:I6 I9:R11 I7:R7 I4:R4 M8:R8 L5:R6 I13:R15 I12:K12 M12:R12">
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="12" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="11" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2717,7 +2680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T133"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="E134" sqref="E134"/>
     </sheetView>
   </sheetViews>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -503,7 +503,7 @@
     <t>all lessons and hw finished</t>
   </si>
   <si>
-    <t>Deleted youtube and instagram, turned on sleep mode</t>
+    <t>Deleted youtube and instagram, turned on grey mode</t>
   </si>
 </sst>
 </file>
@@ -927,7 +927,37 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1582,17 +1612,19 @@
   <dimension ref="A1:T75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
+      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="19" width="38.21875" style="1" customWidth="1"/>
+    <col min="3" max="12" width="38.21875" style="1" customWidth="1"/>
+    <col min="13" max="15" width="38.21875" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="19" width="38.21875" style="1" customWidth="1"/>
     <col min="20" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -1763,7 +1795,7 @@
       <c r="L3" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="P3" s="37" t="s">
         <v>150</v>
       </c>
       <c r="Q3" s="26" t="s">
@@ -2136,12 +2168,12 @@
       <c r="L12" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="M12" s="26" t="s">
-        <v>151</v>
-      </c>
+      <c r="M12" s="26"/>
       <c r="N12" s="26"/>
       <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
+      <c r="P12" s="26" t="s">
+        <v>151</v>
+      </c>
       <c r="Q12" s="26"/>
       <c r="R12" s="26"/>
     </row>
@@ -2578,92 +2610,92 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B20:C20 E20:XFD20 B5:E6 A16:XFD19 A9:F10 G6 A7:G8 B3:G4 A11:G11 A12:H15 S3:XFD15 B65 D65 B66:D70 B72:D73 B71:C71 B74:B75">
-    <cfRule type="cellIs" dxfId="17" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="16" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="15" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="14" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="13" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="12" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="11" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="10" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8 I3 L3:R3 I5:I6 I9:R11 I7:R7 I4:R4 M8:R8 L5:R6 I13:R15 I12:K12 M12:R12">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+  <conditionalFormatting sqref="K8 I3 I5:I6 I9:R11 I7:R7 I4:R4 M8:R8 L5:R6 I13:R15 I12:K12 M12:R12 L3:R3">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="7" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="6" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18324" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18324" windowHeight="9384" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="141">
   <si>
     <t>week</t>
   </si>
@@ -48,9 +48,6 @@
     <t>8. EasyFi or EasyFive платформа, можно участвовать в разработке.</t>
   </si>
   <si>
-    <t>9. Binor search (или Binory) что такое узнать для себя, нужно делать за пару минут.</t>
-  </si>
-  <si>
     <t>UniCorn компанию по рекрутингу посмотреть</t>
   </si>
   <si>
@@ -103,33 +100,6 @@
   </si>
   <si>
     <t>levels.fyi посмотреть сайт по вилкам зарплат. Total compensation?</t>
-  </si>
-  <si>
-    <t>10 позиций на которые буду подаваться</t>
-  </si>
-  <si>
-    <t>переделать резюме</t>
-  </si>
-  <si>
-    <t>каждая строка должна быть обоснована и доказуема</t>
-  </si>
-  <si>
-    <t>убрать лишние навыки</t>
-  </si>
-  <si>
-    <t>убрать должности указать роли</t>
-  </si>
-  <si>
-    <t>практика на английском дома и везде</t>
-  </si>
-  <si>
-    <t>на след неделе повторная встреча</t>
-  </si>
-  <si>
-    <t>Сабатикал (от англ. sabbatical) — это длительный отпуск, обычно от нескольких месяцев до года, который человек берёт для восстановления, личного развития, путешествий или работы над личными проектами.</t>
-  </si>
-  <si>
-    <t>make sense</t>
   </si>
   <si>
     <t>поведенческое инвестирование, книга на ноябрь</t>
@@ -175,22 +145,6 @@
     <t>a lot</t>
   </si>
   <si>
-    <t>мне следует учить английский более интенсивно,
-мне следует уделять больше времени детями,
-Home Work!!!!!!!!!!
-Прими то, что у тебя есть
-(На рисунке:)
-😞 «Я не хочу то, что у меня есть!»
-🙂 «Я в порядке с тем, что у меня есть, я это принимаю.»
-Будь своим другом, будь добр(а) к себе
-Избегай осуждений и обобщений
-Возвращайся к фактам
-Признай свой опыт. Прояви к себе сочувствие
-Обдумай, чему ты научился(ась)
-Закон причины и следствия: люди поступают так, как поступают, из-за своего прошлого опыта и своего состояния в данный момент — иначе быть не могло
-Попробуй взглянуть на ситуацию под другим углом</t>
-  </si>
-  <si>
     <t>week 3 lessons reviewed, w3 hw finished</t>
   </si>
   <si>
@@ -356,9 +310,6 @@
     <t>чингиз джуманазаров посмотреть видео в GrowthHungry</t>
   </si>
   <si>
-    <t>Законы победителя найти книгу</t>
-  </si>
-  <si>
     <t>https://youtu.be/wlsvwXOKg_I?si=BzJlgPyMB_EcSiIm</t>
   </si>
   <si>
@@ -504,6 +455,13 @@
   </si>
   <si>
     <t>Deleted youtube and instagram, turned on grey mode</t>
+  </si>
+  <si>
+    <t>😞 «Я не хочу то, что у меня есть!»
+🙂 «Я в порядке с тем, что у меня есть, я это принимаю.»
+Будь своим другом, будь добр(а) к себе
+Признай свой опыт. Прояви к себе сочувствие
+Обдумай, чему ты научился(ась)</t>
   </si>
 </sst>
 </file>
@@ -826,16 +784,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -927,7 +882,107 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="31">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1609,1099 +1664,1110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T75"/>
+  <dimension ref="A1:T53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="J6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomRight" activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="38.21875" style="1" customWidth="1"/>
-    <col min="13" max="15" width="38.21875" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="19" width="38.21875" style="1" customWidth="1"/>
+    <col min="3" max="9" width="38.21875" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="12" width="38.21875" style="1" customWidth="1"/>
+    <col min="13" max="16" width="38.21875" style="1" hidden="1" customWidth="1"/>
+    <col min="17" max="19" width="38.21875" style="1" customWidth="1"/>
     <col min="20" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11"/>
-      <c r="B1" s="18" t="s">
+    <row r="1" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10"/>
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16">
+      <c r="C1" s="15">
         <v>1</v>
       </c>
-      <c r="D1" s="12">
+      <c r="D1" s="11">
         <v>2</v>
       </c>
-      <c r="E1" s="12">
+      <c r="E1" s="11">
         <v>3</v>
       </c>
-      <c r="F1" s="12">
+      <c r="F1" s="11">
         <v>4</v>
       </c>
-      <c r="G1" s="12">
+      <c r="G1" s="11">
         <v>5</v>
       </c>
-      <c r="H1" s="12">
+      <c r="H1" s="11">
         <v>6</v>
       </c>
-      <c r="I1" s="12">
+      <c r="I1" s="11">
         <v>7</v>
       </c>
-      <c r="J1" s="12">
+      <c r="J1" s="11">
         <v>8</v>
       </c>
-      <c r="K1" s="12">
+      <c r="K1" s="11">
         <v>9</v>
       </c>
-      <c r="L1" s="12">
+      <c r="L1" s="11">
         <v>10</v>
       </c>
-      <c r="M1" s="12">
+      <c r="M1" s="11">
         <v>11</v>
       </c>
-      <c r="N1" s="12">
+      <c r="N1" s="11">
         <v>12</v>
       </c>
-      <c r="O1" s="12">
+      <c r="O1" s="11">
         <v>13</v>
       </c>
-      <c r="P1" s="12">
+      <c r="P1" s="11">
         <v>14</v>
       </c>
-      <c r="Q1" s="12">
+      <c r="Q1" s="11">
         <v>15</v>
       </c>
-      <c r="R1" s="12">
+      <c r="R1" s="11">
         <v>16</v>
       </c>
-      <c r="S1" s="12">
+      <c r="S1" s="11">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="17" t="str">
-        <f>CONCATENATE(TEXT(45929+(C$1-1)*7,"МММ.ДД")," - ",TEXT(45929+(C$1-1)*7+6,"МММ.ДД"))</f>
-        <v>сент.29 - окт.05</v>
-      </c>
-      <c r="D2" s="14" t="str">
-        <f>CONCATENATE(TEXT(45929+(D$1-1)*7,"МММ.ДД")," - ",TEXT(45929+(D$1-1)*7+6,"МММ.ДД"))</f>
-        <v>окт.06 - окт.12</v>
-      </c>
-      <c r="E2" s="14" t="str">
-        <f t="shared" ref="E2:S2" si="0">CONCATENATE(TEXT(45929+(E$1-1)*7,"МММ.ДД")," - ",TEXT(45929+(E$1-1)*7+6,"МММ.ДД"))</f>
-        <v>окт.13 - окт.19</v>
-      </c>
-      <c r="F2" s="14" t="str">
+    <row r="2" spans="1:20" s="14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="16" t="str">
+        <f>CONCATENATE(TEXT(45929+(C$1-1)*7,"MMM.DD")," - ",TEXT(45929+(C$1-1)*7+6,"MMM.DD"))</f>
+        <v>Sep.29 - Oct.05</v>
+      </c>
+      <c r="D2" s="16" t="str">
+        <f t="shared" ref="D2:S2" si="0">CONCATENATE(TEXT(45929+(D$1-1)*7,"MMM.DD")," - ",TEXT(45929+(D$1-1)*7+6,"MMM.DD"))</f>
+        <v>Oct.06 - Oct.12</v>
+      </c>
+      <c r="E2" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>окт.20 - окт.26</v>
-      </c>
-      <c r="G2" s="14" t="str">
+        <v>Oct.13 - Oct.19</v>
+      </c>
+      <c r="F2" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>окт.27 - нояб.02</v>
-      </c>
-      <c r="H2" s="14" t="str">
+        <v>Oct.20 - Oct.26</v>
+      </c>
+      <c r="G2" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>нояб.03 - нояб.09</v>
-      </c>
-      <c r="I2" s="14" t="str">
+        <v>Oct.27 - Nov.02</v>
+      </c>
+      <c r="H2" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>нояб.10 - нояб.16</v>
-      </c>
-      <c r="J2" s="14" t="str">
+        <v>Nov.03 - Nov.09</v>
+      </c>
+      <c r="I2" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>нояб.17 - нояб.23</v>
-      </c>
-      <c r="K2" s="14" t="str">
+        <v>Nov.10 - Nov.16</v>
+      </c>
+      <c r="J2" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>нояб.24 - нояб.30</v>
-      </c>
-      <c r="L2" s="14" t="str">
+        <v>Nov.17 - Nov.23</v>
+      </c>
+      <c r="K2" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>дек.01 - дек.07</v>
-      </c>
-      <c r="M2" s="14" t="str">
+        <v>Nov.24 - Nov.30</v>
+      </c>
+      <c r="L2" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>дек.08 - дек.14</v>
-      </c>
-      <c r="N2" s="14" t="str">
+        <v>Dec.01 - Dec.07</v>
+      </c>
+      <c r="M2" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>дек.15 - дек.21</v>
-      </c>
-      <c r="O2" s="14" t="str">
+        <v>Dec.08 - Dec.14</v>
+      </c>
+      <c r="N2" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>дек.22 - дек.28</v>
-      </c>
-      <c r="P2" s="14" t="str">
+        <v>Dec.15 - Dec.21</v>
+      </c>
+      <c r="O2" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>дек.29 - янв.04</v>
-      </c>
-      <c r="Q2" s="14" t="str">
+        <v>Dec.22 - Dec.28</v>
+      </c>
+      <c r="P2" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>янв.05 - янв.11</v>
-      </c>
-      <c r="R2" s="14" t="str">
+        <v>Dec.29 - Jan.04</v>
+      </c>
+      <c r="Q2" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>янв.12 - янв.18</v>
-      </c>
-      <c r="S2" s="14" t="str">
+        <v>Jan.05 - Jan.11</v>
+      </c>
+      <c r="R2" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>янв.19 - янв.25</v>
-      </c>
-      <c r="T2" s="14"/>
-    </row>
-    <row r="3" spans="1:20" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+        <v>Jan.12 - Jan.18</v>
+      </c>
+      <c r="S2" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Jan.19 - Jan.25</v>
+      </c>
+      <c r="T2" s="13"/>
+    </row>
+    <row r="3" spans="1:20" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q3" s="36" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="L4" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+    </row>
+    <row r="5" spans="1:20" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L5" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="R5" s="25"/>
+    </row>
+    <row r="6" spans="1:20" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="L6" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+    </row>
+    <row r="7" spans="1:20" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="K7" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="L7" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+    </row>
+    <row r="8" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="K8" s="25"/>
+      <c r="L8" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+    </row>
+    <row r="9" spans="1:20" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="19"/>
+      <c r="B9" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="L9" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+    </row>
+    <row r="10" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="19"/>
+      <c r="B10" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="30" t="s">
+      <c r="C10" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+    </row>
+    <row r="11" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="19"/>
+      <c r="B11" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+    </row>
+    <row r="12" spans="1:20" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="19"/>
+      <c r="B12" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="I3" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="K3" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="P3" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q3" s="26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="10" t="s">
+      <c r="F12" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="25"/>
+      <c r="L12" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="R12" s="25"/>
+    </row>
+    <row r="13" spans="1:20" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="19"/>
+      <c r="B13" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+    </row>
+    <row r="14" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="19"/>
+      <c r="B14" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+    </row>
+    <row r="15" spans="1:20" s="8" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="34"/>
+      <c r="B15" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="G4" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="I4" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="J4" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="K4" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="L4" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-    </row>
-    <row r="5" spans="1:20" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="I15" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q16" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="L5" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="R5" s="26"/>
-    </row>
-    <row r="6" spans="1:20" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10" t="s">
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B17" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="F19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="72" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B23" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B43" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B44" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B47" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="9" t="s">
+      <c r="D47" s="25"/>
+    </row>
+    <row r="48" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B48" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+    </row>
+    <row r="49" spans="2:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B49" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="L6" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-    </row>
-    <row r="7" spans="1:20" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="I7" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="K7" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="L7" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-    </row>
-    <row r="8" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="10" t="s">
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+    </row>
+    <row r="50" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B50" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" s="25"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B52" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="I8" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="J8" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="K8" s="26"/>
-      <c r="L8" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-    </row>
-    <row r="9" spans="1:20" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="I9" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="K9" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="L9" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-    </row>
-    <row r="10" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21" t="s">
+    </row>
+    <row r="53" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B53" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="I10" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-    </row>
-    <row r="11" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="I11" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-    </row>
-    <row r="12" spans="1:20" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="I12" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="K12" s="26"/>
-      <c r="L12" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-    </row>
-    <row r="13" spans="1:20" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="I13" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="J13" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-    </row>
-    <row r="14" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="J14" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-    </row>
-    <row r="15" spans="1:20" s="9" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="35"/>
-      <c r="B15" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="I15" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="J15" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B16" s="5"/>
-      <c r="C16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="1">
-        <v>71</v>
-      </c>
-      <c r="E19" s="1">
-        <v>72</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C21" s="2"/>
-      <c r="D21" s="3"/>
-      <c r="F21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B25" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B38" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B39" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B40" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B41" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B42" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B43" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B44" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B45" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B46" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B47" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B48" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B52" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B53" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B54" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B55" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B56" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B57" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B60" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B62" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B63" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B65" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="D65" s="26"/>
-    </row>
-    <row r="66" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B66" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="C66" s="26"/>
-      <c r="D66" s="26"/>
-    </row>
-    <row r="67" spans="2:4" ht="403.2" x14ac:dyDescent="0.3">
-      <c r="B67" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C67" s="26"/>
-      <c r="D67" s="26"/>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B68" s="26"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="26"/>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B69" s="26"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B70" s="26"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
-    </row>
-    <row r="71" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B71" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="C71" s="26"/>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B72" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B73" s="26"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="26"/>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B74" s="26" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B75" s="26" t="s">
-        <v>102</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B20:C20 E20:XFD20 B5:E6 A16:XFD19 A9:F10 G6 A7:G8 B3:G4 A11:G11 A12:H15 S3:XFD15 B65 D65 B66:D70 B72:D73 B71:C71 B74:B75">
+  <conditionalFormatting sqref="B18:C18 B5:E6 A9:F10 G6 A7:G8 B3:G4 A11:G11 A12:H15 S3:XFD15 B47 D47 B48:D49 B50:C50 B52:B53 A16:XFD17 E18:XFD18 B51:D51">
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
     <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
+  <conditionalFormatting sqref="G5">
     <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
+  <conditionalFormatting sqref="G9">
     <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
+  <conditionalFormatting sqref="G10">
     <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
+  <conditionalFormatting sqref="H3">
     <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
+  <conditionalFormatting sqref="H8">
     <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
+  <conditionalFormatting sqref="H7">
     <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
-      <formula>"-"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8 I3 I5:I6 I9:R11 I7:R7 I4:R4 M8:R8 L5:R6 I13:R15 I12:K12 M12:R12 L3:R3">
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+  <conditionalFormatting sqref="K8 I3 I5:I6 I9:R11 I7:R7 I4:R4 M8:R8 L5:R6 I13:R15 I12:K12 L3:R3 M12:R12">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
     <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
+  <conditionalFormatting sqref="H5">
     <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
-      <formula>"-"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3">
     <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+  <conditionalFormatting sqref="J8">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
+  <conditionalFormatting sqref="L8">
     <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L8">
+  <conditionalFormatting sqref="L12">
     <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L12">
+  <conditionalFormatting sqref="D18">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B71" r:id="rId1"/>
-    <hyperlink ref="B65" r:id="rId2"/>
+    <hyperlink ref="B50" r:id="rId1"/>
+    <hyperlink ref="B47" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId3"/>
@@ -2712,7 +2778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T133"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E134" sqref="E134"/>
     </sheetView>
   </sheetViews>
@@ -2722,90 +2788,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B1" s="8" t="s">
-        <v>57</v>
+      <c r="B1" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="E1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="F1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="T2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H3" s="8" t="s">
+      <c r="A3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="H6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="H7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E8" s="7"/>
+      <c r="H8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="H6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="H7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E8" s="8"/>
-      <c r="H8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="H10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="H11" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="132" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E132" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="133" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E133" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18324" windowHeight="9384" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18324" windowHeight="9384"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="148">
   <si>
     <t>week</t>
   </si>
@@ -449,9 +449,6 @@
   </si>
   <si>
     <t>week 10 hw finished</t>
-  </si>
-  <si>
-    <t>all lessons and hw finished</t>
   </si>
   <si>
     <t>Deleted youtube and instagram, turned on grey mode</t>
@@ -462,6 +459,30 @@
 Будь своим другом, будь добр(а) к себе
 Признай свой опыт. Прояви к себе сочувствие
 Обдумай, чему ты научился(ась)</t>
+  </si>
+  <si>
+    <t>lessons till week 12 viewed and hw finished</t>
+  </si>
+  <si>
+    <t>in progress</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>75/200</t>
+  </si>
+  <si>
+    <t>duolinguo</t>
+  </si>
+  <si>
+    <t>The Laws of the Winners - finished</t>
+  </si>
+  <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t>week 14 lesson attended, hw finished</t>
   </si>
 </sst>
 </file>
@@ -882,117 +903,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1666,20 +1577,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T53"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="J6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L21" sqref="L21"/>
+      <selection pane="bottomRight" activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="38.21875" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="12" width="38.21875" style="1" customWidth="1"/>
-    <col min="13" max="16" width="38.21875" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="16" width="38.21875" style="1" hidden="1" customWidth="1"/>
     <col min="17" max="19" width="38.21875" style="1" customWidth="1"/>
     <col min="20" max="16384" width="8.88671875" style="1"/>
   </cols>
@@ -1852,7 +1761,10 @@
         <v>137</v>
       </c>
       <c r="Q3" s="36" t="s">
-        <v>138</v>
+        <v>140</v>
+      </c>
+      <c r="R3" s="25" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -1896,7 +1808,9 @@
       <c r="N4" s="25"/>
       <c r="O4" s="25"/>
       <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
+      <c r="Q4" s="36" t="s">
+        <v>140</v>
+      </c>
       <c r="R4" s="25"/>
     </row>
     <row r="5" spans="1:20" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -1941,7 +1855,7 @@
       <c r="O5" s="25"/>
       <c r="P5" s="25"/>
       <c r="Q5" s="25" t="s">
-        <v>66</v>
+        <v>141</v>
       </c>
       <c r="R5" s="25"/>
     </row>
@@ -1979,7 +1893,9 @@
       <c r="N6" s="25"/>
       <c r="O6" s="25"/>
       <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
+      <c r="Q6" s="25" t="s">
+        <v>142</v>
+      </c>
       <c r="R6" s="25"/>
     </row>
     <row r="7" spans="1:20" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -2023,8 +1939,12 @@
       <c r="N7" s="25"/>
       <c r="O7" s="25"/>
       <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
+      <c r="Q7" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="R7" s="25" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="8" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19"/>
@@ -2063,7 +1983,9 @@
       <c r="N8" s="25"/>
       <c r="O8" s="25"/>
       <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
+      <c r="Q8" s="24" t="s">
+        <v>143</v>
+      </c>
       <c r="R8" s="25"/>
     </row>
     <row r="9" spans="1:20" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -2105,7 +2027,9 @@
       <c r="N9" s="25"/>
       <c r="O9" s="25"/>
       <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
+      <c r="Q9" s="25" t="s">
+        <v>144</v>
+      </c>
       <c r="R9" s="25"/>
     </row>
     <row r="10" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -2145,7 +2069,9 @@
       <c r="N10" s="25"/>
       <c r="O10" s="25"/>
       <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
+      <c r="Q10" s="25" t="s">
+        <v>145</v>
+      </c>
       <c r="R10" s="25"/>
     </row>
     <row r="11" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -2185,7 +2111,9 @@
       <c r="N11" s="25"/>
       <c r="O11" s="25"/>
       <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
+      <c r="Q11" s="25" t="s">
+        <v>31</v>
+      </c>
       <c r="R11" s="25"/>
     </row>
     <row r="12" spans="1:20" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -2226,7 +2154,7 @@
       <c r="O12" s="25"/>
       <c r="P12" s="25"/>
       <c r="Q12" s="25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="R12" s="25"/>
     </row>
@@ -2267,7 +2195,9 @@
       <c r="N13" s="25"/>
       <c r="O13" s="25"/>
       <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
+      <c r="Q13" s="25" t="s">
+        <v>146</v>
+      </c>
       <c r="R13" s="25"/>
     </row>
     <row r="14" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -2307,7 +2237,9 @@
       <c r="N14" s="25"/>
       <c r="O14" s="25"/>
       <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
+      <c r="Q14" s="25" t="s">
+        <v>142</v>
+      </c>
       <c r="R14" s="25"/>
     </row>
     <row r="15" spans="1:20" s="8" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -2347,7 +2279,9 @@
       <c r="N15" s="25"/>
       <c r="O15" s="25"/>
       <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
+      <c r="Q15" s="25" t="s">
+        <v>31</v>
+      </c>
       <c r="R15" s="25"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
@@ -2396,8 +2330,8 @@
       <c r="P16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Q16" s="1">
-        <v>1</v>
+      <c r="Q16" s="1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2643,7 +2577,7 @@
     </row>
     <row r="49" spans="2:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B49" s="25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -2671,97 +2605,102 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B18:C18 B5:E6 A9:F10 G6 A7:G8 B3:G4 A11:G11 A12:H15 S3:XFD15 B47 D47 B48:D49 B50:C50 B52:B53 A16:XFD17 E18:XFD18 B51:D51">
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="24" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="23" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="22" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="21" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="20" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="19" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="18" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="17" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8 I3 I5:I6 I9:R11 I7:R7 I4:R4 M8:R8 L5:R6 I13:R15 I12:K12 L3:R3 M12:R12">
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+  <conditionalFormatting sqref="K8 I3 I5:I6 I9:R11 M8:P8 L5:R6 I13:R15 I12:K12 L3:R3 M12:R12 I4:R4 I7:R7 R7:R8">
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q8">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2778,7 +2717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E134" sqref="E134"/>
     </sheetView>
   </sheetViews>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="151">
   <si>
     <t>week</t>
   </si>
@@ -482,7 +482,16 @@
     <t>DM</t>
   </si>
   <si>
-    <t>week 14 lesson attended, hw finished</t>
+    <t>lesson 14 hw finished</t>
+  </si>
+  <si>
+    <t>lesson attended</t>
+  </si>
+  <si>
+    <t>lessons attended</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did some Math hw </t>
   </si>
 </sst>
 </file>
@@ -903,7 +912,37 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="23">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1581,7 +1620,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q1" sqref="Q1"/>
+      <selection pane="bottomRight" activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1764,7 +1803,7 @@
         <v>140</v>
       </c>
       <c r="R3" s="25" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -1811,7 +1850,9 @@
       <c r="Q4" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="R4" s="25"/>
+      <c r="R4" s="25" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="5" spans="1:20" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
@@ -1857,7 +1898,9 @@
       <c r="Q5" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="R5" s="25"/>
+      <c r="R5" s="25" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="6" spans="1:20" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
@@ -1896,7 +1939,9 @@
       <c r="Q6" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="R6" s="25"/>
+      <c r="R6" s="25" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="7" spans="1:20" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
@@ -2030,7 +2075,9 @@
       <c r="Q9" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="R9" s="25"/>
+      <c r="R9" s="25" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="10" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19"/>
@@ -2114,7 +2161,9 @@
       <c r="Q11" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="R11" s="25"/>
+      <c r="R11" s="25" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:20" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="19"/>
@@ -2156,7 +2205,9 @@
       <c r="Q12" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="R12" s="25"/>
+      <c r="R12" s="25" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="13" spans="1:20" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="19"/>
@@ -2198,7 +2249,9 @@
       <c r="Q13" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="R13" s="25"/>
+      <c r="R13" s="25" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="14" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
@@ -2240,7 +2293,9 @@
       <c r="Q14" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="R14" s="25"/>
+      <c r="R14" s="25" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="15" spans="1:20" s="8" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="34"/>
@@ -2282,7 +2337,9 @@
       <c r="Q15" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="R15" s="25"/>
+      <c r="R15" s="25" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
@@ -2334,7 +2391,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
         <v>63</v>
       </c>
@@ -2384,7 +2441,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
         <v>26</v>
       </c>
@@ -2424,8 +2481,11 @@
       <c r="Q18" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R18" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C19" s="2"/>
       <c r="D19" s="3"/>
       <c r="F19" s="1" t="s">
@@ -2435,7 +2495,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>108</v>
       </c>
@@ -2443,7 +2503,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="72" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="72" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>109</v>
       </c>
@@ -2451,53 +2511,53 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>12</v>
       </c>
@@ -2604,103 +2664,103 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B18:C18 B5:E6 A9:F10 G6 A7:G8 B3:G4 A11:G11 A12:H15 S3:XFD15 B47 D47 B48:D49 B50:C50 B52:B53 A16:XFD17 E18:XFD18 B51:D51">
-    <cfRule type="cellIs" dxfId="19" priority="24" operator="equal">
+  <conditionalFormatting sqref="B18:C18 B5:E6 A9:F10 G6 A7:G8 B3:G4 A11:G11 A12:H15 S3:XFD15 B47 D47 B48:D49 B50:C50 B52:B53 A16:XFD17 B51:D51 E18:XFD18">
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="18" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="17" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="16" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="15" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="14" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="13" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="12" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8 I3 I5:I6 I9:R11 M8:P8 L5:R6 I13:R15 I12:K12 L3:R3 M12:R12 I4:R4 I7:R7 R7:R8">
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
+  <conditionalFormatting sqref="K8 I3 I5:I6 I9:R11 M8:P8 L5:R6 I13:R15 I12:K12 L3:R3 M12:R12 I4:R4 I7:R7 R6:R9">
+    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -912,37 +912,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2665,102 +2635,102 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B18:C18 B5:E6 A9:F10 G6 A7:G8 B3:G4 A11:G11 A12:H15 S3:XFD15 B47 D47 B48:D49 B50:C50 B52:B53 A16:XFD17 B51:D51 E18:XFD18">
-    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="24" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="23" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="22" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="21" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="20" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="19" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="18" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="17" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8 I3 I5:I6 I9:R11 M8:P8 L5:R6 I13:R15 I12:K12 L3:R3 M12:R12 I4:R4 I7:R7 R6:R9">
-    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="15" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="14" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="151">
   <si>
     <t>week</t>
   </si>
@@ -912,7 +912,27 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1590,7 +1610,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R16" sqref="R16"/>
+      <selection pane="bottomRight" activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2001,7 +2021,9 @@
       <c r="Q8" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="R8" s="25"/>
+      <c r="R8" s="24" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="9" spans="1:20" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="19"/>
@@ -2635,102 +2657,107 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B18:C18 B5:E6 A9:F10 G6 A7:G8 B3:G4 A11:G11 A12:H15 S3:XFD15 B47 D47 B48:D49 B50:C50 B52:B53 A16:XFD17 B51:D51 E18:XFD18">
-    <cfRule type="cellIs" dxfId="19" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="25" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="18" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="17" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="16" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="15" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="21" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="14" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="13" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="19" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="12" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8 I3 I5:I6 I9:R11 M8:P8 L5:R6 I13:R15 I12:K12 L3:R3 M12:R12 I4:R4 I7:R7 R6:R9">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+  <conditionalFormatting sqref="K8 I3 I5:I6 M8:P8 L5:R6 I13:R15 I12:K12 L3:R3 M12:R12 I4:R4 I7:R7 R6:R7 I9:R11">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="10" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="9" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R8">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -454,57 +454,64 @@
     <t>Deleted youtube and instagram, turned on grey mode</t>
   </si>
   <si>
-    <t>😞 «Я не хочу то, что у меня есть!»
-🙂 «Я в порядке с тем, что у меня есть, я это принимаю.»
+    <t>lessons till week 12 viewed and hw finished</t>
+  </si>
+  <si>
+    <t>in progress</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>75/200</t>
+  </si>
+  <si>
+    <t>duolinguo</t>
+  </si>
+  <si>
+    <t>The Laws of the Winners - finished</t>
+  </si>
+  <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t>lesson 14 hw finished</t>
+  </si>
+  <si>
+    <t>lesson attended</t>
+  </si>
+  <si>
+    <t>lessons attended</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did some Math hw </t>
+  </si>
+  <si>
+    <t>🙂 «Я в порядке с тем, что у меня есть, я это принимаю.»
 Будь своим другом, будь добр(а) к себе
 Признай свой опыт. Прояви к себе сочувствие
 Обдумай, чему ты научился(ась)</t>
-  </si>
-  <si>
-    <t>lessons till week 12 viewed and hw finished</t>
-  </si>
-  <si>
-    <t>in progress</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>75/200</t>
-  </si>
-  <si>
-    <t>duolinguo</t>
-  </si>
-  <si>
-    <t>The Laws of the Winners - finished</t>
-  </si>
-  <si>
-    <t>DM</t>
-  </si>
-  <si>
-    <t>lesson 14 hw finished</t>
-  </si>
-  <si>
-    <t>lesson attended</t>
-  </si>
-  <si>
-    <t>lessons attended</t>
-  </si>
-  <si>
-    <t xml:space="preserve">did some Math hw </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -814,98 +821,101 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1607,10 +1617,10 @@
   <dimension ref="A1:T53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R8" sqref="R8"/>
+      <selection pane="bottomRight" activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1790,10 +1800,10 @@
         <v>137</v>
       </c>
       <c r="Q3" s="36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="R3" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -1838,10 +1848,10 @@
       <c r="O4" s="25"/>
       <c r="P4" s="25"/>
       <c r="Q4" s="36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="R4" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -1886,10 +1896,10 @@
       <c r="O5" s="25"/>
       <c r="P5" s="25"/>
       <c r="Q5" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R5" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -1927,10 +1937,10 @@
       <c r="O6" s="25"/>
       <c r="P6" s="25"/>
       <c r="Q6" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R6" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -1975,7 +1985,7 @@
       <c r="O7" s="25"/>
       <c r="P7" s="25"/>
       <c r="Q7" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R7" s="25" t="s">
         <v>134</v>
@@ -2019,10 +2029,10 @@
       <c r="O8" s="25"/>
       <c r="P8" s="25"/>
       <c r="Q8" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R8" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -2065,10 +2075,10 @@
       <c r="O9" s="25"/>
       <c r="P9" s="25"/>
       <c r="Q9" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R9" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -2109,7 +2119,7 @@
       <c r="O10" s="25"/>
       <c r="P10" s="25"/>
       <c r="Q10" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R10" s="25"/>
     </row>
@@ -2198,7 +2208,7 @@
         <v>138</v>
       </c>
       <c r="R12" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:20" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -2239,7 +2249,7 @@
       <c r="O13" s="25"/>
       <c r="P13" s="25"/>
       <c r="Q13" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R13" s="25" t="s">
         <v>130</v>
@@ -2283,10 +2293,10 @@
       <c r="O14" s="25"/>
       <c r="P14" s="25"/>
       <c r="Q14" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R14" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:20" s="8" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -2380,7 +2390,7 @@
         <v>31</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
@@ -2627,9 +2637,9 @@
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
     </row>
-    <row r="49" spans="2:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B49" s="25" t="s">
-        <v>139</v>
+    <row r="49" spans="2:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="B49" s="37" t="s">
+        <v>150</v>
       </c>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="151">
   <si>
     <t>week</t>
   </si>
@@ -1617,10 +1617,10 @@
   <dimension ref="A1:T53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B50" sqref="B50"/>
+      <selection pane="bottomRight" activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2121,7 +2121,9 @@
       <c r="Q10" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="R10" s="25"/>
+      <c r="R10" s="37" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="11" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="19"/>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="152">
   <si>
     <t>week</t>
   </si>
@@ -491,6 +491,9 @@
 Будь своим другом, будь добр(а) к себе
 Признай свой опыт. Прояви к себе сочувствие
 Обдумай, чему ты научился(ась)</t>
+  </si>
+  <si>
+    <t>Hyperfocus - 10%</t>
   </si>
 </sst>
 </file>
@@ -922,7 +925,17 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="23">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1620,7 +1633,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R11" sqref="R11"/>
+      <selection pane="bottomRight" activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2122,7 +2135,7 @@
         <v>144</v>
       </c>
       <c r="R10" s="37" t="s">
-        <v>66</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -2298,7 +2311,7 @@
         <v>141</v>
       </c>
       <c r="R14" s="25" t="s">
-        <v>141</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:20" s="8" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -2669,107 +2682,107 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B18:C18 B5:E6 A9:F10 G6 A7:G8 B3:G4 A11:G11 A12:H15 S3:XFD15 B47 D47 B48:D49 B50:C50 B52:B53 A16:XFD17 B51:D51 E18:XFD18">
-    <cfRule type="cellIs" dxfId="21" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="25" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="23" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="22" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="17" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="15" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8 I3 I5:I6 M8:P8 L5:R6 I13:R15 I12:K12 L3:R3 M12:R12 I4:R4 I7:R7 R6:R7 I9:R11">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+  <conditionalFormatting sqref="K8 I3 I5:I6 M8:P8 L5:R6 I12:K12 L3:R3 M12:R12 I4:R4 I7:R7 R6:R7 I9:R11 I13:R15">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="154">
   <si>
     <t>week</t>
   </si>
@@ -494,6 +494,12 @@
   </si>
   <si>
     <t>Hyperfocus - 10%</t>
+  </si>
+  <si>
+    <t>81/200</t>
+  </si>
+  <si>
+    <t>stopped at 8th week</t>
   </si>
 </sst>
 </file>
@@ -1633,7 +1639,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R14" sqref="R14"/>
+      <selection pane="bottomRight" activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2000,8 +2006,8 @@
       <c r="Q7" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="R7" s="25" t="s">
-        <v>134</v>
+      <c r="R7" s="37" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -2045,7 +2051,7 @@
         <v>142</v>
       </c>
       <c r="R8" s="24" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="156">
   <si>
     <t>week</t>
   </si>
@@ -500,6 +500,12 @@
   </si>
   <si>
     <t>stopped at 8th week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duolinguo </t>
+  </si>
+  <si>
+    <t>duolinguo 26</t>
   </si>
 </sst>
 </file>
@@ -1639,15 +1645,15 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R13" sqref="R13"/>
+      <selection pane="bottomRight" activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16" width="38.21875" style="1" hidden="1" customWidth="1"/>
-    <col min="17" max="19" width="38.21875" style="1" customWidth="1"/>
+    <col min="3" max="17" width="38.21875" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="19" width="38.21875" style="1" customWidth="1"/>
     <col min="20" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -2096,8 +2102,11 @@
       <c r="Q9" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="R9" s="25" t="s">
-        <v>143</v>
+      <c r="R9" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="S9" s="37" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -2687,108 +2696,113 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B18:C18 B5:E6 A9:F10 G6 A7:G8 B3:G4 A11:G11 A12:H15 S3:XFD15 B47 D47 B48:D49 B50:C50 B52:B53 A16:XFD17 B51:D51 E18:XFD18">
-    <cfRule type="cellIs" dxfId="22" priority="25" operator="equal">
+  <conditionalFormatting sqref="B18:C18 B5:E6 A9:F10 G6 A7:G8 B3:G4 A11:G11 A12:H15 S3:XFD8 B47 D47 B48:D49 B50:C50 B52:B53 A16:XFD17 B51:D51 E18:XFD18 S10:XFD15 T9:XFD9">
+    <cfRule type="cellIs" dxfId="22" priority="26" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="25" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="20" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="19" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="21" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="19" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8 I3 I5:I6 M8:P8 L5:R6 I12:K12 L3:R3 M12:R12 I4:R4 I7:R7 R6:R7 I9:R11 I13:R15">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S9">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="156">
   <si>
     <t>week</t>
   </si>
@@ -836,7 +836,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -931,6 +931,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1645,7 +1648,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S10" sqref="S10"/>
+      <selection pane="bottomRight" activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1925,6 +1928,9 @@
       </c>
       <c r="R5" s="25" t="s">
         <v>147</v>
+      </c>
+      <c r="S5" s="38" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="156">
   <si>
     <t>week</t>
   </si>
@@ -1648,7 +1648,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S6" sqref="S6"/>
+      <selection pane="bottomRight" activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1973,6 +1973,9 @@
       <c r="R6" s="25" t="s">
         <v>148</v>
       </c>
+      <c r="S6" s="38" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="7" spans="1:20" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
@@ -2245,6 +2248,9 @@
       </c>
       <c r="R12" s="25" t="s">
         <v>149</v>
+      </c>
+      <c r="S12" s="38" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:20" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="156">
   <si>
     <t>week</t>
   </si>
@@ -940,17 +940,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1648,7 +1638,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S13" sqref="S13"/>
+      <selection pane="bottomRight" activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2296,6 +2286,9 @@
       <c r="R13" s="25" t="s">
         <v>130</v>
       </c>
+      <c r="S13" s="38" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="14" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
@@ -2709,112 +2702,112 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B18:C18 B5:E6 A9:F10 G6 A7:G8 B3:G4 A11:G11 A12:H15 S3:XFD8 B47 D47 B48:D49 B50:C50 B52:B53 A16:XFD17 B51:D51 E18:XFD18 S10:XFD15 T9:XFD9">
-    <cfRule type="cellIs" dxfId="22" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="26" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="21" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="25" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="24" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="23" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="22" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="17" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="21" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="20" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="15" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="19" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8 I3 I5:I6 M8:P8 L5:R6 I12:K12 L3:R3 M12:R12 I4:R4 I7:R7 R6:R7 I9:R11 I13:R15">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="17" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="16" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="15" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S9">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="156">
   <si>
     <t>week</t>
   </si>
@@ -512,13 +512,21 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -836,101 +844,104 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1638,7 +1649,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S14" sqref="S14"/>
+      <selection pane="bottomRight" activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2332,6 +2343,9 @@
       </c>
       <c r="R14" s="25" t="s">
         <v>31</v>
+      </c>
+      <c r="S14" s="39" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:20" s="8" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="159">
   <si>
     <t>week</t>
   </si>
@@ -506,6 +506,15 @@
   </si>
   <si>
     <t>duolinguo 26</t>
+  </si>
+  <si>
+    <t>86/200</t>
+  </si>
+  <si>
+    <t>Had long flight, arrived Almaty on Sunday.</t>
+  </si>
+  <si>
+    <t>will adapt to new schedule</t>
   </si>
 </sst>
 </file>
@@ -844,7 +853,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -941,9 +950,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -951,7 +957,67 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="28">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1649,7 +1715,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S15" sqref="S15"/>
+      <selection pane="bottomRight" activeCell="S12" sqref="S12:S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1791,7 +1857,7 @@
       </c>
       <c r="T2" s="13"/>
     </row>
-    <row r="3" spans="1:20" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>69</v>
       </c>
@@ -1830,9 +1896,6 @@
       </c>
       <c r="Q3" s="36" t="s">
         <v>139</v>
-      </c>
-      <c r="R3" s="25" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -1882,6 +1945,9 @@
       <c r="R4" s="25" t="s">
         <v>146</v>
       </c>
+      <c r="S4" s="38" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="5" spans="1:20" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
@@ -1930,8 +1996,8 @@
       <c r="R5" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="S5" s="38" t="s">
-        <v>66</v>
+      <c r="S5" s="25" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -1974,8 +2040,8 @@
       <c r="R6" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="S6" s="38" t="s">
-        <v>121</v>
+      <c r="S6" s="25" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -2025,6 +2091,9 @@
       <c r="R7" s="37" t="s">
         <v>153</v>
       </c>
+      <c r="S7" s="38" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="8" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19"/>
@@ -2069,6 +2138,9 @@
       <c r="R8" s="24" t="s">
         <v>152</v>
       </c>
+      <c r="S8" s="24" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="9" spans="1:20" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="19"/>
@@ -2162,6 +2234,9 @@
       <c r="R10" s="37" t="s">
         <v>151</v>
       </c>
+      <c r="S10" s="38" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="11" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="19"/>
@@ -2204,6 +2279,9 @@
         <v>31</v>
       </c>
       <c r="R11" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="S11" s="38" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2251,7 +2329,7 @@
         <v>149</v>
       </c>
       <c r="S12" s="38" t="s">
-        <v>66</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:20" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -2298,10 +2376,10 @@
         <v>130</v>
       </c>
       <c r="S13" s="38" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
       <c r="B14" s="20" t="s">
         <v>84</v>
@@ -2344,8 +2422,8 @@
       <c r="R14" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="S14" s="39" t="s">
-        <v>66</v>
+      <c r="S14" s="38" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:20" s="8" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -2391,6 +2469,9 @@
       <c r="R15" s="25" t="s">
         <v>31</v>
       </c>
+      <c r="S15" s="38" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
@@ -2715,113 +2796,123 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B18:C18 B5:E6 A9:F10 G6 A7:G8 B3:G4 A11:G11 A12:H15 S3:XFD8 B47 D47 B48:D49 B50:C50 B52:B53 A16:XFD17 B51:D51 E18:XFD18 S10:XFD15 T9:XFD9">
-    <cfRule type="cellIs" dxfId="21" priority="26" operator="equal">
+  <conditionalFormatting sqref="B18:C18 B5:E6 A9:F10 G6 A7:G8 B3:G4 A11:G11 A12:H15 S3:XFD4 B47 D47 B48:D49 B50:C50 B52:B53 A16:XFD17 B51:D51 E18:XFD18 T5:XFD6 T8:XFD9 S7:XFD7 S10:XFD15">
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="20" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="19" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="18" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="17" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="16" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="15" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="14" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8 I3 I5:I6 M8:P8 L5:R6 I12:K12 L3:R3 M12:R12 I4:R4 I7:R7 R6:R7 I9:R11 I13:R15">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="12" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="11" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="10" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S9">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S5:S6">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S8">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18324" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18324" windowHeight="9384" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="weeklyReport" sheetId="1" r:id="rId1"/>
+    <sheet name="toDoList" sheetId="3" r:id="rId2"/>
+    <sheet name="thingsToLearn" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="180">
   <si>
     <t>week</t>
   </si>
@@ -505,9 +506,6 @@
     <t xml:space="preserve">duolinguo </t>
   </si>
   <si>
-    <t>duolinguo 26</t>
-  </si>
-  <si>
     <t>86/200</t>
   </si>
   <si>
@@ -515,13 +513,81 @@
   </si>
   <si>
     <t>will adapt to new schedule</t>
+  </si>
+  <si>
+    <t>no progress, stopped on 8th week</t>
+  </si>
+  <si>
+    <t>no progress, Hyperfocus - 10%</t>
+  </si>
+  <si>
+    <t>duolinguo 27</t>
+  </si>
+  <si>
+    <t>ESL classes</t>
+  </si>
+  <si>
+    <t>Homework for Thursday:  Do:      page 9, exercises B &amp; C, should send own photo and some Almaty photos and describe</t>
+  </si>
+  <si>
+    <t>couldn't attend the lecture</t>
+  </si>
+  <si>
+    <t>важно</t>
+  </si>
+  <si>
+    <t>не важно</t>
+  </si>
+  <si>
+    <t>срочно</t>
+  </si>
+  <si>
+    <t>не срочно</t>
+  </si>
+  <si>
+    <t>дз КС</t>
+  </si>
+  <si>
+    <t>дз Мат</t>
+  </si>
+  <si>
+    <t>Асель подарок</t>
+  </si>
+  <si>
+    <t>данные в конфлюенс и опен мета дата</t>
+  </si>
+  <si>
+    <t>тек собеседование Асель</t>
+  </si>
+  <si>
+    <t>Алинур course selection</t>
+  </si>
+  <si>
+    <t>паркинг Ринат</t>
+  </si>
+  <si>
+    <t>no progress, lesson 14 hw finished</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homework for this AND the next week:
+Solve 6 Array/String problems in Java from https://seanprashad.com/leetcode-patterns/ by selecting Solutions- Arrays, Difficulty - Easy
+reviewed week </t>
+  </si>
+  <si>
+    <t>БФТ</t>
+  </si>
+  <si>
+    <t>теле2 тариф</t>
+  </si>
+  <si>
+    <t>дз ЕСЛ - page 9, exercises B &amp; C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -596,8 +662,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -616,8 +690,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -849,11 +935,107 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -953,11 +1135,53 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="29">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1711,20 +1935,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S12" sqref="S12:S13"/>
+      <selection pane="bottomRight" activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="17" width="38.21875" style="1" hidden="1" customWidth="1"/>
-    <col min="18" max="19" width="38.21875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="18" width="38.21875" style="1" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="38.21875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="32.77734375" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -1898,7 +2123,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" s="8" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>70</v>
       </c>
@@ -1942,11 +2167,14 @@
       <c r="Q4" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="R4" s="25" t="s">
+      <c r="R4" s="39" t="s">
         <v>146</v>
       </c>
       <c r="S4" s="38" t="s">
-        <v>104</v>
+        <v>175</v>
+      </c>
+      <c r="T4" s="38" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -1999,6 +2227,9 @@
       <c r="S5" s="25" t="s">
         <v>147</v>
       </c>
+      <c r="T5" s="38" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="6" spans="1:20" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
@@ -2092,7 +2323,7 @@
         <v>153</v>
       </c>
       <c r="S7" s="38" t="s">
-        <v>104</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -2139,7 +2370,7 @@
         <v>152</v>
       </c>
       <c r="S8" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -2187,8 +2418,8 @@
       <c r="R9" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="S9" s="37" t="s">
-        <v>155</v>
+      <c r="S9" s="39" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -2231,11 +2462,11 @@
       <c r="Q10" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="R10" s="37" t="s">
+      <c r="R10" s="39" t="s">
         <v>151</v>
       </c>
       <c r="S10" s="38" t="s">
-        <v>104</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -2329,7 +2560,7 @@
         <v>149</v>
       </c>
       <c r="S12" s="38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:20" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -2376,7 +2607,7 @@
         <v>130</v>
       </c>
       <c r="S13" s="38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:20" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -2473,7 +2704,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
         <v>36</v>
       </c>
@@ -2523,7 +2754,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
         <v>63</v>
       </c>
@@ -2572,8 +2803,14 @@
       <c r="Q17" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R17" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="S17" s="40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
         <v>26</v>
       </c>
@@ -2616,8 +2853,14 @@
       <c r="R18" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S18" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="40" t="s">
+        <v>161</v>
+      </c>
       <c r="C19" s="2"/>
       <c r="D19" s="3"/>
       <c r="F19" s="1" t="s">
@@ -2626,8 +2869,11 @@
       <c r="G19" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="T19" s="41" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>108</v>
       </c>
@@ -2635,7 +2881,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="72" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" ht="72" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>109</v>
       </c>
@@ -2643,53 +2889,53 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>12</v>
       </c>
@@ -2796,123 +3042,123 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B18:C18 B5:E6 A9:F10 G6 A7:G8 B3:G4 A11:G11 A12:H15 S3:XFD4 B47 D47 B48:D49 B50:C50 B52:B53 A16:XFD17 B51:D51 E18:XFD18 T5:XFD6 T8:XFD9 S7:XFD7 S10:XFD15">
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
+  <conditionalFormatting sqref="B18:C18 B5:E6 A9:F10 G6 A7:G8 B3:G4 A11:G11 A12:H15 S3:XFD4 B47 D47 B48:D49 B50:C50 B52:B53 A16:XFD17 B51:D51 T5:XFD6 T8:XFD9 S7:XFD7 S10:XFD15 E18:XFD18">
+    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8 I3 I5:I6 M8:P8 L5:R6 I12:K12 L3:R3 M12:R12 I4:R4 I7:R7 R6:R7 I9:R11 I13:R15">
-    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S9">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5:S6">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2926,6 +3172,193 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="92.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="46"/>
+      <c r="B1" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="52"/>
+      <c r="B3" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="43"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="52"/>
+      <c r="B4" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="43"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="52"/>
+      <c r="B5" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="43"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="52"/>
+      <c r="B6" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="43"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="52"/>
+      <c r="B7" s="56" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="43"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="52"/>
+      <c r="B8" s="56" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" s="43"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="52"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="43"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="52"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="43"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="52"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="43"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="52"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="43"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="52"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="43"/>
+    </row>
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="53"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="44"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="B15" s="55" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="42"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="52"/>
+      <c r="B16" s="54" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="43"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="52"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="43"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="52"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="43"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="52"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="43"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="52"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="43"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="52"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="43"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="52"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="43"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="52"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="43"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="52"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="43"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="52"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="43"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="52"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="43"/>
+    </row>
+    <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="53"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="A15:A27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T133"/>
   <sheetViews>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="182">
   <si>
     <t>week</t>
   </si>
@@ -580,7 +580,14 @@
     <t>теле2 тариф</t>
   </si>
   <si>
-    <t>дз ЕСЛ - page 9, exercises B &amp; C</t>
+    <t>Сергей unlock</t>
+  </si>
+  <si>
+    <t>дз ЕСЛ - Page 9, Exercise B, Page 7, Exercises 3 and 4. Talk about the discussion questions from the video that we watched today.  Here is the link:  https://www.esl-lab.com/interviews/ae-success/
+Play the game "Alias"    I will send you your word, that you will need to describe without saying the word in a separate Email, Your word or activity to describe in class on Tuesday is "Snowski"</t>
+  </si>
+  <si>
+    <t>выполнено</t>
   </si>
 </sst>
 </file>
@@ -1035,7 +1042,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1145,7 +1152,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
@@ -1167,61 +1173,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3043,122 +3004,122 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B18:C18 B5:E6 A9:F10 G6 A7:G8 B3:G4 A11:G11 A12:H15 S3:XFD4 B47 D47 B48:D49 B50:C50 B52:B53 A16:XFD17 B51:D51 T5:XFD6 T8:XFD9 S7:XFD7 S10:XFD15 E18:XFD18">
-    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="28" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="27" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="26" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="25" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="24" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="23" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="22" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="21" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8 I3 I5:I6 M8:P8 L5:R6 I12:K12 L3:R3 M12:R12 I4:R4 I7:R7 R6:R7 I9:R11 I13:R15">
-    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="19" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="18" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="17" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S9">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5:S6">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3173,10 +3134,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3186,167 +3147,184 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="46"/>
-      <c r="B1" s="49" t="s">
+      <c r="A1" s="45"/>
+      <c r="B1" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="49" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="50" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="42"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="51"/>
+      <c r="B3" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="43"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="51"/>
+      <c r="B4" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="43"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="51"/>
+      <c r="B5" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="43"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="51"/>
+      <c r="B6" s="46" t="s">
         <v>179</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C6" s="43"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="51"/>
+      <c r="B7" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="43"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="51"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="43"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="51"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="43"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="51"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="43"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="51"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="43"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="51"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="43"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="51"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="43"/>
+    </row>
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="52"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="44"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="50" t="s">
+        <v>167</v>
+      </c>
+      <c r="B15" s="54" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="42"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="51"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="43"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="51"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="43"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="51"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="43"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="51"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="43"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="51"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="43"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="51"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="43"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="51"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="43"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="51"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="43"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="51"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="43"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="51"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="43"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="51"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="43"/>
+    </row>
+    <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="52"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="44"/>
+    </row>
+    <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B30" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="C30" s="58" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="52"/>
-      <c r="B3" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="C3" s="43"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="52"/>
-      <c r="B4" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="C4" s="43"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="52"/>
-      <c r="B5" s="47" t="s">
-        <v>171</v>
-      </c>
-      <c r="C5" s="43"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="52"/>
-      <c r="B6" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="C6" s="43"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="52"/>
-      <c r="B7" s="56" t="s">
-        <v>173</v>
-      </c>
-      <c r="C7" s="43"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="52"/>
-      <c r="B8" s="56" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B31" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="C8" s="43"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="52"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="43"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="52"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="43"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="52"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="43"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="52"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="43"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="52"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="43"/>
-    </row>
-    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="53"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="44"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="51" t="s">
-        <v>167</v>
-      </c>
-      <c r="B15" s="55" t="s">
-        <v>170</v>
-      </c>
-      <c r="C15" s="42"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="52"/>
-      <c r="B16" s="54" t="s">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B32" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="43"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="52"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="43"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="52"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="43"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="52"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="43"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="52"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="43"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="52"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="43"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="52"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="43"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="52"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="43"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="52"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="43"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="52"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="43"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="52"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="43"/>
-    </row>
-    <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="53"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18324" windowHeight="9384" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18324" windowHeight="9384"/>
   </bookViews>
   <sheets>
     <sheet name="weeklyReport" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="182">
   <si>
     <t>week</t>
   </si>
@@ -594,13 +594,21 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1042,111 +1050,111 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
@@ -1155,20 +1163,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1178,6 +1177,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1896,11 +1907,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T53"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T5" sqref="T5"/>
+      <selection pane="bottomRight" activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2285,6 +2296,9 @@
       </c>
       <c r="S7" s="38" t="s">
         <v>158</v>
+      </c>
+      <c r="T7" s="59" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -3136,7 +3150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -3156,150 +3170,150 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="53" t="s">
         <v>180</v>
       </c>
       <c r="C2" s="42"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="51"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="46" t="s">
         <v>168</v>
       </c>
       <c r="C3" s="43"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="51"/>
+      <c r="A4" s="57"/>
       <c r="B4" s="46" t="s">
         <v>169</v>
       </c>
       <c r="C4" s="43"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="46" t="s">
         <v>171</v>
       </c>
       <c r="C5" s="43"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="51"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="46" t="s">
         <v>179</v>
       </c>
       <c r="C6" s="43"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="51"/>
-      <c r="B7" s="55" t="s">
+      <c r="A7" s="57"/>
+      <c r="B7" s="52" t="s">
         <v>173</v>
       </c>
       <c r="C7" s="43"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="51"/>
+      <c r="A8" s="57"/>
       <c r="B8" s="46"/>
       <c r="C8" s="43"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="51"/>
+      <c r="A9" s="57"/>
       <c r="B9" s="46"/>
       <c r="C9" s="43"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="51"/>
+      <c r="A10" s="57"/>
       <c r="B10" s="46"/>
       <c r="C10" s="43"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="51"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="46"/>
       <c r="C11" s="43"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="51"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="46"/>
       <c r="C12" s="43"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="51"/>
+      <c r="A13" s="57"/>
       <c r="B13" s="46"/>
       <c r="C13" s="43"/>
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="52"/>
+      <c r="A14" s="58"/>
       <c r="B14" s="47"/>
       <c r="C14" s="44"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="56" t="s">
         <v>167</v>
       </c>
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="51" t="s">
         <v>170</v>
       </c>
       <c r="C15" s="42"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="51"/>
+      <c r="A16" s="57"/>
       <c r="B16" s="46"/>
       <c r="C16" s="43"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="51"/>
+      <c r="A17" s="57"/>
       <c r="B17" s="46"/>
       <c r="C17" s="43"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="51"/>
+      <c r="A18" s="57"/>
       <c r="B18" s="46"/>
       <c r="C18" s="43"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="51"/>
+      <c r="A19" s="57"/>
       <c r="B19" s="46"/>
       <c r="C19" s="43"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="51"/>
+      <c r="A20" s="57"/>
       <c r="B20" s="46"/>
       <c r="C20" s="43"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="51"/>
+      <c r="A21" s="57"/>
       <c r="B21" s="46"/>
       <c r="C21" s="43"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="51"/>
+      <c r="A22" s="57"/>
       <c r="B22" s="46"/>
       <c r="C22" s="43"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="51"/>
+      <c r="A23" s="57"/>
       <c r="B23" s="46"/>
       <c r="C23" s="43"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="51"/>
+      <c r="A24" s="57"/>
       <c r="B24" s="46"/>
       <c r="C24" s="43"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="51"/>
+      <c r="A25" s="57"/>
       <c r="B25" s="46"/>
       <c r="C25" s="43"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="51"/>
+      <c r="A26" s="57"/>
       <c r="B26" s="46"/>
       <c r="C26" s="43"/>
     </row>
     <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="52"/>
+      <c r="A27" s="58"/>
       <c r="B27" s="47"/>
       <c r="C27" s="44"/>
     </row>
@@ -3309,20 +3323,20 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B30" s="57" t="s">
+      <c r="B30" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="C30" s="58" t="s">
+      <c r="C30" s="55" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B31" s="57" t="s">
+      <c r="B31" s="54" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B32" s="53" t="s">
+      <c r="B32" s="50" t="s">
         <v>174</v>
       </c>
     </row>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -13,9 +13,13 @@
   </bookViews>
   <sheets>
     <sheet name="weeklyReport" sheetId="1" r:id="rId1"/>
-    <sheet name="toDoList" sheetId="3" r:id="rId2"/>
-    <sheet name="thingsToLearn" sheetId="2" r:id="rId3"/>
+    <sheet name="gifts" sheetId="4" r:id="rId2"/>
+    <sheet name="toDoList" sheetId="3" r:id="rId3"/>
+    <sheet name="thingsToLearn" sheetId="2" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">gifts!$A$1:$D$33</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="238">
   <si>
     <t>week</t>
   </si>
@@ -530,9 +534,6 @@
     <t>Homework for Thursday:  Do:      page 9, exercises B &amp; C, should send own photo and some Almaty photos and describe</t>
   </si>
   <si>
-    <t>couldn't attend the lecture</t>
-  </si>
-  <si>
     <t>важно</t>
   </si>
   <si>
@@ -552,9 +553,6 @@
   </si>
   <si>
     <t>Асель подарок</t>
-  </si>
-  <si>
-    <t>данные в конфлюенс и опен мета дата</t>
   </si>
   <si>
     <t>тек собеседование Асель</t>
@@ -588,6 +586,180 @@
   </si>
   <si>
     <t>выполнено</t>
+  </si>
+  <si>
+    <t>attended lecture, no progress</t>
+  </si>
+  <si>
+    <t>couldn't attend the lecture, no progress</t>
+  </si>
+  <si>
+    <t>91/200</t>
+  </si>
+  <si>
+    <t>duolinguo 30</t>
+  </si>
+  <si>
+    <t>started solve leetcode problems</t>
+  </si>
+  <si>
+    <t>leetcode problems</t>
+  </si>
+  <si>
+    <t>Мурат Анар</t>
+  </si>
+  <si>
+    <t>Irregator</t>
+  </si>
+  <si>
+    <t>OnlyOne</t>
+  </si>
+  <si>
+    <t>Бектемир</t>
+  </si>
+  <si>
+    <t>двойка костюм</t>
+  </si>
+  <si>
+    <t>Нуржан Ако  Али</t>
+  </si>
+  <si>
+    <t>SonyCare</t>
+  </si>
+  <si>
+    <t>Айса</t>
+  </si>
+  <si>
+    <t>Stanley</t>
+  </si>
+  <si>
+    <t>белый</t>
+  </si>
+  <si>
+    <t>Ринат</t>
+  </si>
+  <si>
+    <t>BruMate</t>
+  </si>
+  <si>
+    <t>черный</t>
+  </si>
+  <si>
+    <t>Козайым</t>
+  </si>
+  <si>
+    <t>костюм, Эрго, мелочь, рюкзак</t>
+  </si>
+  <si>
+    <t>Мухтар Раушан</t>
+  </si>
+  <si>
+    <t>noname</t>
+  </si>
+  <si>
+    <t>Ая</t>
+  </si>
+  <si>
+    <t>Куня Жулдыз</t>
+  </si>
+  <si>
+    <t>aqua sonic</t>
+  </si>
+  <si>
+    <t>Арсен</t>
+  </si>
+  <si>
+    <t>Касым</t>
+  </si>
+  <si>
+    <t>шетка</t>
+  </si>
+  <si>
+    <t>Адек</t>
+  </si>
+  <si>
+    <t>Зере</t>
+  </si>
+  <si>
+    <t>Tommy</t>
+  </si>
+  <si>
+    <t>Тимур</t>
+  </si>
+  <si>
+    <t>kitchenaid</t>
+  </si>
+  <si>
+    <t>Лейла</t>
+  </si>
+  <si>
+    <t>Коке</t>
+  </si>
+  <si>
+    <t>Массажер, фонарь</t>
+  </si>
+  <si>
+    <t>Кулак</t>
+  </si>
+  <si>
+    <t>рубашка</t>
+  </si>
+  <si>
+    <t>Коке, Апа, Еркин</t>
+  </si>
+  <si>
+    <t>Массажер</t>
+  </si>
+  <si>
+    <t>Досым, Жазира, Жакош, Аружан, Бейбарыс, Ромчик</t>
+  </si>
+  <si>
+    <t>Ардак, Гулжан, Арнур, Елнур, Дарын, Томи</t>
+  </si>
+  <si>
+    <t>Акош Куралай</t>
+  </si>
+  <si>
+    <t>Каля</t>
+  </si>
+  <si>
+    <t>Гани Жулдыз</t>
+  </si>
+  <si>
+    <t>сиреневый</t>
+  </si>
+  <si>
+    <t>Ернат Надя</t>
+  </si>
+  <si>
+    <t>жасыл</t>
+  </si>
+  <si>
+    <t>Куня Марта</t>
+  </si>
+  <si>
+    <t>Ринат Аида</t>
+  </si>
+  <si>
+    <t>Айдана</t>
+  </si>
+  <si>
+    <t>Нагима</t>
+  </si>
+  <si>
+    <t>Куралай</t>
+  </si>
+  <si>
+    <t>розовый</t>
+  </si>
+  <si>
+    <t>Асель</t>
+  </si>
+  <si>
+    <t>Ербол Шолпан</t>
+  </si>
+  <si>
+    <t>Ержан, Бекарыс</t>
   </si>
 </sst>
 </file>
@@ -686,7 +858,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -717,8 +889,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1046,11 +1236,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1076,9 +1310,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1189,11 +1420,61 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="25">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1905,31 +2186,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T53"/>
+  <dimension ref="A1:AX53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T8" sqref="T8"/>
+      <selection pane="bottomRight" activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="18" width="38.21875" style="1" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="38.21875" style="1" customWidth="1"/>
+    <col min="3" max="19" width="38.21875" style="1" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="32.77734375" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.88671875" style="1"/>
+    <col min="21" max="21" width="32.44140625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10"/>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15">
+      <c r="C1" s="14">
         <v>1</v>
       </c>
       <c r="D1" s="11">
@@ -1980,129 +2261,237 @@
       <c r="S1" s="11">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" s="14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T1" s="11">
+        <v>18</v>
+      </c>
+      <c r="U1" s="11">
+        <v>19</v>
+      </c>
+      <c r="V1" s="11">
+        <v>20</v>
+      </c>
+      <c r="W1" s="11">
+        <v>21</v>
+      </c>
+      <c r="X1" s="11">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="11">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="11">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="11">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="11">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="11">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="11">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="11">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="11">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="11">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="11">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="11">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="11">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="11">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="11">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="11">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="11">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="11">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="11">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="11">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="11">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="11">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="11">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="11">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="11">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="11">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="11">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:50" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="16" t="str">
+      <c r="B2" s="17"/>
+      <c r="C2" s="15" t="str">
         <f>CONCATENATE(TEXT(45929+(C$1-1)*7,"MMM.DD")," - ",TEXT(45929+(C$1-1)*7+6,"MMM.DD"))</f>
         <v>Sep.29 - Oct.05</v>
       </c>
-      <c r="D2" s="16" t="str">
-        <f t="shared" ref="D2:S2" si="0">CONCATENATE(TEXT(45929+(D$1-1)*7,"MMM.DD")," - ",TEXT(45929+(D$1-1)*7+6,"MMM.DD"))</f>
+      <c r="D2" s="15" t="str">
+        <f t="shared" ref="D2:V2" si="0">CONCATENATE(TEXT(45929+(D$1-1)*7,"MMM.DD")," - ",TEXT(45929+(D$1-1)*7+6,"MMM.DD"))</f>
         <v>Oct.06 - Oct.12</v>
       </c>
-      <c r="E2" s="16" t="str">
+      <c r="E2" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Oct.13 - Oct.19</v>
       </c>
-      <c r="F2" s="16" t="str">
+      <c r="F2" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Oct.20 - Oct.26</v>
       </c>
-      <c r="G2" s="16" t="str">
+      <c r="G2" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Oct.27 - Nov.02</v>
       </c>
-      <c r="H2" s="16" t="str">
+      <c r="H2" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Nov.03 - Nov.09</v>
       </c>
-      <c r="I2" s="16" t="str">
+      <c r="I2" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Nov.10 - Nov.16</v>
       </c>
-      <c r="J2" s="16" t="str">
+      <c r="J2" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Nov.17 - Nov.23</v>
       </c>
-      <c r="K2" s="16" t="str">
+      <c r="K2" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Nov.24 - Nov.30</v>
       </c>
-      <c r="L2" s="16" t="str">
+      <c r="L2" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Dec.01 - Dec.07</v>
       </c>
-      <c r="M2" s="16" t="str">
+      <c r="M2" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Dec.08 - Dec.14</v>
       </c>
-      <c r="N2" s="16" t="str">
+      <c r="N2" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Dec.15 - Dec.21</v>
       </c>
-      <c r="O2" s="16" t="str">
+      <c r="O2" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Dec.22 - Dec.28</v>
       </c>
-      <c r="P2" s="16" t="str">
+      <c r="P2" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Dec.29 - Jan.04</v>
       </c>
-      <c r="Q2" s="16" t="str">
+      <c r="Q2" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Jan.05 - Jan.11</v>
       </c>
-      <c r="R2" s="16" t="str">
+      <c r="R2" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Jan.12 - Jan.18</v>
       </c>
-      <c r="S2" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Jan.19 - Jan.25</v>
-      </c>
-      <c r="T2" s="13"/>
-    </row>
-    <row r="3" spans="1:20" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="S2" s="15" t="str">
+        <f>CONCATENATE(TEXT(45929+(S$1-1)*7,"МММ.ДД")," - ",TEXT(45929+(S$1-1)*7+6,"МММ.ДД"))</f>
+        <v>янв.19 - янв.25</v>
+      </c>
+      <c r="T2" s="15" t="str">
+        <f t="shared" ref="T2:W2" si="1">CONCATENATE(TEXT(45929+(T$1-1)*7,"МММ.ДД")," - ",TEXT(45929+(T$1-1)*7+6,"МММ.ДД"))</f>
+        <v>янв.26 - фев.01</v>
+      </c>
+      <c r="U2" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>фев.02 - фев.08</v>
+      </c>
+      <c r="V2" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>фев.09 - фев.15</v>
+      </c>
+      <c r="W2" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>фев.16 - фев.22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:50" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="21" t="s">
+      <c r="C3" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="I3" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="22" t="s">
+      <c r="I3" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="K3" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="25" t="s">
+      <c r="K3" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="Q3" s="36" t="s">
+      <c r="Q3" s="35" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="8" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:50" s="8" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="29" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="9" t="s">
@@ -2114,49 +2503,52 @@
       <c r="F4" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="G4" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="26" t="s">
+      <c r="G4" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="L4" s="25" t="s">
+      <c r="L4" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="36" t="s">
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="R4" s="39" t="s">
+      <c r="R4" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="S4" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="T4" s="38" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="S4" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="T4" s="58" t="s">
+        <v>180</v>
+      </c>
+      <c r="U4" s="37" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:50" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="29" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="9" t="s">
@@ -2168,13 +2560,13 @@
       <c r="F5" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="G5" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="25" t="s">
+      <c r="G5" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="24" t="s">
         <v>31</v>
       </c>
       <c r="J5" s="8" t="s">
@@ -2183,34 +2575,34 @@
       <c r="K5" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="L5" s="25" t="s">
+      <c r="L5" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25" t="s">
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="R5" s="25" t="s">
+      <c r="R5" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="S5" s="25" t="s">
+      <c r="S5" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="T5" s="38" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="T5" s="58" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:50" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="30"/>
+      <c r="C6" s="29"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
         <v>88</v>
@@ -2218,43 +2610,46 @@
       <c r="F6" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="G6" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="25" t="s">
+      <c r="G6" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="24" t="s">
         <v>31</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="L6" s="25" t="s">
+      <c r="L6" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25" t="s">
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="R6" s="25" t="s">
+      <c r="R6" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="S6" s="25" t="s">
+      <c r="S6" s="24" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+      <c r="T6" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:50" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="29" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="9" t="s">
@@ -2266,47 +2661,47 @@
       <c r="F7" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="G7" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="24" t="s">
+      <c r="G7" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="I7" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="25" t="s">
+      <c r="I7" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="K7" s="25" t="s">
+      <c r="K7" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="L7" s="25" t="s">
+      <c r="L7" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25" t="s">
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="R7" s="37" t="s">
+      <c r="R7" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="S7" s="38" t="s">
+      <c r="S7" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="T7" s="59" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20" t="s">
+      <c r="T7" s="37" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:50" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18"/>
+      <c r="B8" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="29" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="9" t="s">
@@ -2321,39 +2716,42 @@
       <c r="G8" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="J8" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="K8" s="25"/>
-      <c r="L8" s="24" t="s">
+      <c r="K8" s="24"/>
+      <c r="L8" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="24" t="s">
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="R8" s="24" t="s">
+      <c r="R8" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="S8" s="24" t="s">
+      <c r="S8" s="23" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20" t="s">
+      <c r="T8" s="23" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:50" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="29" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="9" t="s">
@@ -2365,91 +2763,97 @@
       <c r="F9" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="G9" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="23" t="s">
+      <c r="G9" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="I9" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="25" t="s">
+      <c r="I9" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="K9" s="25" t="s">
+      <c r="K9" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="L9" s="25" t="s">
+      <c r="L9" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25" t="s">
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="R9" s="37" t="s">
+      <c r="R9" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="S9" s="39" t="s">
+      <c r="S9" s="38" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20" t="s">
+      <c r="T9" s="59" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="18"/>
+      <c r="B10" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="32" t="s">
+      <c r="C10" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="G10" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="33" t="s">
+      <c r="G10" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="I10" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="25" t="s">
+      <c r="I10" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25" t="s">
+      <c r="K10" s="24"/>
+      <c r="L10" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25" t="s">
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="R10" s="39" t="s">
+      <c r="R10" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="S10" s="38" t="s">
+      <c r="S10" s="37" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
-      <c r="B11" s="20" t="s">
+      <c r="T10" s="37" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="29" t="s">
         <v>31</v>
       </c>
       <c r="D11" s="9" t="s">
@@ -2464,39 +2868,42 @@
       <c r="G11" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="I11" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="25" t="s">
+      <c r="I11" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="R11" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="S11" s="38" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20" t="s">
+      <c r="K11" s="24"/>
+      <c r="L11" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="R11" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="S11" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="T11" s="58" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="29" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="9" t="s">
@@ -2511,39 +2918,42 @@
       <c r="G12" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="I12" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="J12" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" s="25"/>
-      <c r="L12" s="23" t="s">
+      <c r="I12" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="24"/>
+      <c r="L12" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25" t="s">
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="R12" s="25" t="s">
+      <c r="R12" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="S12" s="38" t="s">
+      <c r="S12" s="37" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20" t="s">
+      <c r="T12" s="58" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="18"/>
+      <c r="B13" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="29" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="9" t="s">
@@ -2558,39 +2968,42 @@
       <c r="G13" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="I13" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="J13" s="25" t="s">
+      <c r="I13" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25" t="s">
+      <c r="K13" s="24"/>
+      <c r="L13" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="R13" s="25" t="s">
+      <c r="R13" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="S13" s="38" t="s">
+      <c r="S13" s="37" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20" t="s">
+      <c r="T13" s="58" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:50" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="18"/>
+      <c r="B14" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="29" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="9" t="s">
@@ -2608,36 +3021,36 @@
       <c r="H14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="J14" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25" t="s">
+      <c r="I14" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="R14" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="S14" s="38" t="s">
+      <c r="R14" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="S14" s="37" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="8" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="34"/>
-      <c r="B15" s="35" t="s">
+    <row r="15" spans="1:50" s="8" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="33"/>
+      <c r="B15" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="9" t="s">
@@ -2652,34 +3065,37 @@
       <c r="G15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="I15" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="J15" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="R15" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="S15" s="38" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I15" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="R15" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="S15" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="T15" s="58" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:50" hidden="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
         <v>36</v>
       </c>
@@ -2778,10 +3194,13 @@
       <c r="Q17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R17" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="S17" s="40" t="s">
+      <c r="R17" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="S17" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="T17" s="60" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2831,9 +3250,12 @@
       <c r="S18" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="T18" s="60" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="19" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="39" t="s">
         <v>161</v>
       </c>
       <c r="C19" s="2"/>
@@ -2844,7 +3266,7 @@
       <c r="G19" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="T19" s="41" t="s">
+      <c r="T19" s="40" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2976,163 +3398,168 @@
       </c>
     </row>
     <row r="47" spans="2:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="D47" s="25"/>
+      <c r="D47" s="24"/>
     </row>
     <row r="48" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
     </row>
     <row r="49" spans="2:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="B49" s="37" t="s">
+      <c r="B49" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
     </row>
     <row r="50" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B50" s="25" t="s">
+      <c r="B50" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="C50" s="25"/>
+      <c r="C50" s="24"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B52" s="25" t="s">
+      <c r="B52" s="24" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="53" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B53" s="25" t="s">
+      <c r="B53" s="24" t="s">
         <v>91</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B18:C18 B5:E6 A9:F10 G6 A7:G8 B3:G4 A11:G11 A12:H15 S3:XFD4 B47 D47 B48:D49 B50:C50 B52:B53 A16:XFD17 B51:D51 T5:XFD6 T8:XFD9 S7:XFD7 S10:XFD15 E18:XFD18">
+  <conditionalFormatting sqref="B18:C18 B5:E6 A9:F10 G6 A7:G8 B3:G4 A11:G11 A12:H15 B47 D47 B48:D49 B50:C50 B52:B53 A16:XFD17 B51:D51 T5:XFD6 E18:XFD18 S3:XFD4 S7:XFD7 U8:XFD9 S10:XFD15">
+    <cfRule type="cellIs" dxfId="24" priority="29" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
     <cfRule type="cellIs" dxfId="23" priority="28" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
+  <conditionalFormatting sqref="G5">
     <cfRule type="cellIs" dxfId="22" priority="27" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
+  <conditionalFormatting sqref="G9">
     <cfRule type="cellIs" dxfId="21" priority="26" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
+  <conditionalFormatting sqref="G10">
     <cfRule type="cellIs" dxfId="20" priority="25" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
+  <conditionalFormatting sqref="H3">
     <cfRule type="cellIs" dxfId="19" priority="24" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
+  <conditionalFormatting sqref="H8">
     <cfRule type="cellIs" dxfId="18" priority="23" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
+  <conditionalFormatting sqref="H7">
     <cfRule type="cellIs" dxfId="17" priority="22" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="16" priority="21" operator="equal">
-      <formula>"-"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K8 I3 I5:I6 M8:P8 L5:R6 I12:K12 L3:R3 M12:R12 I4:R4 I7:R7 R6:R7 I9:R11 I13:R15">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
+    <cfRule type="cellIs" dxfId="15" priority="20" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
     <cfRule type="cellIs" dxfId="14" priority="19" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
+  <conditionalFormatting sqref="H5">
     <cfRule type="cellIs" dxfId="13" priority="18" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="12" priority="17" operator="equal">
-      <formula>"-"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3">
     <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+  <conditionalFormatting sqref="J8">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
+  <conditionalFormatting sqref="L8">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L8">
+  <conditionalFormatting sqref="L12">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L12">
+  <conditionalFormatting sqref="D18">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
+  <conditionalFormatting sqref="Q8">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q8">
+  <conditionalFormatting sqref="R8">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R8">
+  <conditionalFormatting sqref="S9:T9">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S9">
+  <conditionalFormatting sqref="S5:S6">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S5:S6">
+  <conditionalFormatting sqref="S8">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S8">
+  <conditionalFormatting sqref="T8">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
@@ -3148,10 +3575,419 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.5546875" customWidth="1"/>
+    <col min="2" max="2" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="26.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" s="63" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="64" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="65" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" s="63"/>
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="66" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" s="67" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4" s="68" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="69" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="70" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" s="68" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="71" t="s">
+        <v>196</v>
+      </c>
+      <c r="C6" s="62" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" s="63" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" s="62" t="s">
+        <v>200</v>
+      </c>
+      <c r="D7" s="63"/>
+    </row>
+    <row r="8" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="61" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8" s="63" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="64" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>192</v>
+      </c>
+      <c r="D9" s="63"/>
+    </row>
+    <row r="10" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="61" t="s">
+        <v>204</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="D10" s="63" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="64" t="s">
+        <v>206</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>190</v>
+      </c>
+      <c r="D11" s="63"/>
+    </row>
+    <row r="12" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" s="72" t="s">
+        <v>207</v>
+      </c>
+      <c r="C12" s="73" t="s">
+        <v>192</v>
+      </c>
+      <c r="D12" s="74" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" s="75" t="s">
+        <v>209</v>
+      </c>
+      <c r="C13" s="76"/>
+      <c r="D13" s="74"/>
+    </row>
+    <row r="14" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="64" t="s">
+        <v>210</v>
+      </c>
+      <c r="C14" s="65" t="s">
+        <v>211</v>
+      </c>
+      <c r="D14" s="63"/>
+    </row>
+    <row r="15" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" s="61" t="s">
+        <v>212</v>
+      </c>
+      <c r="C15" s="73" t="s">
+        <v>213</v>
+      </c>
+      <c r="D15" s="63"/>
+    </row>
+    <row r="16" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" s="64" t="s">
+        <v>214</v>
+      </c>
+      <c r="C16" s="77"/>
+      <c r="D16" s="63"/>
+    </row>
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="78" t="s">
+        <v>215</v>
+      </c>
+      <c r="C17" s="67" t="s">
+        <v>216</v>
+      </c>
+      <c r="D17" s="68"/>
+    </row>
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="78" t="s">
+        <v>217</v>
+      </c>
+      <c r="C18" s="67" t="s">
+        <v>218</v>
+      </c>
+      <c r="D18" s="68"/>
+    </row>
+    <row r="19" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" s="71" t="s">
+        <v>219</v>
+      </c>
+      <c r="C19" s="62" t="s">
+        <v>220</v>
+      </c>
+      <c r="D19" s="63"/>
+    </row>
+    <row r="20" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="C20" s="62" t="s">
+        <v>220</v>
+      </c>
+      <c r="D20" s="63"/>
+    </row>
+    <row r="21" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" s="71" t="s">
+        <v>222</v>
+      </c>
+      <c r="C21" s="62" t="s">
+        <v>220</v>
+      </c>
+      <c r="D21" s="63"/>
+    </row>
+    <row r="22" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" s="71" t="s">
+        <v>223</v>
+      </c>
+      <c r="C22" s="62" t="s">
+        <v>220</v>
+      </c>
+      <c r="D22" s="63"/>
+    </row>
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="78" t="s">
+        <v>224</v>
+      </c>
+      <c r="C23" s="67" t="s">
+        <v>220</v>
+      </c>
+      <c r="D23" s="68"/>
+    </row>
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="78" t="s">
+        <v>225</v>
+      </c>
+      <c r="C24" s="67" t="s">
+        <v>194</v>
+      </c>
+      <c r="D24" s="68" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="79" t="s">
+        <v>227</v>
+      </c>
+      <c r="C25" s="67" t="s">
+        <v>194</v>
+      </c>
+      <c r="D25" s="68" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="78" t="s">
+        <v>229</v>
+      </c>
+      <c r="C26" s="67" t="s">
+        <v>187</v>
+      </c>
+      <c r="D26" s="68" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="78" t="s">
+        <v>230</v>
+      </c>
+      <c r="C27" s="67" t="s">
+        <v>187</v>
+      </c>
+      <c r="D27" s="68" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="78" t="s">
+        <v>231</v>
+      </c>
+      <c r="C28" s="67" t="s">
+        <v>194</v>
+      </c>
+      <c r="D28" s="68" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" s="71" t="s">
+        <v>232</v>
+      </c>
+      <c r="C29" s="62" t="s">
+        <v>220</v>
+      </c>
+      <c r="D29" s="63"/>
+    </row>
+    <row r="30" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" s="71" t="s">
+        <v>233</v>
+      </c>
+      <c r="C30" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="D30" s="63" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" s="71" t="s">
+        <v>235</v>
+      </c>
+      <c r="C31" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="D31" s="63" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="79" t="s">
+        <v>236</v>
+      </c>
+      <c r="C32" s="67" t="s">
+        <v>194</v>
+      </c>
+      <c r="D32" s="68" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" s="71" t="s">
+        <v>237</v>
+      </c>
+      <c r="C33" s="62" t="s">
+        <v>220</v>
+      </c>
+      <c r="D33" s="80"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D33">
+    <filterColumn colId="0">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
+  <mergeCells count="3">
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="C15:C16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3161,183 +3997,184 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="45"/>
-      <c r="B1" s="48" t="s">
+      <c r="A1" s="44"/>
+      <c r="B1" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="C1" s="49" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="55" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="56" t="s">
+      <c r="B2" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="41"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="56"/>
+      <c r="B3" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="42"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="56"/>
+      <c r="B4" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="42"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="56"/>
+      <c r="B5" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="42"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="56"/>
+      <c r="B6" s="51" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="42"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="56"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="42"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="56"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="42"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="56"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="42"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="56"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="42"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="56"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="42"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="56"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="42"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="56"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="42"/>
+    </row>
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="57"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="43"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="55" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="53" t="s">
-        <v>180</v>
-      </c>
-      <c r="C2" s="42"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="57"/>
-      <c r="B3" s="46" t="s">
-        <v>168</v>
-      </c>
-      <c r="C3" s="43"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="57"/>
-      <c r="B4" s="46" t="s">
-        <v>169</v>
-      </c>
-      <c r="C4" s="43"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="57"/>
-      <c r="B5" s="46" t="s">
-        <v>171</v>
-      </c>
-      <c r="C5" s="43"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="57"/>
-      <c r="B6" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="C6" s="43"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="57"/>
-      <c r="B7" s="52" t="s">
-        <v>173</v>
-      </c>
-      <c r="C7" s="43"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="57"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="43"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="57"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="43"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="57"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="43"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="57"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="43"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="57"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="43"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="57"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="43"/>
-    </row>
-    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="58"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="44"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="56" t="s">
-        <v>167</v>
-      </c>
-      <c r="B15" s="51" t="s">
-        <v>170</v>
-      </c>
-      <c r="C15" s="42"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="57"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="43"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="42"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="57"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="43"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="42"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="57"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="43"/>
+      <c r="A18" s="56"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="42"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="57"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="43"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="42"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="57"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="43"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="42"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="57"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="43"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="42"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="57"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="43"/>
+      <c r="A22" s="56"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="42"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="57"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="43"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="42"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="57"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="43"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="42"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="57"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="43"/>
+      <c r="A25" s="56"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="42"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="57"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="43"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="42"/>
     </row>
     <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="58"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="44"/>
+      <c r="A27" s="57"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="43"/>
     </row>
     <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="C30" s="54" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B31" s="53" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="C30" s="55" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B31" s="54" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B32" s="50" t="s">
-        <v>174</v>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="50" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -3350,7 +4187,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T133"/>
   <sheetViews>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="239">
   <si>
     <t>week</t>
   </si>
@@ -760,6 +760,9 @@
   </si>
   <si>
     <t>Ержан, Бекарыс</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -2192,7 +2195,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U6" sqref="U6"/>
+      <selection pane="bottomRight" activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2694,6 +2697,9 @@
       </c>
       <c r="T7" s="37" t="s">
         <v>158</v>
+      </c>
+      <c r="U7" s="58" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:50" s="8" customFormat="1" x14ac:dyDescent="0.3">

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="239">
   <si>
     <t>week</t>
   </si>
@@ -2195,7 +2195,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U8" sqref="U8"/>
+      <selection pane="bottomRight" activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2751,6 +2751,9 @@
       <c r="T8" s="23" t="s">
         <v>182</v>
       </c>
+      <c r="U8" s="58" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="9" spans="1:50" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="18"/>
@@ -2802,6 +2805,9 @@
       </c>
       <c r="T9" s="59" t="s">
         <v>183</v>
+      </c>
+      <c r="U9" s="58" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:50" s="8" customFormat="1" x14ac:dyDescent="0.3">

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="244">
   <si>
     <t>week</t>
   </si>
@@ -763,19 +763,42 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>ЕНПФ выплата ипотеки</t>
+  </si>
+  <si>
+    <t>Налог США подготовить информацию</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/u/aimbetov/</t>
+  </si>
+  <si>
+    <t>18/3836</t>
+  </si>
+  <si>
+    <t>Hyperfocus - 30%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1287,108 +1310,108 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
@@ -1397,10 +1420,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1411,22 +1434,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1445,29 +1459,81 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="29">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2189,13 +2255,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX53"/>
+  <dimension ref="A1:AX54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U10" sqref="U10"/>
+      <selection pane="bottomRight" activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2366,7 +2432,7 @@
         <v>Sep.29 - Oct.05</v>
       </c>
       <c r="D2" s="15" t="str">
-        <f t="shared" ref="D2:V2" si="0">CONCATENATE(TEXT(45929+(D$1-1)*7,"MMM.DD")," - ",TEXT(45929+(D$1-1)*7+6,"MMM.DD"))</f>
+        <f t="shared" ref="D2:R2" si="0">CONCATENATE(TEXT(45929+(D$1-1)*7,"MMM.DD")," - ",TEXT(45929+(D$1-1)*7+6,"MMM.DD"))</f>
         <v>Oct.06 - Oct.12</v>
       </c>
       <c r="E2" s="15" t="str">
@@ -2537,7 +2603,7 @@
       <c r="S4" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="T4" s="58" t="s">
+      <c r="T4" s="55" t="s">
         <v>180</v>
       </c>
       <c r="U4" s="37" t="s">
@@ -2594,7 +2660,7 @@
       <c r="S5" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="T5" s="58" t="s">
+      <c r="T5" s="55" t="s">
         <v>181</v>
       </c>
     </row>
@@ -2698,7 +2764,7 @@
       <c r="T7" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="U7" s="58" t="s">
+      <c r="U7" s="55" t="s">
         <v>238</v>
       </c>
     </row>
@@ -2751,87 +2817,61 @@
       <c r="T8" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="U8" s="58" t="s">
+      <c r="U8" s="55" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:50" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:50" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18"/>
       <c r="B9" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="K9" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="L9" s="24" t="s">
-        <v>104</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="21"/>
       <c r="M9" s="24"/>
       <c r="N9" s="24"/>
       <c r="O9" s="24"/>
       <c r="P9" s="24"/>
-      <c r="Q9" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="R9" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="S9" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="T9" s="59" t="s">
-        <v>183</v>
-      </c>
-      <c r="U9" s="58" t="s">
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="55" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="10" spans="1:50" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U9" s="23" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="18"/>
       <c r="B10" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="31" t="s">
-        <v>98</v>
+      <c r="D10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="G10" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="32" t="s">
-        <v>117</v>
+      <c r="H10" s="22" t="s">
+        <v>111</v>
       </c>
       <c r="I10" s="24" t="s">
         <v>31</v>
@@ -2839,205 +2879,213 @@
       <c r="J10" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="K10" s="24"/>
+      <c r="K10" s="24" t="s">
+        <v>121</v>
+      </c>
       <c r="L10" s="24" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="M10" s="24"/>
       <c r="N10" s="24"/>
       <c r="O10" s="24"/>
       <c r="P10" s="24"/>
       <c r="Q10" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="R10" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="S10" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="T10" s="37" t="s">
-        <v>159</v>
+        <v>143</v>
+      </c>
+      <c r="R10" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="S10" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="T10" s="56" t="s">
+        <v>183</v>
+      </c>
+      <c r="U10" s="55" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:50" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
       <c r="B11" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>114</v>
+      <c r="D11" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>117</v>
       </c>
       <c r="I11" s="24" t="s">
         <v>31</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="K11" s="24"/>
       <c r="L11" s="24" t="s">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="M11" s="24"/>
       <c r="N11" s="24"/>
       <c r="O11" s="24"/>
       <c r="P11" s="24"/>
       <c r="Q11" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="R11" s="24" t="s">
-        <v>31</v>
+        <v>144</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>151</v>
       </c>
       <c r="S11" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="T11" s="58" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:50" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+      <c r="T11" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="U11" s="81" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18"/>
       <c r="B12" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" s="29" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I12" s="24" t="s">
         <v>31</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="K12" s="24"/>
-      <c r="L12" s="22" t="s">
-        <v>116</v>
+      <c r="L12" s="24" t="s">
+        <v>31</v>
       </c>
       <c r="M12" s="24"/>
       <c r="N12" s="24"/>
       <c r="O12" s="24"/>
       <c r="P12" s="24"/>
       <c r="Q12" s="24" t="s">
-        <v>138</v>
+        <v>31</v>
       </c>
       <c r="R12" s="24" t="s">
-        <v>149</v>
+        <v>31</v>
       </c>
       <c r="S12" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="T12" s="58" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="13" spans="1:50" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="T12" s="55" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
       <c r="B13" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" s="29" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="I13" s="24" t="s">
         <v>31</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="K13" s="24"/>
-      <c r="L13" s="24" t="s">
-        <v>31</v>
+      <c r="L13" s="22" t="s">
+        <v>116</v>
       </c>
       <c r="M13" s="24"/>
       <c r="N13" s="24"/>
       <c r="O13" s="24"/>
       <c r="P13" s="24"/>
       <c r="Q13" s="24" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R13" s="24" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="S13" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="T13" s="58" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="14" spans="1:50" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="T13" s="55" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:50" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="18"/>
       <c r="B14" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14" s="29" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>31</v>
+        <v>105</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>112</v>
       </c>
       <c r="I14" s="24" t="s">
         <v>31</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="K14" s="24"/>
       <c r="L14" s="24" t="s">
@@ -3048,28 +3096,31 @@
       <c r="O14" s="24"/>
       <c r="P14" s="24"/>
       <c r="Q14" s="24" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="R14" s="24" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="S14" s="37" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="15" spans="1:50" s="8" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="33"/>
-      <c r="B15" s="34" t="s">
-        <v>85</v>
+        <v>157</v>
+      </c>
+      <c r="T14" s="55" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:50" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="18"/>
+      <c r="B15" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>31</v>
@@ -3077,8 +3128,8 @@
       <c r="G15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="22" t="s">
-        <v>115</v>
+      <c r="H15" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="I15" s="24" t="s">
         <v>31</v>
@@ -3095,490 +3146,547 @@
       <c r="O15" s="24"/>
       <c r="P15" s="24"/>
       <c r="Q15" s="24" t="s">
-        <v>31</v>
+        <v>141</v>
       </c>
       <c r="R15" s="24" t="s">
         <v>31</v>
       </c>
       <c r="S15" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="T15" s="58" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:50" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:50" s="8" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="33"/>
+      <c r="B16" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="R16" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="S16" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="T16" s="55" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q16" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q17" s="1" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B17" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R17" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="S17" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="T17" s="60" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R18" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="S18" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="T18" s="57" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B19" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="C19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q18" s="1" t="s">
+      <c r="G19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q19" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="R18" s="1" t="s">
+      <c r="R19" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="S18" s="1" t="s">
+      <c r="S19" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="T18" s="60" t="s">
+      <c r="T19" s="57" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="39" t="s">
+    <row r="20" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3"/>
-      <c r="F19" s="1" t="s">
+      <c r="C20" s="2"/>
+      <c r="D20" s="3"/>
+      <c r="F20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="T19" s="40" t="s">
+      <c r="T20" s="40" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+    <row r="22" spans="1:20" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="72" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+    <row r="23" spans="1:20" ht="72" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B23" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B23" s="4" t="s">
+    <row r="24" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B24" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B27" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B45" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="2:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B47" s="24" t="s">
+    <row r="48" spans="2:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B48" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="D47" s="24"/>
-    </row>
-    <row r="48" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B48" s="24" t="s">
+      <c r="D48" s="24"/>
+    </row>
+    <row r="49" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B49" s="24" t="s">
         <v>101</v>
-      </c>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-    </row>
-    <row r="49" spans="2:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="B49" s="36" t="s">
-        <v>150</v>
       </c>
       <c r="C49" s="24"/>
       <c r="D49" s="24"/>
     </row>
-    <row r="50" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B50" s="24" t="s">
+    <row r="50" spans="2:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="B50" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+    </row>
+    <row r="51" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B51" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="C50" s="24"/>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B51" s="24"/>
       <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B52" s="24" t="s">
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B53" s="24" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B53" s="24" t="s">
+    <row r="54" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B54" s="24" t="s">
         <v>91</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B18:C18 B5:E6 A9:F10 G6 A7:G8 B3:G4 A11:G11 A12:H15 B47 D47 B48:D49 B50:C50 B52:B53 A16:XFD17 B51:D51 T5:XFD6 E18:XFD18 S3:XFD4 S7:XFD7 U8:XFD9 S10:XFD15">
-    <cfRule type="cellIs" dxfId="24" priority="29" operator="equal">
+  <conditionalFormatting sqref="B19:C19 B5:E6 A10:F11 G6 A7:G9 B3:G4 A12:G12 A13:H16 B48 D48 B49:D50 B51:C51 B53:B54 A17:XFD18 B52:D52 T5:XFD6 E19:XFD19 S3:XFD4 S7:XFD7 U8:XFD8 S11:XFD16 U10:XFD10 V9:XFD9">
+    <cfRule type="cellIs" dxfId="28" priority="31" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="23" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="22" priority="27" operator="equal">
-      <formula>"-"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="21" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="29" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="20" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="28" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="19" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="26" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="18" priority="23" operator="equal">
+  <conditionalFormatting sqref="H8:H9">
+    <cfRule type="cellIs" dxfId="22" priority="25" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="17" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8 I3 I5:I6 M8:P8 L5:R6 I12:K12 L3:R3 M12:R12 I4:R4 I7:R7 R6:R7 I9:R11 I13:R15">
+  <conditionalFormatting sqref="K8:K9 I3 I5:I6 M8:P9 L5:R6 I13:K13 L3:R3 M13:R13 I4:R4 I7:R7 R6:R7 I10:R12 I14:R16">
+    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="cellIs" dxfId="19" priority="22" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8:I9">
     <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="15" priority="20" operator="equal">
-      <formula>"-"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="14" priority="19" operator="equal">
-      <formula>"-"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="13" priority="18" operator="equal">
-      <formula>"-"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
-      <formula>"-"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+  <conditionalFormatting sqref="J8:J9">
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L8">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+  <conditionalFormatting sqref="L8:L9">
+    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+  <conditionalFormatting sqref="L13">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+  <conditionalFormatting sqref="D19">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q8">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+  <conditionalFormatting sqref="Q8:Q9">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R8">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+  <conditionalFormatting sqref="R8:R9">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S9:T9">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+  <conditionalFormatting sqref="S10:T10">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5:S6">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S8">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="S8:S9">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T8">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T9">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U9">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B50" r:id="rId1"/>
-    <hyperlink ref="B47" r:id="rId2"/>
+    <hyperlink ref="B51" r:id="rId1"/>
+    <hyperlink ref="B48" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId3"/>
@@ -3591,7 +3699,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="B4" sqref="B4:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3606,13 +3714,13 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="58" t="s">
         <v>186</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="60" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3620,33 +3728,33 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="61" t="s">
         <v>189</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="D3" s="63"/>
+      <c r="D3" s="60"/>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="63" t="s">
         <v>191</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="64" t="s">
         <v>187</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="65" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="66" t="s">
         <v>193</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="67" t="s">
         <v>194</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="D5" s="65" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3654,13 +3762,13 @@
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="68" t="s">
         <v>196</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="60" t="s">
         <v>198</v>
       </c>
     </row>
@@ -3668,25 +3776,25 @@
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="68" t="s">
         <v>199</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="59" t="s">
         <v>200</v>
       </c>
-      <c r="D7" s="63"/>
+      <c r="D7" s="60"/>
     </row>
     <row r="8" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="58" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="D8" s="63" t="s">
+      <c r="D8" s="60" t="s">
         <v>202</v>
       </c>
     </row>
@@ -3694,25 +3802,25 @@
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="61" t="s">
         <v>203</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="D9" s="63"/>
+      <c r="D9" s="60"/>
     </row>
     <row r="10" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="58" t="s">
         <v>204</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="D10" s="63" t="s">
+      <c r="D10" s="60" t="s">
         <v>205</v>
       </c>
     </row>
@@ -3720,25 +3828,25 @@
       <c r="A11">
         <v>1</v>
       </c>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="61" t="s">
         <v>206</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="D11" s="63"/>
+      <c r="D11" s="60"/>
     </row>
     <row r="12" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1</v>
       </c>
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="69" t="s">
         <v>207</v>
       </c>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="74" t="s">
         <v>192</v>
       </c>
-      <c r="D12" s="74" t="s">
+      <c r="D12" s="76" t="s">
         <v>208</v>
       </c>
     </row>
@@ -3746,173 +3854,176 @@
       <c r="A13">
         <v>1</v>
       </c>
-      <c r="B13" s="75" t="s">
+      <c r="B13" s="70" t="s">
         <v>209</v>
       </c>
-      <c r="C13" s="76"/>
-      <c r="D13" s="74"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="76"/>
     </row>
     <row r="14" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1</v>
       </c>
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="61" t="s">
         <v>210</v>
       </c>
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="D14" s="63"/>
+      <c r="D14" s="60"/>
     </row>
     <row r="15" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="58" t="s">
         <v>212</v>
       </c>
-      <c r="C15" s="73" t="s">
+      <c r="C15" s="74" t="s">
         <v>213</v>
       </c>
-      <c r="D15" s="63"/>
+      <c r="D15" s="60"/>
     </row>
     <row r="16" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1</v>
       </c>
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="61" t="s">
         <v>214</v>
       </c>
       <c r="C16" s="77"/>
-      <c r="D16" s="63"/>
+      <c r="D16" s="60"/>
     </row>
     <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="78" t="s">
+      <c r="B17" s="71" t="s">
         <v>215</v>
       </c>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="64" t="s">
         <v>216</v>
       </c>
-      <c r="D17" s="68"/>
+      <c r="D17" s="65"/>
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="78" t="s">
+      <c r="B18" s="71" t="s">
         <v>217</v>
       </c>
-      <c r="C18" s="67" t="s">
+      <c r="C18" s="64" t="s">
         <v>218</v>
       </c>
-      <c r="D18" s="68"/>
+      <c r="D18" s="65"/>
     </row>
     <row r="19" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1</v>
       </c>
-      <c r="B19" s="71" t="s">
+      <c r="B19" s="68" t="s">
         <v>219</v>
       </c>
-      <c r="C19" s="62" t="s">
+      <c r="C19" s="59" t="s">
         <v>220</v>
       </c>
-      <c r="D19" s="63"/>
+      <c r="D19" s="60"/>
     </row>
     <row r="20" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1</v>
       </c>
-      <c r="B20" s="71" t="s">
+      <c r="B20" s="68" t="s">
         <v>221</v>
       </c>
-      <c r="C20" s="62" t="s">
+      <c r="C20" s="59" t="s">
         <v>220</v>
       </c>
-      <c r="D20" s="63"/>
+      <c r="D20" s="60"/>
     </row>
     <row r="21" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1</v>
       </c>
-      <c r="B21" s="71" t="s">
+      <c r="B21" s="68" t="s">
         <v>222</v>
       </c>
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="59" t="s">
         <v>220</v>
       </c>
-      <c r="D21" s="63"/>
+      <c r="D21" s="60"/>
     </row>
     <row r="22" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1</v>
       </c>
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="68" t="s">
         <v>223</v>
       </c>
-      <c r="C22" s="62" t="s">
+      <c r="C22" s="59" t="s">
         <v>220</v>
       </c>
-      <c r="D22" s="63"/>
+      <c r="D22" s="60"/>
     </row>
     <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="78" t="s">
+      <c r="B23" s="71" t="s">
         <v>224</v>
       </c>
-      <c r="C23" s="67" t="s">
+      <c r="C23" s="64" t="s">
         <v>220</v>
       </c>
-      <c r="D23" s="68"/>
+      <c r="D23" s="65"/>
     </row>
     <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="78" t="s">
+      <c r="B24" s="71" t="s">
         <v>225</v>
       </c>
-      <c r="C24" s="67" t="s">
+      <c r="C24" s="64" t="s">
         <v>194</v>
       </c>
-      <c r="D24" s="68" t="s">
+      <c r="D24" s="65" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="79" t="s">
+      <c r="B25" s="72" t="s">
         <v>227</v>
       </c>
-      <c r="C25" s="67" t="s">
+      <c r="C25" s="64" t="s">
         <v>194</v>
       </c>
-      <c r="D25" s="68" t="s">
+      <c r="D25" s="65" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="78" t="s">
+      <c r="B26" s="71" t="s">
         <v>229</v>
       </c>
-      <c r="C26" s="67" t="s">
+      <c r="C26" s="64" t="s">
         <v>187</v>
       </c>
-      <c r="D26" s="68" t="s">
+      <c r="D26" s="65" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="78" t="s">
+      <c r="B27" s="71" t="s">
         <v>230</v>
       </c>
-      <c r="C27" s="67" t="s">
+      <c r="C27" s="64" t="s">
         <v>187</v>
       </c>
-      <c r="D27" s="68" t="s">
+      <c r="D27" s="65" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="78" t="s">
+    <row r="28" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" s="68" t="s">
         <v>231</v>
       </c>
-      <c r="C28" s="67" t="s">
+      <c r="C28" s="59" t="s">
         <v>194</v>
       </c>
-      <c r="D28" s="68" t="s">
+      <c r="D28" s="60" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3920,25 +4031,25 @@
       <c r="A29">
         <v>1</v>
       </c>
-      <c r="B29" s="71" t="s">
+      <c r="B29" s="68" t="s">
         <v>232</v>
       </c>
-      <c r="C29" s="62" t="s">
+      <c r="C29" s="59" t="s">
         <v>220</v>
       </c>
-      <c r="D29" s="63"/>
+      <c r="D29" s="60"/>
     </row>
     <row r="30" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1</v>
       </c>
-      <c r="B30" s="71" t="s">
+      <c r="B30" s="68" t="s">
         <v>233</v>
       </c>
-      <c r="C30" s="62" t="s">
+      <c r="C30" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="D30" s="63" t="s">
+      <c r="D30" s="60" t="s">
         <v>234</v>
       </c>
     </row>
@@ -3946,24 +4057,24 @@
       <c r="A31">
         <v>1</v>
       </c>
-      <c r="B31" s="71" t="s">
+      <c r="B31" s="68" t="s">
         <v>235</v>
       </c>
-      <c r="C31" s="62" t="s">
+      <c r="C31" s="59" t="s">
         <v>192</v>
       </c>
-      <c r="D31" s="63" t="s">
+      <c r="D31" s="60" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="79" t="s">
+      <c r="B32" s="72" t="s">
         <v>236</v>
       </c>
-      <c r="C32" s="67" t="s">
+      <c r="C32" s="64" t="s">
         <v>194</v>
       </c>
-      <c r="D32" s="68" t="s">
+      <c r="D32" s="65" t="s">
         <v>226</v>
       </c>
     </row>
@@ -3971,13 +4082,13 @@
       <c r="A33">
         <v>1</v>
       </c>
-      <c r="B33" s="71" t="s">
+      <c r="B33" s="68" t="s">
         <v>237</v>
       </c>
-      <c r="C33" s="62" t="s">
+      <c r="C33" s="59" t="s">
         <v>220</v>
       </c>
-      <c r="D33" s="80"/>
+      <c r="D33" s="73"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D33">
@@ -3999,7 +4110,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4018,7 +4129,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="78" t="s">
         <v>165</v>
       </c>
       <c r="B2" s="52" t="s">
@@ -4027,137 +4138,141 @@
       <c r="C2" s="41"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="56"/>
+      <c r="A3" s="79"/>
       <c r="B3" s="45" t="s">
         <v>167</v>
       </c>
       <c r="C3" s="42"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="56"/>
+      <c r="A4" s="79"/>
       <c r="B4" s="45" t="s">
         <v>168</v>
       </c>
       <c r="C4" s="42"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="56"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="45" t="s">
         <v>177</v>
       </c>
       <c r="C5" s="42"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="56"/>
+      <c r="A6" s="79"/>
       <c r="B6" s="51" t="s">
         <v>171</v>
       </c>
       <c r="C6" s="42"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="56"/>
-      <c r="B7" s="45"/>
+      <c r="A7" s="79"/>
+      <c r="B7" s="45" t="s">
+        <v>239</v>
+      </c>
       <c r="C7" s="42"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="56"/>
-      <c r="B8" s="45"/>
+      <c r="A8" s="79"/>
+      <c r="B8" s="45" t="s">
+        <v>240</v>
+      </c>
       <c r="C8" s="42"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="56"/>
+      <c r="A9" s="79"/>
       <c r="B9" s="45"/>
       <c r="C9" s="42"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="56"/>
+      <c r="A10" s="79"/>
       <c r="B10" s="45"/>
       <c r="C10" s="42"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="56"/>
+      <c r="A11" s="79"/>
       <c r="B11" s="45"/>
       <c r="C11" s="42"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="56"/>
+      <c r="A12" s="79"/>
       <c r="B12" s="45"/>
       <c r="C12" s="42"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="56"/>
+      <c r="A13" s="79"/>
       <c r="B13" s="45"/>
       <c r="C13" s="42"/>
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="57"/>
+      <c r="A14" s="80"/>
       <c r="B14" s="46"/>
       <c r="C14" s="43"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="78" t="s">
         <v>166</v>
       </c>
       <c r="B15" s="41"/>
       <c r="C15" s="41"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="56"/>
+      <c r="A16" s="79"/>
       <c r="B16" s="45"/>
       <c r="C16" s="42"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="56"/>
+      <c r="A17" s="79"/>
       <c r="B17" s="45"/>
       <c r="C17" s="42"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="56"/>
+      <c r="A18" s="79"/>
       <c r="B18" s="45"/>
       <c r="C18" s="42"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="56"/>
+      <c r="A19" s="79"/>
       <c r="B19" s="45"/>
       <c r="C19" s="42"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="56"/>
+      <c r="A20" s="79"/>
       <c r="B20" s="45"/>
       <c r="C20" s="42"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="56"/>
+      <c r="A21" s="79"/>
       <c r="B21" s="45"/>
       <c r="C21" s="42"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="56"/>
+      <c r="A22" s="79"/>
       <c r="B22" s="45"/>
       <c r="C22" s="42"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="56"/>
+      <c r="A23" s="79"/>
       <c r="B23" s="45"/>
       <c r="C23" s="42"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="56"/>
+      <c r="A24" s="79"/>
       <c r="B24" s="45"/>
       <c r="C24" s="42"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="56"/>
+      <c r="A25" s="79"/>
       <c r="B25" s="45"/>
       <c r="C25" s="42"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="56"/>
+      <c r="A26" s="79"/>
       <c r="B26" s="45"/>
       <c r="C26" s="42"/>
     </row>
     <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="57"/>
+      <c r="A27" s="80"/>
       <c r="B27" s="46"/>
       <c r="C27" s="43"/>
     </row>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="245">
   <si>
     <t>week</t>
   </si>
@@ -762,9 +762,6 @@
     <t>Ержан, Бекарыс</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>ЕНПФ выплата ипотеки</t>
   </si>
   <si>
@@ -778,6 +775,12 @@
   </si>
   <si>
     <t>Hyperfocus - 30%</t>
+  </si>
+  <si>
+    <t>97/200</t>
+  </si>
+  <si>
+    <t>duolinguo 90</t>
   </si>
 </sst>
 </file>
@@ -1493,7 +1496,137 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="42">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2261,7 +2394,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U8" sqref="U8"/>
+      <selection pane="bottomRight" activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2271,7 +2404,8 @@
     <col min="3" max="19" width="38.21875" style="1" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="32.77734375" style="1" customWidth="1"/>
     <col min="21" max="21" width="32.44140625" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.88671875" style="1"/>
+    <col min="22" max="22" width="29.5546875" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -2606,7 +2740,10 @@
       <c r="T4" s="55" t="s">
         <v>180</v>
       </c>
-      <c r="U4" s="37" t="s">
+      <c r="U4" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="V4" s="37" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2663,6 +2800,9 @@
       <c r="T5" s="55" t="s">
         <v>181</v>
       </c>
+      <c r="U5" s="8" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="6" spans="1:50" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
@@ -2710,6 +2850,9 @@
       <c r="T6" s="8" t="s">
         <v>104</v>
       </c>
+      <c r="U6" s="8" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="7" spans="1:50" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
@@ -2764,8 +2907,8 @@
       <c r="T7" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="U7" s="55" t="s">
-        <v>238</v>
+      <c r="U7" s="8" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:50" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -2817,14 +2960,14 @@
       <c r="T8" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="U8" s="55" t="s">
-        <v>121</v>
+      <c r="U8" s="23" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:50" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18"/>
       <c r="B9" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C9" s="29"/>
       <c r="D9" s="9"/>
@@ -2847,7 +2990,7 @@
         <v>121</v>
       </c>
       <c r="U9" s="23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:50" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -2901,8 +3044,8 @@
       <c r="T10" s="56" t="s">
         <v>183</v>
       </c>
-      <c r="U10" s="55" t="s">
-        <v>121</v>
+      <c r="U10" s="23" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:50" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -2954,8 +3097,8 @@
       <c r="T11" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="U11" s="81" t="s">
-        <v>243</v>
+      <c r="U11" s="23" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:50" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -3005,6 +3148,9 @@
         <v>31</v>
       </c>
       <c r="T12" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="U12" s="81" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3057,6 +3203,9 @@
       <c r="T13" s="55" t="s">
         <v>184</v>
       </c>
+      <c r="U13" s="81" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:50" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="18"/>
@@ -3107,6 +3256,9 @@
       <c r="T14" s="55" t="s">
         <v>185</v>
       </c>
+      <c r="U14" s="81" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:50" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
@@ -3204,6 +3356,9 @@
       <c r="T16" s="55" t="s">
         <v>31</v>
       </c>
+      <c r="U16" s="81" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
@@ -3549,138 +3704,153 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B19:C19 B5:E6 A10:F11 G6 A7:G9 B3:G4 A12:G12 A13:H16 B48 D48 B49:D50 B51:C51 B53:B54 A17:XFD18 B52:D52 T5:XFD6 E19:XFD19 S3:XFD4 S7:XFD7 U8:XFD8 S11:XFD16 U10:XFD10 V9:XFD9">
-    <cfRule type="cellIs" dxfId="28" priority="31" operator="equal">
+  <conditionalFormatting sqref="B19:C19 B5:E6 A10:F11 G6 A7:G9 B3:G4 A12:G12 A13:H16 B48 D48 B49:D50 B51:C51 B53:B54 A17:XFD18 B52:D52 E19:XFD19 S12:XFD16 S11:T11 V8:XFD11 S7:XFD7 T5:XFD6 S3:XFD4">
+    <cfRule type="cellIs" dxfId="2" priority="35" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="34" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="26" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="33" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="25" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="32" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="31" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="23" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="30" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H9">
-    <cfRule type="cellIs" dxfId="22" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="29" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="28" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:K9 I3 I5:I6 M8:P9 L5:R6 I13:K13 L3:R3 M13:R13 I4:R4 I7:R7 R6:R7 I10:R12 I14:R16">
-    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="23" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="19" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="26" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="25" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="24" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:I9">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="21" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="19" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="18" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J9">
-    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="16" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L9">
-    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="15" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="14" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="13" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8:Q9">
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="12" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8:R9">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="11" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S10:T10">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="10" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5:S6">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="9" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8:S9">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T8">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T9">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U9">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U8">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U10">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U11">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4168,14 +4338,14 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="79"/>
       <c r="B7" s="45" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C7" s="42"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="79"/>
       <c r="B8" s="45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C8" s="42"/>
     </row>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18324" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18324" windowHeight="9384" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="weeklyReport" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="248">
   <si>
     <t>week</t>
   </si>
@@ -271,9 +271,6 @@
   </si>
   <si>
     <t>Foundations for Discrete Mathematics and Data Structures &amp; Algorithms</t>
-  </si>
-  <si>
-    <t>GitHub</t>
   </si>
   <si>
     <t>Online Courses</t>
@@ -781,19 +778,40 @@
   </si>
   <si>
     <t>duolinguo 90</t>
+  </si>
+  <si>
+    <t>https://github.com/aimbetovnurzhan</t>
+  </si>
+  <si>
+    <t>get review meetings with Taalay</t>
+  </si>
+  <si>
+    <t>Hyperfocus - 40%</t>
+  </si>
+  <si>
+    <t>Also, on Tuesday we will watch a video about the Meyers Briggs Personality Test.   There are 16 types of personalities.  We will figure out our personality types in class.  Here is the video: https://www.bing.com/videos/riverview/relatedvideo?&amp;q=esl+listening+meyers+briggs+personality+types&amp;qpvt=esl+listening+meyers+briggs+personality+types&amp;mid=A2A37DB90F33ABC708B5A2A37DB90F33ABC708B5&amp;&amp;FORM=VRDGAR.  You can watch it before class if you have time.  It is 14 minutes long.
+Alias game - Health.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -887,7 +905,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -926,12 +944,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1313,108 +1325,108 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
@@ -1423,10 +1435,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1437,13 +1449,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1451,13 +1463,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1466,8 +1474,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1480,113 +1491,30 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="33">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2390,11 +2318,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V8" sqref="V8"/>
+      <selection pane="bottomRight" activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2402,7 +2330,7 @@
     <col min="1" max="1" width="10.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="19" width="38.21875" style="1" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="32.77734375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="32.77734375" style="1" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="32.44140625" style="1" customWidth="1"/>
     <col min="22" max="22" width="29.5546875" style="1" customWidth="1"/>
     <col min="23" max="16384" width="8.88671875" style="1"/>
@@ -2663,28 +2591,28 @@
         <v>38</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I3" s="24" t="s">
         <v>31</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K3" s="24" t="s">
         <v>31</v>
       </c>
       <c r="L3" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q3" s="35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:50" s="8" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
@@ -2704,47 +2632,47 @@
         <v>38</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G4" s="24" t="s">
         <v>31</v>
       </c>
       <c r="H4" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="I4" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="I4" s="30" t="s">
-        <v>119</v>
-      </c>
       <c r="J4" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K4" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="L4" s="24" t="s">
         <v>131</v>
-      </c>
-      <c r="L4" s="24" t="s">
-        <v>132</v>
       </c>
       <c r="M4" s="24"/>
       <c r="N4" s="24"/>
       <c r="O4" s="24"/>
       <c r="P4" s="24"/>
       <c r="Q4" s="35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="R4" s="38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S4" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="T4" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="V4" s="80" t="s">
         <v>173</v>
-      </c>
-      <c r="T4" s="55" t="s">
-        <v>180</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="V4" s="37" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:50" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -2764,7 +2692,7 @@
         <v>44</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G5" s="24" t="s">
         <v>31</v>
@@ -2776,32 +2704,32 @@
         <v>31</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L5" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M5" s="24"/>
       <c r="N5" s="24"/>
       <c r="O5" s="24"/>
       <c r="P5" s="24"/>
       <c r="Q5" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="R5" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S5" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T5" s="55" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U5" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:50" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -2814,10 +2742,10 @@
       <c r="C6" s="29"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G6" s="24" t="s">
         <v>31</v>
@@ -2829,29 +2757,29 @@
         <v>31</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L6" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M6" s="24"/>
       <c r="N6" s="24"/>
       <c r="O6" s="24"/>
       <c r="P6" s="24"/>
       <c r="Q6" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R6" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S6" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T6" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="U6" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:50" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -2871,50 +2799,50 @@
         <v>38</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G7" s="24" t="s">
         <v>31</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I7" s="24" t="s">
         <v>31</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K7" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L7" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M7" s="24"/>
       <c r="N7" s="24"/>
       <c r="O7" s="24"/>
       <c r="P7" s="24"/>
       <c r="Q7" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="R7" s="36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S7" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="T7" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="U7" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:50" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18"/>
       <c r="B8" s="19" t="s">
-        <v>78</v>
+        <v>244</v>
       </c>
       <c r="C8" s="29" t="s">
         <v>31</v>
@@ -2926,48 +2854,48 @@
         <v>42</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K8" s="24"/>
       <c r="L8" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M8" s="24"/>
       <c r="N8" s="24"/>
       <c r="O8" s="24"/>
       <c r="P8" s="24"/>
       <c r="Q8" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R8" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="S8" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T8" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U8" s="23" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:50" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18"/>
       <c r="B9" s="19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C9" s="29"/>
       <c r="D9" s="9"/>
@@ -2987,16 +2915,16 @@
       <c r="R9" s="21"/>
       <c r="S9" s="21"/>
       <c r="T9" s="55" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="U9" s="23" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:50" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="18"/>
       <c r="B10" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>31</v>
@@ -3008,50 +2936,50 @@
         <v>67</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G10" s="24" t="s">
         <v>31</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I10" s="24" t="s">
         <v>31</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L10" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M10" s="24"/>
       <c r="N10" s="24"/>
       <c r="O10" s="24"/>
       <c r="P10" s="24"/>
       <c r="Q10" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R10" s="36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="S10" s="38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="T10" s="56" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="U10" s="23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:50" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
       <c r="B11" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" s="29" t="s">
         <v>31</v>
@@ -3063,48 +2991,51 @@
         <v>39</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G11" s="24" t="s">
         <v>31</v>
       </c>
       <c r="H11" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I11" s="24" t="s">
         <v>31</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K11" s="24"/>
       <c r="L11" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M11" s="24"/>
       <c r="N11" s="24"/>
       <c r="O11" s="24"/>
       <c r="P11" s="24"/>
       <c r="Q11" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R11" s="38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S11" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="T11" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="U11" s="23" t="s">
-        <v>242</v>
+        <v>241</v>
+      </c>
+      <c r="V11" s="23" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:50" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18"/>
       <c r="B12" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" s="29" t="s">
         <v>31</v>
@@ -3116,19 +3047,19 @@
         <v>31</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I12" s="24" t="s">
         <v>31</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K12" s="24"/>
       <c r="L12" s="24" t="s">
@@ -3150,14 +3081,14 @@
       <c r="T12" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="U12" s="81" t="s">
+      <c r="U12" s="71" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:50" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
       <c r="B13" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C13" s="29" t="s">
         <v>31</v>
@@ -3169,13 +3100,13 @@
         <v>41</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>31</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I13" s="24" t="s">
         <v>31</v>
@@ -3185,32 +3116,32 @@
       </c>
       <c r="K13" s="24"/>
       <c r="L13" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M13" s="24"/>
       <c r="N13" s="24"/>
       <c r="O13" s="24"/>
       <c r="P13" s="24"/>
       <c r="Q13" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R13" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S13" s="37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="T13" s="55" t="s">
-        <v>184</v>
-      </c>
-      <c r="U13" s="81" t="s">
+        <v>183</v>
+      </c>
+      <c r="U13" s="71" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:50" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="18"/>
       <c r="B14" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C14" s="29" t="s">
         <v>31</v>
@@ -3222,19 +3153,19 @@
         <v>43</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I14" s="24" t="s">
         <v>31</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K14" s="24"/>
       <c r="L14" s="24" t="s">
@@ -3245,25 +3176,25 @@
       <c r="O14" s="24"/>
       <c r="P14" s="24"/>
       <c r="Q14" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R14" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S14" s="37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T14" s="55" t="s">
-        <v>185</v>
-      </c>
-      <c r="U14" s="81" t="s">
+        <v>184</v>
+      </c>
+      <c r="U14" s="71" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:50" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
       <c r="B15" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C15" s="29" t="s">
         <v>31</v>
@@ -3298,19 +3229,19 @@
       <c r="O15" s="24"/>
       <c r="P15" s="24"/>
       <c r="Q15" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R15" s="24" t="s">
         <v>31</v>
       </c>
       <c r="S15" s="37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:50" s="8" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="33"/>
       <c r="B16" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C16" s="29" t="s">
         <v>2</v>
@@ -3328,7 +3259,7 @@
         <v>31</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I16" s="24" t="s">
         <v>31</v>
@@ -3356,11 +3287,11 @@
       <c r="T16" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="U16" s="81" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="U16" s="71" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
         <v>36</v>
       </c>
@@ -3407,10 +3338,10 @@
         <v>31</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
         <v>63</v>
       </c>
@@ -3468,8 +3399,11 @@
       <c r="T18" s="57" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U18" s="72" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
         <v>26</v>
       </c>
@@ -3483,7 +3417,7 @@
         <v>37</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>31</v>
@@ -3507,21 +3441,27 @@
         <v>31</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T19" s="57" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+      <c r="U19" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="V19" s="57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="230.4" x14ac:dyDescent="0.3">
       <c r="B20" s="39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="3"/>
@@ -3532,67 +3472,70 @@
         <v>66</v>
       </c>
       <c r="T20" s="40" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="100.8" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+      <c r="U20" s="81" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="72" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>11</v>
       </c>
@@ -3664,27 +3607,27 @@
     </row>
     <row r="48" spans="2:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B48" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D48" s="24"/>
     </row>
     <row r="49" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B49" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C49" s="24"/>
       <c r="D49" s="24"/>
     </row>
     <row r="50" spans="2:4" ht="72" x14ac:dyDescent="0.3">
       <c r="B50" s="36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C50" s="24"/>
       <c r="D50" s="24"/>
     </row>
     <row r="51" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B51" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="24"/>
     </row>
@@ -3695,162 +3638,167 @@
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B53" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B54" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B19:C19 B5:E6 A10:F11 G6 A7:G9 B3:G4 A12:G12 A13:H16 B48 D48 B49:D50 B51:C51 B53:B54 A17:XFD18 B52:D52 E19:XFD19 S12:XFD16 S11:T11 V8:XFD11 S7:XFD7 T5:XFD6 S3:XFD4">
-    <cfRule type="cellIs" dxfId="2" priority="35" operator="equal">
+  <conditionalFormatting sqref="B19:C19 B5:E6 A10:F11 G6 A7:G9 B3:G4 A12:G12 A13:H16 B48 D48 B49:D50 B51:C51 B53:B54 A17:XFD18 B52:D52 S12:XFD16 S11:T11 V8:XFD10 S7:XFD7 T5:XFD6 S3:XFD4 W11:XFD11 E19:XFD19">
+    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="41" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="35" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="40" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="34" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="39" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="33" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="38" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="37" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="31" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H9">
-    <cfRule type="cellIs" dxfId="36" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="30" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="35" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="29" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:K9 I3 I5:I6 M8:P9 L5:R6 I13:K13 L3:R3 M13:R13 I4:R4 I7:R7 R6:R7 I10:R12 I14:R16">
-    <cfRule type="cellIs" dxfId="34" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="33" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="27" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="32" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="26" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="31" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="25" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:I9">
-    <cfRule type="cellIs" dxfId="30" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="cellIs" dxfId="29" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="cellIs" dxfId="28" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J9">
-    <cfRule type="cellIs" dxfId="27" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L9">
-    <cfRule type="cellIs" dxfId="26" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="cellIs" dxfId="25" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="24" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8:Q9">
-    <cfRule type="cellIs" dxfId="23" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8:R9">
-    <cfRule type="cellIs" dxfId="22" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S10:T10">
-    <cfRule type="cellIs" dxfId="21" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5:S6">
-    <cfRule type="cellIs" dxfId="20" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8:S9">
-    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T8">
-    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T9">
-    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U9">
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U8">
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U10">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U11">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V11">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3865,11 +3813,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3880,392 +3827,406 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="58" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="59" t="s">
         <v>186</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="D2" s="60" t="s">
         <v>187</v>
       </c>
-      <c r="D2" s="60" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="61" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="D3" s="60"/>
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="82" t="s">
         <v>190</v>
       </c>
-      <c r="D3" s="60"/>
-    </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="63" t="s">
+      <c r="C4" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" s="64" t="s">
         <v>191</v>
       </c>
-      <c r="C4" s="64" t="s">
-        <v>187</v>
-      </c>
-      <c r="D4" s="65" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="83" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="66" t="s">
+      <c r="C5" s="65" t="s">
         <v>193</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="D5" s="64" t="s">
         <v>194</v>
       </c>
-      <c r="D5" s="65" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="66" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" s="59" t="s">
         <v>196</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="D6" s="60" t="s">
         <v>197</v>
       </c>
-      <c r="D6" s="60" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="66" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" s="59" t="s">
         <v>199</v>
       </c>
-      <c r="C7" s="59" t="s">
-        <v>200</v>
-      </c>
       <c r="D7" s="60"/>
     </row>
-    <row r="8" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" s="58" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>186</v>
+      </c>
+      <c r="D8" s="60" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="59" t="s">
-        <v>187</v>
-      </c>
-      <c r="D8" s="60" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" s="61" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9" s="62" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D9" s="60"/>
     </row>
-    <row r="10" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" s="58" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>186</v>
+      </c>
+      <c r="D10" s="60" t="s">
         <v>204</v>
       </c>
-      <c r="C10" s="59" t="s">
-        <v>187</v>
-      </c>
-      <c r="D10" s="60" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" s="61" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C11" s="62" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D11" s="60"/>
     </row>
-    <row r="12" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="67" t="s">
+        <v>206</v>
+      </c>
+      <c r="C12" s="73" t="s">
+        <v>191</v>
+      </c>
+      <c r="D12" s="75" t="s">
         <v>207</v>
       </c>
-      <c r="C12" s="74" t="s">
-        <v>192</v>
-      </c>
-      <c r="D12" s="76" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
-      <c r="B13" s="70" t="s">
-        <v>209</v>
-      </c>
-      <c r="C13" s="75"/>
-      <c r="D13" s="76"/>
-    </row>
-    <row r="14" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="68" t="s">
+        <v>208</v>
+      </c>
+      <c r="C13" s="74"/>
+      <c r="D13" s="75"/>
+    </row>
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="B14" s="61" t="s">
+        <v>209</v>
+      </c>
+      <c r="C14" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="C14" s="62" t="s">
-        <v>211</v>
-      </c>
       <c r="D14" s="60"/>
     </row>
-    <row r="15" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15" s="58" t="s">
+        <v>211</v>
+      </c>
+      <c r="C15" s="73" t="s">
         <v>212</v>
       </c>
-      <c r="C15" s="74" t="s">
-        <v>213</v>
-      </c>
       <c r="D15" s="60"/>
     </row>
-    <row r="16" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1</v>
       </c>
       <c r="B16" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="C16" s="76"/>
+      <c r="D16" s="60"/>
+    </row>
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" s="66" t="s">
         <v>214</v>
       </c>
-      <c r="C16" s="77"/>
-      <c r="D16" s="60"/>
-    </row>
-    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="71" t="s">
+      <c r="C17" s="59" t="s">
         <v>215</v>
       </c>
-      <c r="C17" s="64" t="s">
+      <c r="D17" s="60"/>
+    </row>
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D17" s="65"/>
-    </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="71" t="s">
+      <c r="C18" s="59" t="s">
         <v>217</v>
       </c>
-      <c r="C18" s="64" t="s">
-        <v>218</v>
-      </c>
-      <c r="D18" s="65"/>
-    </row>
-    <row r="19" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D18" s="60"/>
+    </row>
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1</v>
       </c>
-      <c r="B19" s="68" t="s">
+      <c r="B19" s="66" t="s">
+        <v>218</v>
+      </c>
+      <c r="C19" s="59" t="s">
         <v>219</v>
       </c>
-      <c r="C19" s="59" t="s">
-        <v>220</v>
-      </c>
       <c r="D19" s="60"/>
     </row>
-    <row r="20" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1</v>
       </c>
-      <c r="B20" s="68" t="s">
-        <v>221</v>
+      <c r="B20" s="66" t="s">
+        <v>220</v>
       </c>
       <c r="C20" s="59" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D20" s="60"/>
     </row>
-    <row r="21" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1</v>
       </c>
-      <c r="B21" s="68" t="s">
-        <v>222</v>
+      <c r="B21" s="66" t="s">
+        <v>221</v>
       </c>
       <c r="C21" s="59" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D21" s="60"/>
     </row>
-    <row r="22" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1</v>
       </c>
-      <c r="B22" s="68" t="s">
+      <c r="B22" s="66" t="s">
+        <v>222</v>
+      </c>
+      <c r="C22" s="59" t="s">
+        <v>219</v>
+      </c>
+      <c r="D22" s="60"/>
+    </row>
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" s="66" t="s">
         <v>223</v>
       </c>
-      <c r="C22" s="59" t="s">
-        <v>220</v>
-      </c>
-      <c r="D22" s="60"/>
-    </row>
-    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="71" t="s">
+      <c r="C23" s="59" t="s">
+        <v>219</v>
+      </c>
+      <c r="D23" s="60"/>
+    </row>
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="69" t="s">
         <v>224</v>
       </c>
-      <c r="C23" s="64" t="s">
-        <v>220</v>
-      </c>
-      <c r="D23" s="65"/>
-    </row>
-    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="71" t="s">
+      <c r="C24" s="63" t="s">
+        <v>193</v>
+      </c>
+      <c r="D24" s="64" t="s">
         <v>225</v>
       </c>
-      <c r="C24" s="64" t="s">
-        <v>194</v>
-      </c>
-      <c r="D24" s="65" t="s">
+    </row>
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" s="66" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="72" t="s">
+      <c r="C25" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="D25" s="60" t="s">
         <v>227</v>
       </c>
-      <c r="C25" s="64" t="s">
-        <v>194</v>
-      </c>
-      <c r="D25" s="65" t="s">
+    </row>
+    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="69" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="71" t="s">
+      <c r="C26" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="D26" s="64" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" s="66" t="s">
         <v>229</v>
       </c>
-      <c r="C26" s="64" t="s">
-        <v>187</v>
-      </c>
-      <c r="D26" s="65" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="71" t="s">
-        <v>230</v>
-      </c>
-      <c r="C27" s="64" t="s">
-        <v>187</v>
-      </c>
-      <c r="D27" s="65" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="59" t="s">
+        <v>186</v>
+      </c>
+      <c r="D27" s="60" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1</v>
       </c>
-      <c r="B28" s="68" t="s">
-        <v>231</v>
+      <c r="B28" s="66" t="s">
+        <v>230</v>
       </c>
       <c r="C28" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="D28" s="60" t="s">
         <v>194</v>
       </c>
-      <c r="D28" s="60" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>1</v>
       </c>
-      <c r="B29" s="68" t="s">
-        <v>232</v>
+      <c r="B29" s="66" t="s">
+        <v>231</v>
       </c>
       <c r="C29" s="59" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D29" s="60"/>
     </row>
-    <row r="30" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1</v>
       </c>
-      <c r="B30" s="68" t="s">
+      <c r="B30" s="66" t="s">
+        <v>232</v>
+      </c>
+      <c r="C30" s="59" t="s">
+        <v>186</v>
+      </c>
+      <c r="D30" s="60" t="s">
         <v>233</v>
       </c>
-      <c r="C30" s="59" t="s">
-        <v>187</v>
-      </c>
-      <c r="D30" s="60" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1</v>
       </c>
-      <c r="B31" s="68" t="s">
+      <c r="B31" s="66" t="s">
+        <v>234</v>
+      </c>
+      <c r="C31" s="59" t="s">
+        <v>191</v>
+      </c>
+      <c r="D31" s="60" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" s="66" t="s">
         <v>235</v>
       </c>
-      <c r="C31" s="59" t="s">
-        <v>192</v>
-      </c>
-      <c r="D31" s="60" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="72" t="s">
-        <v>236</v>
-      </c>
-      <c r="C32" s="64" t="s">
-        <v>194</v>
-      </c>
-      <c r="D32" s="65" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="D32" s="60" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>1</v>
       </c>
-      <c r="B33" s="68" t="s">
-        <v>237</v>
+      <c r="B33" s="66" t="s">
+        <v>236</v>
       </c>
       <c r="C33" s="59" t="s">
-        <v>220</v>
-      </c>
-      <c r="D33" s="73"/>
+        <v>219</v>
+      </c>
+      <c r="D33" s="70"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D33">
-    <filterColumn colId="0">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D33"/>
   <mergeCells count="3">
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
@@ -4280,7 +4241,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4292,186 +4253,188 @@
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="44"/>
       <c r="B1" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="48" t="s">
         <v>163</v>
       </c>
-      <c r="C1" s="48" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="77" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="78" t="s">
-        <v>165</v>
-      </c>
       <c r="B2" s="52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C2" s="41"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="79"/>
+      <c r="A3" s="78"/>
       <c r="B3" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="42"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="78"/>
+      <c r="B4" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="42"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="79"/>
-      <c r="B4" s="45" t="s">
-        <v>168</v>
-      </c>
       <c r="C4" s="42"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="79"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C5" s="42"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="79"/>
+      <c r="A6" s="78"/>
       <c r="B6" s="51" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C6" s="42"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="79"/>
+      <c r="A7" s="78"/>
       <c r="B7" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="C7" s="42"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="78"/>
+      <c r="B8" s="45" t="s">
         <v>238</v>
       </c>
-      <c r="C7" s="42"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="79"/>
-      <c r="B8" s="45" t="s">
-        <v>239</v>
-      </c>
       <c r="C8" s="42"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="79"/>
-      <c r="B9" s="45"/>
+      <c r="A9" s="78"/>
+      <c r="B9" s="45" t="s">
+        <v>245</v>
+      </c>
       <c r="C9" s="42"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="79"/>
+      <c r="A10" s="78"/>
       <c r="B10" s="45"/>
       <c r="C10" s="42"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="79"/>
+      <c r="A11" s="78"/>
       <c r="B11" s="45"/>
       <c r="C11" s="42"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="79"/>
+      <c r="A12" s="78"/>
       <c r="B12" s="45"/>
       <c r="C12" s="42"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="79"/>
+      <c r="A13" s="78"/>
       <c r="B13" s="45"/>
       <c r="C13" s="42"/>
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="80"/>
+      <c r="A14" s="79"/>
       <c r="B14" s="46"/>
       <c r="C14" s="43"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="78" t="s">
-        <v>166</v>
+      <c r="A15" s="77" t="s">
+        <v>165</v>
       </c>
       <c r="B15" s="41"/>
       <c r="C15" s="41"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="79"/>
+      <c r="A16" s="78"/>
       <c r="B16" s="45"/>
       <c r="C16" s="42"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="79"/>
+      <c r="A17" s="78"/>
       <c r="B17" s="45"/>
       <c r="C17" s="42"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="79"/>
+      <c r="A18" s="78"/>
       <c r="B18" s="45"/>
       <c r="C18" s="42"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="79"/>
+      <c r="A19" s="78"/>
       <c r="B19" s="45"/>
       <c r="C19" s="42"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="79"/>
+      <c r="A20" s="78"/>
       <c r="B20" s="45"/>
       <c r="C20" s="42"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="79"/>
+      <c r="A21" s="78"/>
       <c r="B21" s="45"/>
       <c r="C21" s="42"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="79"/>
+      <c r="A22" s="78"/>
       <c r="B22" s="45"/>
       <c r="C22" s="42"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="79"/>
+      <c r="A23" s="78"/>
       <c r="B23" s="45"/>
       <c r="C23" s="42"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="79"/>
+      <c r="A24" s="78"/>
       <c r="B24" s="45"/>
       <c r="C24" s="42"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="79"/>
+      <c r="A25" s="78"/>
       <c r="B25" s="45"/>
       <c r="C25" s="42"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="79"/>
+      <c r="A26" s="78"/>
       <c r="B26" s="45"/>
       <c r="C26" s="42"/>
     </row>
     <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="80"/>
+      <c r="A27" s="79"/>
       <c r="B27" s="46"/>
       <c r="C27" s="43"/>
     </row>
     <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B30" s="53" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C30" s="54" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B31" s="53" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="49" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -4576,12 +4539,12 @@
     </row>
     <row r="132" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E132" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="133" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E133" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18324" windowHeight="9384" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18324" windowHeight="9384"/>
   </bookViews>
   <sheets>
     <sheet name="weeklyReport" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="250">
   <si>
     <t>week</t>
   </si>
@@ -564,11 +564,6 @@
     <t>no progress, lesson 14 hw finished</t>
   </si>
   <si>
-    <t xml:space="preserve">Homework for this AND the next week:
-Solve 6 Array/String problems in Java from https://seanprashad.com/leetcode-patterns/ by selecting Solutions- Arrays, Difficulty - Easy
-reviewed week </t>
-  </si>
-  <si>
     <t>БФТ</t>
   </si>
   <si>
@@ -791,6 +786,17 @@
   <si>
     <t>Also, on Tuesday we will watch a video about the Meyers Briggs Personality Test.   There are 16 types of personalities.  We will figure out our personality types in class.  Here is the video: https://www.bing.com/videos/riverview/relatedvideo?&amp;q=esl+listening+meyers+briggs+personality+types&amp;qpvt=esl+listening+meyers+briggs+personality+types&amp;mid=A2A37DB90F33ABC708B5A2A37DB90F33ABC708B5&amp;&amp;FORM=VRDGAR.  You can watch it before class if you have time.  It is 14 minutes long.
 Alias game - Health.</t>
+  </si>
+  <si>
+    <t>duolinguo 91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Homework for Thursday:  Page 18 &amp; 19, exercise 3 &amp; 4
+Also, here is the link to the shadowing exercise that we did in class today:  https://www.youtube.com/watch?v=0l5c_7w-aUI&amp;t=114s.  You can also check here for other shadowing activities: https://www.youtube.com/playlist?list=PLUMwxZvP4qBJTzEraZhWkuToKlSy2U5JV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">week 20 hw problems solved </t>
   </si>
 </sst>
 </file>
@@ -1514,7 +1520,57 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="38">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2318,11 +2374,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX54"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U20" sqref="U20"/>
+      <selection pane="bottomRight" activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2615,7 +2671,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:50" s="8" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:50" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>70</v>
       </c>
@@ -2666,13 +2722,13 @@
         <v>172</v>
       </c>
       <c r="T4" s="55" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="U4" s="8" t="s">
         <v>103</v>
       </c>
       <c r="V4" s="80" t="s">
-        <v>173</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:50" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -2726,7 +2782,7 @@
         <v>146</v>
       </c>
       <c r="T5" s="55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="U5" s="8" t="s">
         <v>103</v>
@@ -2842,7 +2898,7 @@
     <row r="8" spans="1:50" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18"/>
       <c r="B8" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C8" s="29" t="s">
         <v>31</v>
@@ -2886,16 +2942,16 @@
         <v>154</v>
       </c>
       <c r="T8" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U8" s="23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:50" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18"/>
       <c r="B9" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C9" s="29"/>
       <c r="D9" s="9"/>
@@ -2918,7 +2974,7 @@
         <v>120</v>
       </c>
       <c r="U9" s="23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:50" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -2970,10 +3026,13 @@
         <v>159</v>
       </c>
       <c r="T10" s="56" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U10" s="23" t="s">
-        <v>243</v>
+        <v>242</v>
+      </c>
+      <c r="V10" s="23" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:50" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -3026,10 +3085,10 @@
         <v>158</v>
       </c>
       <c r="U11" s="23" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="V11" s="23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:50" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -3082,6 +3141,9 @@
         <v>31</v>
       </c>
       <c r="U12" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="V12" s="71" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3132,9 +3194,12 @@
         <v>155</v>
       </c>
       <c r="T13" s="55" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="U13" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="V13" s="71" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3185,9 +3250,12 @@
         <v>156</v>
       </c>
       <c r="T14" s="55" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="U14" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="V14" s="71" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3290,6 +3358,9 @@
       <c r="U16" s="71" t="s">
         <v>31</v>
       </c>
+      <c r="V16" s="71" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
@@ -3475,7 +3546,10 @@
         <v>161</v>
       </c>
       <c r="U20" s="81" t="s">
-        <v>247</v>
+        <v>246</v>
+      </c>
+      <c r="V20" s="81" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
@@ -3647,157 +3721,162 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B19:C19 B5:E6 A10:F11 G6 A7:G9 B3:G4 A12:G12 A13:H16 B48 D48 B49:D50 B51:C51 B53:B54 A17:XFD18 B52:D52 S12:XFD16 S11:T11 V8:XFD10 S7:XFD7 T5:XFD6 S3:XFD4 W11:XFD11 E19:XFD19">
-    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
+  <conditionalFormatting sqref="B19:C19 B5:E6 A10:F11 G6 A7:G9 B3:G4 A12:G12 A13:H16 B48 D48 B49:D50 B51:C51 B53:B54 A17:XFD18 B52:D52 S11:T11 V8:XFD9 S7:XFD7 T5:XFD6 E19:XFD19 S3:XFD4 W10:XFD11 S12:XFD16">
+    <cfRule type="cellIs" dxfId="37" priority="37" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="31" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="36" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="30" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="29" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="27" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="32" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H9">
-    <cfRule type="cellIs" dxfId="26" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="25" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:K9 I3 I5:I6 M8:P9 L5:R6 I13:K13 L3:R3 M13:R13 I4:R4 I7:R7 R6:R7 I10:R12 I14:R16">
-    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="25" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="23" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="22" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="21" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:I9">
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="21" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="20" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J9">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="18" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L9">
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="17" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8:Q9">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="14" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8:R9">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S10:T10">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5:S6">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8:S9">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T8">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T9">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U9">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U8">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U10">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U11">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V11">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V10">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
@@ -3813,10 +3892,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="B4:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3827,406 +3907,410 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="58" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="59" t="s">
         <v>185</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="D2" s="60" t="s">
         <v>186</v>
       </c>
-      <c r="D2" s="60" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="61" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="62" t="s">
         <v>188</v>
-      </c>
-      <c r="C3" s="62" t="s">
-        <v>189</v>
       </c>
       <c r="D3" s="60"/>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="82" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" s="63" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" s="64" t="s">
         <v>190</v>
-      </c>
-      <c r="C4" s="63" t="s">
-        <v>186</v>
-      </c>
-      <c r="D4" s="64" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="83" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" s="65" t="s">
         <v>192</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="D5" s="64" t="s">
         <v>193</v>
       </c>
-      <c r="D5" s="64" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" s="66" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" s="59" t="s">
         <v>195</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="D6" s="60" t="s">
         <v>196</v>
       </c>
-      <c r="D6" s="60" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" s="66" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" s="59" t="s">
         <v>198</v>
       </c>
-      <c r="C7" s="59" t="s">
-        <v>199</v>
-      </c>
       <c r="D7" s="60"/>
     </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" s="58" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>185</v>
+      </c>
+      <c r="D8" s="60" t="s">
         <v>200</v>
       </c>
-      <c r="C8" s="59" t="s">
-        <v>186</v>
-      </c>
-      <c r="D8" s="60" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" s="61" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C9" s="62" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D9" s="60"/>
     </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>185</v>
+      </c>
+      <c r="D10" s="60" t="s">
         <v>203</v>
       </c>
-      <c r="C10" s="59" t="s">
-        <v>186</v>
-      </c>
-      <c r="D10" s="60" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" s="61" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C11" s="62" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D11" s="60"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="C12" s="73" t="s">
+        <v>190</v>
+      </c>
+      <c r="D12" s="75" t="s">
         <v>206</v>
       </c>
-      <c r="C12" s="73" t="s">
-        <v>191</v>
-      </c>
-      <c r="D12" s="75" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13" s="68" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C13" s="74"/>
       <c r="D13" s="75"/>
     </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="B14" s="61" t="s">
+        <v>208</v>
+      </c>
+      <c r="C14" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="C14" s="62" t="s">
-        <v>210</v>
-      </c>
       <c r="D14" s="60"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="C15" s="73" t="s">
         <v>211</v>
       </c>
-      <c r="C15" s="73" t="s">
-        <v>212</v>
-      </c>
       <c r="D15" s="60"/>
     </row>
-    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1</v>
       </c>
       <c r="B16" s="61" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C16" s="76"/>
       <c r="D16" s="60"/>
     </row>
-    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1</v>
       </c>
       <c r="B17" s="66" t="s">
+        <v>213</v>
+      </c>
+      <c r="C17" s="59" t="s">
         <v>214</v>
       </c>
-      <c r="C17" s="59" t="s">
-        <v>215</v>
-      </c>
       <c r="D17" s="60"/>
     </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18" s="66" t="s">
+        <v>215</v>
+      </c>
+      <c r="C18" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="C18" s="59" t="s">
-        <v>217</v>
-      </c>
       <c r="D18" s="60"/>
     </row>
-    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1</v>
       </c>
       <c r="B19" s="66" t="s">
+        <v>217</v>
+      </c>
+      <c r="C19" s="59" t="s">
         <v>218</v>
       </c>
-      <c r="C19" s="59" t="s">
-        <v>219</v>
-      </c>
       <c r="D19" s="60"/>
     </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1</v>
       </c>
       <c r="B20" s="66" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C20" s="59" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D20" s="60"/>
     </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1</v>
       </c>
       <c r="B21" s="66" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C21" s="59" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D21" s="60"/>
     </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1</v>
       </c>
       <c r="B22" s="66" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C22" s="59" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D22" s="60"/>
     </row>
-    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1</v>
       </c>
       <c r="B23" s="66" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C23" s="59" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D23" s="60"/>
     </row>
     <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="69" t="s">
+        <v>223</v>
+      </c>
+      <c r="C24" s="63" t="s">
+        <v>192</v>
+      </c>
+      <c r="D24" s="64" t="s">
         <v>224</v>
       </c>
-      <c r="C24" s="63" t="s">
-        <v>193</v>
-      </c>
-      <c r="D24" s="64" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1</v>
       </c>
       <c r="B25" s="66" t="s">
+        <v>225</v>
+      </c>
+      <c r="C25" s="59" t="s">
+        <v>192</v>
+      </c>
+      <c r="D25" s="60" t="s">
         <v>226</v>
-      </c>
-      <c r="C25" s="59" t="s">
-        <v>193</v>
-      </c>
-      <c r="D25" s="60" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="69" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C26" s="63" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D26" s="64" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>1</v>
       </c>
       <c r="B27" s="66" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C27" s="59" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D27" s="60" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1</v>
       </c>
       <c r="B28" s="66" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C28" s="59" t="s">
+        <v>192</v>
+      </c>
+      <c r="D28" s="60" t="s">
         <v>193</v>
       </c>
-      <c r="D28" s="60" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>1</v>
       </c>
       <c r="B29" s="66" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C29" s="59" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D29" s="60"/>
     </row>
-    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1</v>
       </c>
       <c r="B30" s="66" t="s">
+        <v>231</v>
+      </c>
+      <c r="C30" s="59" t="s">
+        <v>185</v>
+      </c>
+      <c r="D30" s="60" t="s">
         <v>232</v>
       </c>
-      <c r="C30" s="59" t="s">
-        <v>186</v>
-      </c>
-      <c r="D30" s="60" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1</v>
       </c>
       <c r="B31" s="66" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C31" s="59" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D31" s="60" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>1</v>
       </c>
       <c r="B32" s="66" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C32" s="59" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D32" s="60" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>1</v>
       </c>
       <c r="B33" s="66" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C33" s="59" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D33" s="70"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D33"/>
+  <autoFilter ref="A1:D33">
+    <filterColumn colId="0">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
@@ -4264,7 +4348,7 @@
         <v>164</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C2" s="41"/>
     </row>
@@ -4285,7 +4369,7 @@
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="78"/>
       <c r="B5" s="45" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C5" s="42"/>
     </row>
@@ -4299,21 +4383,21 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="78"/>
       <c r="B7" s="45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C7" s="42"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="78"/>
       <c r="B8" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C8" s="42"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="78"/>
       <c r="B9" s="45" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C9" s="42"/>
     </row>
@@ -4411,7 +4495,7 @@
     </row>
     <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -4419,12 +4503,12 @@
         <v>169</v>
       </c>
       <c r="C30" s="54" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B31" s="53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="250">
   <si>
     <t>week</t>
   </si>
@@ -2106,6 +2106,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>132728</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>40623</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Рисунок 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="26334720"/>
+          <a:ext cx="9192908" cy="4429743"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2375,10 +2413,10 @@
   <dimension ref="A1:AX54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="U3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V5" sqref="V5"/>
+      <selection pane="bottomRight" activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2893,6 +2931,9 @@
       </c>
       <c r="U7" s="8" t="s">
         <v>103</v>
+      </c>
+      <c r="V7" s="80" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:50" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -4535,8 +4576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T133"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E134" sqref="E134"/>
+    <sheetView topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="A145" sqref="A145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="250">
   <si>
     <t>week</t>
   </si>
@@ -2416,7 +2416,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="U3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V8" sqref="V8"/>
+      <selection pane="bottomRight" activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2824,6 +2824,9 @@
       </c>
       <c r="U5" s="8" t="s">
         <v>103</v>
+      </c>
+      <c r="V5" s="80" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:50" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="253">
   <si>
     <t>week</t>
   </si>
@@ -788,15 +788,25 @@
 Alias game - Health.</t>
   </si>
   <si>
-    <t>duolinguo 91</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 Homework for Thursday:  Page 18 &amp; 19, exercise 3 &amp; 4
 Also, here is the link to the shadowing exercise that we did in class today:  https://www.youtube.com/watch?v=0l5c_7w-aUI&amp;t=114s.  You can also check here for other shadowing activities: https://www.youtube.com/playlist?list=PLUMwxZvP4qBJTzEraZhWkuToKlSy2U5JV</t>
   </si>
   <si>
     <t xml:space="preserve">week 20 hw problems solved </t>
+  </si>
+  <si>
+    <t>102/200</t>
+  </si>
+  <si>
+    <t>25/3845 (13 java)</t>
+  </si>
+  <si>
+    <t>duolinguo 92</t>
+  </si>
+  <si>
+    <t>Page 23, exercises B &amp; C.
+writing exercise from page 25</t>
   </si>
 </sst>
 </file>
@@ -1331,7 +1341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1516,11 +1526,62 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="43">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2413,10 +2474,10 @@
   <dimension ref="A1:AX54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="U3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="V3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V6" sqref="V6"/>
+      <selection pane="bottomRight" activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2425,9 +2486,9 @@
     <col min="2" max="2" width="43.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="19" width="38.21875" style="1" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="32.77734375" style="1" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="32.44140625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="29.5546875" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.88671875" style="1"/>
+    <col min="21" max="21" width="32.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="22" max="23" width="29.6640625" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -2766,7 +2827,7 @@
         <v>103</v>
       </c>
       <c r="V4" s="80" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:50" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -2825,8 +2886,8 @@
       <c r="U5" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="V5" s="80" t="s">
-        <v>66</v>
+      <c r="V5" s="8" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:50" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -2878,6 +2939,9 @@
       <c r="U6" s="8" t="s">
         <v>103</v>
       </c>
+      <c r="V6" s="8" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="7" spans="1:50" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
@@ -2990,6 +3054,9 @@
       </c>
       <c r="U8" s="23" t="s">
         <v>241</v>
+      </c>
+      <c r="V8" s="23" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:50" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -3020,6 +3087,9 @@
       <c r="U9" s="23" t="s">
         <v>239</v>
       </c>
+      <c r="V9" s="23" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="10" spans="1:50" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="18"/>
@@ -3076,7 +3146,7 @@
         <v>242</v>
       </c>
       <c r="V10" s="23" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:50" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -3406,7 +3476,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
         <v>36</v>
       </c>
@@ -3456,7 +3526,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
         <v>63</v>
       </c>
@@ -3517,8 +3587,14 @@
       <c r="U18" s="72" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="V18" s="84" t="s">
+        <v>140</v>
+      </c>
+      <c r="W18" s="84" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
         <v>26</v>
       </c>
@@ -3573,8 +3649,11 @@
       <c r="V19" s="57" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="W19" s="84" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="230.4" x14ac:dyDescent="0.3">
       <c r="B20" s="39" t="s">
         <v>160</v>
       </c>
@@ -3593,10 +3672,13 @@
         <v>246</v>
       </c>
       <c r="V20" s="81" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+      <c r="W20" s="81" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>107</v>
       </c>
@@ -3604,7 +3686,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="72" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" ht="72" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>108</v>
       </c>
@@ -3612,48 +3694,48 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>11</v>
       </c>
@@ -3765,162 +3847,172 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B19:C19 B5:E6 A10:F11 G6 A7:G9 B3:G4 A12:G12 A13:H16 B48 D48 B49:D50 B51:C51 B53:B54 A17:XFD18 B52:D52 S11:T11 V8:XFD9 S7:XFD7 T5:XFD6 E19:XFD19 S3:XFD4 W10:XFD11 S12:XFD16">
-    <cfRule type="cellIs" dxfId="37" priority="37" operator="equal">
+  <conditionalFormatting sqref="B19:C19 B5:E6 A10:F11 G6 A7:G9 B3:G4 A12:G12 A13:H16 B48 D48 B49:D50 B51:C51 B53:B54 A17:XFD18 B52:D52 S11:T11 S7:XFD7 E19:XFD19 S3:XFD4 S12:XFD16 W8:XFD11 T5:XFD6">
+    <cfRule type="cellIs" dxfId="42" priority="39" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="36" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="38" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="37" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="36" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="35" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="32" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="34" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H9">
-    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="33" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="32" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:K9 I3 I5:I6 M8:P9 L5:R6 I13:K13 L3:R3 M13:R13 I4:R4 I7:R7 R6:R7 I10:R12 I14:R16">
-    <cfRule type="cellIs" dxfId="29" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="27" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="30" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="29" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="28" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:I9">
-    <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="25" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="cellIs" dxfId="24" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="23" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="cellIs" dxfId="23" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="22" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J9">
-    <cfRule type="cellIs" dxfId="22" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="20" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L9">
-    <cfRule type="cellIs" dxfId="21" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="19" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="18" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="17" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8:Q9">
-    <cfRule type="cellIs" dxfId="18" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8:R9">
-    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="15" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S10:T10">
-    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="14" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5:S6">
-    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8:S9">
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="12" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T8">
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T9">
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U9">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U8">
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U10">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U11">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V11">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V10">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V8">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V9">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
